--- a/Kobe plot/01-data_HOLT SR parameters KOBE PLOT.xlsx
+++ b/Kobe plot/01-data_HOLT SR parameters KOBE PLOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\C-68_WCVI_Chinook_work\Kobe plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64301A2-D898-4696-987E-08ADEA8BB1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E12832-24A5-4E09-93E9-A79A7C0C6CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{475432D4-1811-409C-8586-67C683C37B97}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{475432D4-1811-409C-8586-67C683C37B97}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw KOBE data" sheetId="6" r:id="rId1"/>
@@ -2119,7 +2119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DC8D3E8-5E56-4C3A-B41E-D48598927F3E}" type="CELLRANGE">
+                    <a:fld id="{6D6A2BC7-FD41-4325-A4FC-D746DA31AB75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2152,7 +2152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{774341D7-24DB-41C9-8C3A-2F171B531684}" type="CELLRANGE">
+                    <a:fld id="{9DEBCABC-713C-4B6F-9EF3-130572C9C24D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2185,7 +2185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EC0CA21-022C-4B4D-A81B-DD9C2907A205}" type="CELLRANGE">
+                    <a:fld id="{6570910E-5072-4292-AC71-71E55284C8B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2218,7 +2218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1816899-5B67-4740-A4A7-B94C18BBB09F}" type="CELLRANGE">
+                    <a:fld id="{0B175662-24BF-4751-87C8-5239C47C3E01}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2251,7 +2251,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{226F240F-1D1F-4F5D-84D8-68F72D955D05}" type="CELLRANGE">
+                    <a:fld id="{9AF70DD2-9008-4A69-8DB1-074D2B6244C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2284,7 +2284,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9348BA4-E680-43E0-BF05-89FA62BB2CF2}" type="CELLRANGE">
+                    <a:fld id="{1FC8B098-AB61-4DA9-9309-F60C3A795C4E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2317,7 +2317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D217FF3D-A2FF-48B1-B2C6-CDE451CE37CD}" type="CELLRANGE">
+                    <a:fld id="{1B4A8237-CB31-482E-BB97-4C3200F0EE5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2350,7 +2350,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F9A09BC-1BA1-4AD2-BCCC-F0BA1486C439}" type="CELLRANGE">
+                    <a:fld id="{EEC40D70-5AA6-47F0-B31D-0020FB5DB060}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2383,7 +2383,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0C8D1F8-FD56-4593-977B-233E7BCE1434}" type="CELLRANGE">
+                    <a:fld id="{5E86F6C2-A2C7-4652-B406-307A4A8FD5CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2416,7 +2416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED4F7740-E86C-4A37-A491-8D2D05E1D111}" type="CELLRANGE">
+                    <a:fld id="{9A655E81-F626-45D4-9049-FC98F0C9364C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2449,7 +2449,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FC204FF-07FA-4BE8-B77D-5C1FF98AE634}" type="CELLRANGE">
+                    <a:fld id="{D9E78936-196A-428D-B3E1-4A7983AE5276}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2482,7 +2482,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F5EF151-30D6-4837-9915-9618E4F10374}" type="CELLRANGE">
+                    <a:fld id="{567C51E3-DEF1-442C-AECC-5C4509954C5E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2515,7 +2515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58117A57-33A7-4715-A917-6CC97173EB6B}" type="CELLRANGE">
+                    <a:fld id="{77673227-BFBC-4889-A5A4-C6268BD4B555}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2548,7 +2548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0D23574-D874-4FDB-95CC-DD932BCE1B09}" type="CELLRANGE">
+                    <a:fld id="{D86897D9-A999-4994-A6AA-3901819E3CB3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2581,7 +2581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DF548E1-570F-41CA-8756-65FDA7146EAE}" type="CELLRANGE">
+                    <a:fld id="{AF5606E2-82BB-4D73-B285-AD4A02018E67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2614,7 +2614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1ED5DE5D-A1F3-4704-BDAF-958574948DF9}" type="CELLRANGE">
+                    <a:fld id="{4413E28D-E6E8-4D8B-80AF-1A35433BE4A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2647,7 +2647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DFC3DC0-7787-4B08-BFDA-900E7798FB74}" type="CELLRANGE">
+                    <a:fld id="{22264521-DF66-4A7F-90A9-7FB9B15BC4D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2680,7 +2680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFB7F489-F4BF-4A4D-B58A-702089329FFF}" type="CELLRANGE">
+                    <a:fld id="{06F44B07-1B1F-427F-89F0-932E075C4DA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2713,7 +2713,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90BC92EA-FC14-4579-8B3F-616EA9C7DDDD}" type="CELLRANGE">
+                    <a:fld id="{1C106E12-C034-4217-9C77-4805C4DED8BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2746,7 +2746,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E946E94-7132-4C05-B6E1-B85BC94B80FC}" type="CELLRANGE">
+                    <a:fld id="{7EEED53E-6E9B-43AE-BFF6-8E8C6F69A173}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2779,7 +2779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D9450E8-40F4-4AB8-8ADC-EA5E40688FA2}" type="CELLRANGE">
+                    <a:fld id="{14C570CA-F71E-4E92-A96D-2D6E40025DC1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2812,7 +2812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5A30AF1-83E8-4CD6-93E8-FB10E6ED8C87}" type="CELLRANGE">
+                    <a:fld id="{BE2EB10D-1F0E-48CC-A896-1E3CFD04B44B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2845,7 +2845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E6A42D2-AE6B-49B1-8689-818A2574554C}" type="CELLRANGE">
+                    <a:fld id="{1CF3DCFE-FBB1-4A43-93E5-6E19E1F61F39}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2878,7 +2878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{513FA69A-324B-4107-BC5E-2AE50E827C83}" type="CELLRANGE">
+                    <a:fld id="{87B89F84-8192-40FE-981C-15F9C3ACD091}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2911,7 +2911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E4CF6E3-03C1-4185-A7C1-A26BF0ABE6E8}" type="CELLRANGE">
+                    <a:fld id="{64FBF081-1BB7-415D-AE63-455602603A72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2944,7 +2944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7992307B-FB95-4EA1-BC7E-2D340F6AF64D}" type="CELLRANGE">
+                    <a:fld id="{B8BB5A0D-17D7-41BD-BD47-5D455663AD1B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2977,7 +2977,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A4D59F5-A6EB-4CEE-93BA-819613871E87}" type="CELLRANGE">
+                    <a:fld id="{4E261157-407E-4A7B-B16A-C9B2EF64A047}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3010,7 +3010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B891E47-0010-4EAB-B27C-B73F525006CF}" type="CELLRANGE">
+                    <a:fld id="{22B0754E-8FC3-44F3-8EAA-40C00502722D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3043,7 +3043,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BF55EE2-6A97-4BD5-BA74-2C15A6058B50}" type="CELLRANGE">
+                    <a:fld id="{B860C912-3F00-4D0D-A302-F98C6BE59538}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3076,7 +3076,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D90A24E7-CA14-45C8-80DA-D5BD93C2194C}" type="CELLRANGE">
+                    <a:fld id="{E753F9F3-CDC2-43B1-A4CD-6E944860F3C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3109,7 +3109,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A2E82EA-FD0E-4085-8805-C0DF82242884}" type="CELLRANGE">
+                    <a:fld id="{492FFB38-2FB2-42F1-9DDA-A96F814FB13A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3142,7 +3142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD2AB87F-10D7-41B3-9514-EDD5C55D4EDF}" type="CELLRANGE">
+                    <a:fld id="{262B2E00-07E5-4BAD-B62F-0B47B3D76A5F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3190,7 +3190,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{7FDFE297-2EE4-4A41-8056-D3E88CDDE61D}" type="CELLRANGE">
+                    <a:fld id="{01D10D32-C113-4B93-AEFF-843787599855}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -5747,13 +5747,13 @@
       <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1975</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1976</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>1977</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>1978</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>1979</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1980</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>1981</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1982</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>1983</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>1984</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>1985</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>1986</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>1987</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>1988</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>1989</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>1990</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>1991</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>1992</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>1993</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>1994</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>1995</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>1996</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>1997</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>1998</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>1999</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>2000</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>2001</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>2002</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>2003</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>2004</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>2005</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>2006</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>2007</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>2008</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>2009</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>2010</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>2011</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>2012</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>2013</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>2014</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>2015</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>2016</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>2017</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>2018</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>2019</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>2020</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="22">
         <v>2021</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>2022</v>
       </c>
@@ -8966,12 +8966,12 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>1558.4174336533374</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -9579,9 +9579,9 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -9611,7 +9611,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>1344.1950974447414</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>510.18957844798291</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>1576.0183009206446</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>1207.1049511534713</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>2866.6236685877816</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -9880,9 +9880,9 @@
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -9925,17 +9925,17 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -9960,7 +9960,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="5">
         <v>25</v>
@@ -10004,7 +10004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>1975</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>0.17666060973147588</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <v>1976</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>0.15653812504206205</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>1977</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>0.20492630728851202</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B12" s="18">
         <v>1978</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>0.23124032572851472</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <v>1979</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>1.5184944600363397</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>1980</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>1.536733445340438</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>1981</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>1.6520267469799335</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>1982</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>1.6180859353132568</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" s="18">
         <v>1983</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>1.6824983910208768</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>1984</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>1.4657735376010184</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B19" s="18">
         <v>1985</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>1.3557385391688745</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
         <v>1986</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>1.1053762061714996</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B21" s="18">
         <v>1987</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>0.76390954365711594</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B22" s="18">
         <v>1988</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>0.93945880338745102</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" s="18">
         <v>1989</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>0.86284969406382073</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" s="18">
         <v>1990</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" s="18">
         <v>1991</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B26" s="18">
         <v>1992</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>1993</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
         <v>1994</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
         <v>1995</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B30" s="18">
         <v>1996</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B31" s="18">
         <v>1997</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B32" s="18">
         <v>1998</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B33" s="18">
         <v>1999</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B34" s="18">
         <v>2000</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B35" s="18">
         <v>2001</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B36" s="18">
         <v>2002</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B37" s="18">
         <v>2003</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B38" s="18">
         <v>2004</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B39" s="18">
         <v>2005</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B40" s="18">
         <v>2006</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>2007</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B42" s="18">
         <v>2008</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
         <v>2009</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B44" s="18">
         <v>2010</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B45" s="18">
         <v>2011</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B46" s="18">
         <v>2012</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B47" s="18">
         <v>2013</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B48" s="18">
         <v>2014</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B49" s="18">
         <v>2015</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B50" s="18">
         <v>2016</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B51" s="18">
         <v>2017</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B52" s="18">
         <v>2018</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B53" s="18">
         <v>2019</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B54" s="18">
         <v>2020</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B55" s="22">
         <v>2021</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B56" s="18">
         <v>2022</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.3">
       <c r="AD57">
         <v>2</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.3">
       <c r="AD58">
         <v>0</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.3">
       <c r="AG59">
         <v>0.8</v>
       </c>
@@ -14698,1233 +14698,1233 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="27"/>
-    <col min="14" max="14" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="27"/>
+    <col min="14" max="14" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="256" width="9.140625" style="27"/>
-    <col min="257" max="257" width="26.140625" style="27" customWidth="1"/>
-    <col min="258" max="258" width="39.28515625" style="27" customWidth="1"/>
-    <col min="259" max="259" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="4.42578125" style="27" customWidth="1"/>
-    <col min="264" max="264" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="266" max="267" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="15.28515625" style="27" customWidth="1"/>
-    <col min="269" max="269" width="9.140625" style="27"/>
-    <col min="270" max="270" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="256" width="9.109375" style="27"/>
+    <col min="257" max="257" width="26.109375" style="27" customWidth="1"/>
+    <col min="258" max="258" width="39.33203125" style="27" customWidth="1"/>
+    <col min="259" max="259" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="4.44140625" style="27" customWidth="1"/>
+    <col min="264" max="264" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="266" max="267" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="15.33203125" style="27" customWidth="1"/>
+    <col min="269" max="269" width="9.109375" style="27"/>
+    <col min="270" max="270" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="272" max="272" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="276" max="512" width="9.140625" style="27"/>
-    <col min="513" max="513" width="26.140625" style="27" customWidth="1"/>
-    <col min="514" max="514" width="39.28515625" style="27" customWidth="1"/>
-    <col min="515" max="515" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="4.42578125" style="27" customWidth="1"/>
-    <col min="520" max="520" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="522" max="523" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="15.28515625" style="27" customWidth="1"/>
-    <col min="525" max="525" width="9.140625" style="27"/>
-    <col min="526" max="526" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="276" max="512" width="9.109375" style="27"/>
+    <col min="513" max="513" width="26.109375" style="27" customWidth="1"/>
+    <col min="514" max="514" width="39.33203125" style="27" customWidth="1"/>
+    <col min="515" max="515" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="4.44140625" style="27" customWidth="1"/>
+    <col min="520" max="520" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="522" max="523" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="15.33203125" style="27" customWidth="1"/>
+    <col min="525" max="525" width="9.109375" style="27"/>
+    <col min="526" max="526" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="528" max="528" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="532" max="768" width="9.140625" style="27"/>
-    <col min="769" max="769" width="26.140625" style="27" customWidth="1"/>
-    <col min="770" max="770" width="39.28515625" style="27" customWidth="1"/>
-    <col min="771" max="771" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="4.42578125" style="27" customWidth="1"/>
-    <col min="776" max="776" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="778" max="779" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="15.28515625" style="27" customWidth="1"/>
-    <col min="781" max="781" width="9.140625" style="27"/>
-    <col min="782" max="782" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="532" max="768" width="9.109375" style="27"/>
+    <col min="769" max="769" width="26.109375" style="27" customWidth="1"/>
+    <col min="770" max="770" width="39.33203125" style="27" customWidth="1"/>
+    <col min="771" max="771" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="4.44140625" style="27" customWidth="1"/>
+    <col min="776" max="776" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="778" max="779" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="15.33203125" style="27" customWidth="1"/>
+    <col min="781" max="781" width="9.109375" style="27"/>
+    <col min="782" max="782" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="784" max="784" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="785" max="785" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="787" max="787" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="788" max="1024" width="9.140625" style="27"/>
-    <col min="1025" max="1025" width="26.140625" style="27" customWidth="1"/>
-    <col min="1026" max="1026" width="39.28515625" style="27" customWidth="1"/>
-    <col min="1027" max="1027" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="4.42578125" style="27" customWidth="1"/>
-    <col min="1032" max="1032" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1035" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="15.28515625" style="27" customWidth="1"/>
-    <col min="1037" max="1037" width="9.140625" style="27"/>
-    <col min="1038" max="1038" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="785" max="785" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="787" max="787" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="788" max="1024" width="9.109375" style="27"/>
+    <col min="1025" max="1025" width="26.109375" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="39.33203125" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="4.44140625" style="27" customWidth="1"/>
+    <col min="1032" max="1032" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1035" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="15.33203125" style="27" customWidth="1"/>
+    <col min="1037" max="1037" width="9.109375" style="27"/>
+    <col min="1038" max="1038" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="1040" max="1040" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="1041" max="1041" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1042" max="1042" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1043" max="1043" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="1044" max="1280" width="9.140625" style="27"/>
-    <col min="1281" max="1281" width="26.140625" style="27" customWidth="1"/>
-    <col min="1282" max="1282" width="39.28515625" style="27" customWidth="1"/>
-    <col min="1283" max="1283" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="4.42578125" style="27" customWidth="1"/>
-    <col min="1288" max="1288" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1291" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="15.28515625" style="27" customWidth="1"/>
-    <col min="1293" max="1293" width="9.140625" style="27"/>
-    <col min="1294" max="1294" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1041" max="1041" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1042" max="1042" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1043" max="1043" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1044" max="1280" width="9.109375" style="27"/>
+    <col min="1281" max="1281" width="26.109375" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="39.33203125" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="4.44140625" style="27" customWidth="1"/>
+    <col min="1288" max="1288" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1291" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="15.33203125" style="27" customWidth="1"/>
+    <col min="1293" max="1293" width="9.109375" style="27"/>
+    <col min="1294" max="1294" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="1296" max="1296" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="1297" max="1297" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1298" max="1298" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1299" max="1299" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="1300" max="1536" width="9.140625" style="27"/>
-    <col min="1537" max="1537" width="26.140625" style="27" customWidth="1"/>
-    <col min="1538" max="1538" width="39.28515625" style="27" customWidth="1"/>
-    <col min="1539" max="1539" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="4.42578125" style="27" customWidth="1"/>
-    <col min="1544" max="1544" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1547" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="15.28515625" style="27" customWidth="1"/>
-    <col min="1549" max="1549" width="9.140625" style="27"/>
-    <col min="1550" max="1550" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1297" max="1297" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1298" max="1298" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1299" max="1299" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1300" max="1536" width="9.109375" style="27"/>
+    <col min="1537" max="1537" width="26.109375" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="39.33203125" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="4.44140625" style="27" customWidth="1"/>
+    <col min="1544" max="1544" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1547" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="15.33203125" style="27" customWidth="1"/>
+    <col min="1549" max="1549" width="9.109375" style="27"/>
+    <col min="1550" max="1550" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="1552" max="1552" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="1553" max="1553" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1554" max="1554" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1555" max="1555" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="1556" max="1792" width="9.140625" style="27"/>
-    <col min="1793" max="1793" width="26.140625" style="27" customWidth="1"/>
-    <col min="1794" max="1794" width="39.28515625" style="27" customWidth="1"/>
-    <col min="1795" max="1795" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="4.42578125" style="27" customWidth="1"/>
-    <col min="1800" max="1800" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1803" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="15.28515625" style="27" customWidth="1"/>
-    <col min="1805" max="1805" width="9.140625" style="27"/>
-    <col min="1806" max="1806" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1553" max="1553" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1554" max="1554" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1555" max="1555" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1556" max="1792" width="9.109375" style="27"/>
+    <col min="1793" max="1793" width="26.109375" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="39.33203125" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="4.44140625" style="27" customWidth="1"/>
+    <col min="1800" max="1800" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1803" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="15.33203125" style="27" customWidth="1"/>
+    <col min="1805" max="1805" width="9.109375" style="27"/>
+    <col min="1806" max="1806" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="1808" max="1808" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="1809" max="1809" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1810" max="1810" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1811" max="1811" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="1812" max="2048" width="9.140625" style="27"/>
-    <col min="2049" max="2049" width="26.140625" style="27" customWidth="1"/>
-    <col min="2050" max="2050" width="39.28515625" style="27" customWidth="1"/>
-    <col min="2051" max="2051" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="4.42578125" style="27" customWidth="1"/>
-    <col min="2056" max="2056" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2059" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="15.28515625" style="27" customWidth="1"/>
-    <col min="2061" max="2061" width="9.140625" style="27"/>
-    <col min="2062" max="2062" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1809" max="1809" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1810" max="1810" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1811" max="1811" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1812" max="2048" width="9.109375" style="27"/>
+    <col min="2049" max="2049" width="26.109375" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="39.33203125" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="4.44140625" style="27" customWidth="1"/>
+    <col min="2056" max="2056" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2059" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2061" max="2061" width="9.109375" style="27"/>
+    <col min="2062" max="2062" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="2064" max="2064" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="2065" max="2065" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2066" max="2066" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2067" max="2067" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2068" max="2304" width="9.140625" style="27"/>
-    <col min="2305" max="2305" width="26.140625" style="27" customWidth="1"/>
-    <col min="2306" max="2306" width="39.28515625" style="27" customWidth="1"/>
-    <col min="2307" max="2307" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="4.42578125" style="27" customWidth="1"/>
-    <col min="2312" max="2312" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2315" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="15.28515625" style="27" customWidth="1"/>
-    <col min="2317" max="2317" width="9.140625" style="27"/>
-    <col min="2318" max="2318" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2065" max="2065" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2066" max="2066" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2067" max="2067" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2068" max="2304" width="9.109375" style="27"/>
+    <col min="2305" max="2305" width="26.109375" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="39.33203125" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="4.44140625" style="27" customWidth="1"/>
+    <col min="2312" max="2312" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2315" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2317" max="2317" width="9.109375" style="27"/>
+    <col min="2318" max="2318" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="2320" max="2320" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="2321" max="2321" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2322" max="2322" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2323" max="2323" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2324" max="2560" width="9.140625" style="27"/>
-    <col min="2561" max="2561" width="26.140625" style="27" customWidth="1"/>
-    <col min="2562" max="2562" width="39.28515625" style="27" customWidth="1"/>
-    <col min="2563" max="2563" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="4.42578125" style="27" customWidth="1"/>
-    <col min="2568" max="2568" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2571" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="15.28515625" style="27" customWidth="1"/>
-    <col min="2573" max="2573" width="9.140625" style="27"/>
-    <col min="2574" max="2574" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2321" max="2321" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2322" max="2322" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2323" max="2323" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2324" max="2560" width="9.109375" style="27"/>
+    <col min="2561" max="2561" width="26.109375" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="39.33203125" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="4.44140625" style="27" customWidth="1"/>
+    <col min="2568" max="2568" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2571" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2573" max="2573" width="9.109375" style="27"/>
+    <col min="2574" max="2574" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="2576" max="2576" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="2577" max="2577" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2578" max="2578" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2579" max="2579" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2580" max="2816" width="9.140625" style="27"/>
-    <col min="2817" max="2817" width="26.140625" style="27" customWidth="1"/>
-    <col min="2818" max="2818" width="39.28515625" style="27" customWidth="1"/>
-    <col min="2819" max="2819" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="4.42578125" style="27" customWidth="1"/>
-    <col min="2824" max="2824" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2827" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="15.28515625" style="27" customWidth="1"/>
-    <col min="2829" max="2829" width="9.140625" style="27"/>
-    <col min="2830" max="2830" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2577" max="2577" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2578" max="2578" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2579" max="2579" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2580" max="2816" width="9.109375" style="27"/>
+    <col min="2817" max="2817" width="26.109375" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="39.33203125" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="4.44140625" style="27" customWidth="1"/>
+    <col min="2824" max="2824" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2827" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2829" max="2829" width="9.109375" style="27"/>
+    <col min="2830" max="2830" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="2832" max="2832" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="2833" max="2833" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2834" max="2834" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2835" max="2835" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2836" max="3072" width="9.140625" style="27"/>
-    <col min="3073" max="3073" width="26.140625" style="27" customWidth="1"/>
-    <col min="3074" max="3074" width="39.28515625" style="27" customWidth="1"/>
-    <col min="3075" max="3075" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="4.42578125" style="27" customWidth="1"/>
-    <col min="3080" max="3080" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3083" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="15.28515625" style="27" customWidth="1"/>
-    <col min="3085" max="3085" width="9.140625" style="27"/>
-    <col min="3086" max="3086" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2833" max="2833" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2834" max="2834" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2835" max="2835" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2836" max="3072" width="9.109375" style="27"/>
+    <col min="3073" max="3073" width="26.109375" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="39.33203125" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="4.44140625" style="27" customWidth="1"/>
+    <col min="3080" max="3080" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3083" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="15.33203125" style="27" customWidth="1"/>
+    <col min="3085" max="3085" width="9.109375" style="27"/>
+    <col min="3086" max="3086" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="3088" max="3088" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="3089" max="3089" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3090" max="3090" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3091" max="3091" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3092" max="3328" width="9.140625" style="27"/>
-    <col min="3329" max="3329" width="26.140625" style="27" customWidth="1"/>
-    <col min="3330" max="3330" width="39.28515625" style="27" customWidth="1"/>
-    <col min="3331" max="3331" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="4.42578125" style="27" customWidth="1"/>
-    <col min="3336" max="3336" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3339" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="15.28515625" style="27" customWidth="1"/>
-    <col min="3341" max="3341" width="9.140625" style="27"/>
-    <col min="3342" max="3342" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3089" max="3089" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3090" max="3090" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3091" max="3091" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3092" max="3328" width="9.109375" style="27"/>
+    <col min="3329" max="3329" width="26.109375" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="39.33203125" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="4.44140625" style="27" customWidth="1"/>
+    <col min="3336" max="3336" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3339" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="15.33203125" style="27" customWidth="1"/>
+    <col min="3341" max="3341" width="9.109375" style="27"/>
+    <col min="3342" max="3342" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="3344" max="3344" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="3345" max="3345" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3346" max="3346" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3347" max="3347" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3348" max="3584" width="9.140625" style="27"/>
-    <col min="3585" max="3585" width="26.140625" style="27" customWidth="1"/>
-    <col min="3586" max="3586" width="39.28515625" style="27" customWidth="1"/>
-    <col min="3587" max="3587" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="4.42578125" style="27" customWidth="1"/>
-    <col min="3592" max="3592" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3595" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="15.28515625" style="27" customWidth="1"/>
-    <col min="3597" max="3597" width="9.140625" style="27"/>
-    <col min="3598" max="3598" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3345" max="3345" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3346" max="3346" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3347" max="3347" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3348" max="3584" width="9.109375" style="27"/>
+    <col min="3585" max="3585" width="26.109375" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="39.33203125" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="4.44140625" style="27" customWidth="1"/>
+    <col min="3592" max="3592" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3595" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="15.33203125" style="27" customWidth="1"/>
+    <col min="3597" max="3597" width="9.109375" style="27"/>
+    <col min="3598" max="3598" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="3600" max="3600" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="3601" max="3601" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3602" max="3602" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3603" max="3603" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3604" max="3840" width="9.140625" style="27"/>
-    <col min="3841" max="3841" width="26.140625" style="27" customWidth="1"/>
-    <col min="3842" max="3842" width="39.28515625" style="27" customWidth="1"/>
-    <col min="3843" max="3843" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="4.42578125" style="27" customWidth="1"/>
-    <col min="3848" max="3848" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3851" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="15.28515625" style="27" customWidth="1"/>
-    <col min="3853" max="3853" width="9.140625" style="27"/>
-    <col min="3854" max="3854" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3601" max="3601" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3602" max="3602" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3603" max="3603" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3604" max="3840" width="9.109375" style="27"/>
+    <col min="3841" max="3841" width="26.109375" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="39.33203125" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="4.44140625" style="27" customWidth="1"/>
+    <col min="3848" max="3848" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3851" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="15.33203125" style="27" customWidth="1"/>
+    <col min="3853" max="3853" width="9.109375" style="27"/>
+    <col min="3854" max="3854" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="3856" max="3856" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="3857" max="3857" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3858" max="3858" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3859" max="3859" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3860" max="4096" width="9.140625" style="27"/>
-    <col min="4097" max="4097" width="26.140625" style="27" customWidth="1"/>
-    <col min="4098" max="4098" width="39.28515625" style="27" customWidth="1"/>
-    <col min="4099" max="4099" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="4.42578125" style="27" customWidth="1"/>
-    <col min="4104" max="4104" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4107" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="15.28515625" style="27" customWidth="1"/>
-    <col min="4109" max="4109" width="9.140625" style="27"/>
-    <col min="4110" max="4110" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3857" max="3857" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3858" max="3858" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3859" max="3859" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3860" max="4096" width="9.109375" style="27"/>
+    <col min="4097" max="4097" width="26.109375" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="39.33203125" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="4.44140625" style="27" customWidth="1"/>
+    <col min="4104" max="4104" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4107" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="15.33203125" style="27" customWidth="1"/>
+    <col min="4109" max="4109" width="9.109375" style="27"/>
+    <col min="4110" max="4110" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="4112" max="4112" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="4113" max="4113" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4114" max="4114" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4115" max="4115" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4116" max="4352" width="9.140625" style="27"/>
-    <col min="4353" max="4353" width="26.140625" style="27" customWidth="1"/>
-    <col min="4354" max="4354" width="39.28515625" style="27" customWidth="1"/>
-    <col min="4355" max="4355" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="4.42578125" style="27" customWidth="1"/>
-    <col min="4360" max="4360" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4363" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="15.28515625" style="27" customWidth="1"/>
-    <col min="4365" max="4365" width="9.140625" style="27"/>
-    <col min="4366" max="4366" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4113" max="4113" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4114" max="4114" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4115" max="4115" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4116" max="4352" width="9.109375" style="27"/>
+    <col min="4353" max="4353" width="26.109375" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="39.33203125" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="4.44140625" style="27" customWidth="1"/>
+    <col min="4360" max="4360" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4363" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="15.33203125" style="27" customWidth="1"/>
+    <col min="4365" max="4365" width="9.109375" style="27"/>
+    <col min="4366" max="4366" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="4368" max="4368" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="4369" max="4369" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4370" max="4370" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4371" max="4371" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4372" max="4608" width="9.140625" style="27"/>
-    <col min="4609" max="4609" width="26.140625" style="27" customWidth="1"/>
-    <col min="4610" max="4610" width="39.28515625" style="27" customWidth="1"/>
-    <col min="4611" max="4611" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="4.42578125" style="27" customWidth="1"/>
-    <col min="4616" max="4616" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4619" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="15.28515625" style="27" customWidth="1"/>
-    <col min="4621" max="4621" width="9.140625" style="27"/>
-    <col min="4622" max="4622" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4369" max="4369" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4370" max="4370" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4371" max="4371" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4372" max="4608" width="9.109375" style="27"/>
+    <col min="4609" max="4609" width="26.109375" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="39.33203125" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="4.44140625" style="27" customWidth="1"/>
+    <col min="4616" max="4616" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4619" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="15.33203125" style="27" customWidth="1"/>
+    <col min="4621" max="4621" width="9.109375" style="27"/>
+    <col min="4622" max="4622" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="4624" max="4624" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="4625" max="4625" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4626" max="4626" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4627" max="4627" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4628" max="4864" width="9.140625" style="27"/>
-    <col min="4865" max="4865" width="26.140625" style="27" customWidth="1"/>
-    <col min="4866" max="4866" width="39.28515625" style="27" customWidth="1"/>
-    <col min="4867" max="4867" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="4.42578125" style="27" customWidth="1"/>
-    <col min="4872" max="4872" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4875" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="15.28515625" style="27" customWidth="1"/>
-    <col min="4877" max="4877" width="9.140625" style="27"/>
-    <col min="4878" max="4878" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4625" max="4625" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4626" max="4626" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4627" max="4627" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4628" max="4864" width="9.109375" style="27"/>
+    <col min="4865" max="4865" width="26.109375" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="39.33203125" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="4.44140625" style="27" customWidth="1"/>
+    <col min="4872" max="4872" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4875" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="15.33203125" style="27" customWidth="1"/>
+    <col min="4877" max="4877" width="9.109375" style="27"/>
+    <col min="4878" max="4878" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="4880" max="4880" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="4881" max="4881" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4882" max="4882" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4883" max="4883" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4884" max="5120" width="9.140625" style="27"/>
-    <col min="5121" max="5121" width="26.140625" style="27" customWidth="1"/>
-    <col min="5122" max="5122" width="39.28515625" style="27" customWidth="1"/>
-    <col min="5123" max="5123" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="4.42578125" style="27" customWidth="1"/>
-    <col min="5128" max="5128" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5131" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="15.28515625" style="27" customWidth="1"/>
-    <col min="5133" max="5133" width="9.140625" style="27"/>
-    <col min="5134" max="5134" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4881" max="4881" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4882" max="4882" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4883" max="4883" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4884" max="5120" width="9.109375" style="27"/>
+    <col min="5121" max="5121" width="26.109375" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="39.33203125" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="4.44140625" style="27" customWidth="1"/>
+    <col min="5128" max="5128" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5131" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5133" max="5133" width="9.109375" style="27"/>
+    <col min="5134" max="5134" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="5136" max="5136" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="5137" max="5137" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5138" max="5138" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5139" max="5139" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5140" max="5376" width="9.140625" style="27"/>
-    <col min="5377" max="5377" width="26.140625" style="27" customWidth="1"/>
-    <col min="5378" max="5378" width="39.28515625" style="27" customWidth="1"/>
-    <col min="5379" max="5379" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="4.42578125" style="27" customWidth="1"/>
-    <col min="5384" max="5384" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5387" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="15.28515625" style="27" customWidth="1"/>
-    <col min="5389" max="5389" width="9.140625" style="27"/>
-    <col min="5390" max="5390" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5137" max="5137" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5138" max="5138" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5139" max="5139" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5140" max="5376" width="9.109375" style="27"/>
+    <col min="5377" max="5377" width="26.109375" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="39.33203125" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="4.44140625" style="27" customWidth="1"/>
+    <col min="5384" max="5384" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5387" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5389" max="5389" width="9.109375" style="27"/>
+    <col min="5390" max="5390" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="5392" max="5392" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="5393" max="5393" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5394" max="5394" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5395" max="5395" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5396" max="5632" width="9.140625" style="27"/>
-    <col min="5633" max="5633" width="26.140625" style="27" customWidth="1"/>
-    <col min="5634" max="5634" width="39.28515625" style="27" customWidth="1"/>
-    <col min="5635" max="5635" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="4.42578125" style="27" customWidth="1"/>
-    <col min="5640" max="5640" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5643" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="15.28515625" style="27" customWidth="1"/>
-    <col min="5645" max="5645" width="9.140625" style="27"/>
-    <col min="5646" max="5646" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5393" max="5393" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5394" max="5394" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5395" max="5395" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5396" max="5632" width="9.109375" style="27"/>
+    <col min="5633" max="5633" width="26.109375" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="39.33203125" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="4.44140625" style="27" customWidth="1"/>
+    <col min="5640" max="5640" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5643" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5645" max="5645" width="9.109375" style="27"/>
+    <col min="5646" max="5646" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="5648" max="5648" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="5649" max="5649" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5650" max="5650" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5651" max="5651" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5652" max="5888" width="9.140625" style="27"/>
-    <col min="5889" max="5889" width="26.140625" style="27" customWidth="1"/>
-    <col min="5890" max="5890" width="39.28515625" style="27" customWidth="1"/>
-    <col min="5891" max="5891" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="4.42578125" style="27" customWidth="1"/>
-    <col min="5896" max="5896" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5899" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="15.28515625" style="27" customWidth="1"/>
-    <col min="5901" max="5901" width="9.140625" style="27"/>
-    <col min="5902" max="5902" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5649" max="5649" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5650" max="5650" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5651" max="5651" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5652" max="5888" width="9.109375" style="27"/>
+    <col min="5889" max="5889" width="26.109375" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="39.33203125" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="4.44140625" style="27" customWidth="1"/>
+    <col min="5896" max="5896" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5899" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5901" max="5901" width="9.109375" style="27"/>
+    <col min="5902" max="5902" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="5904" max="5904" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="5905" max="5905" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5906" max="5906" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5907" max="5907" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5908" max="6144" width="9.140625" style="27"/>
-    <col min="6145" max="6145" width="26.140625" style="27" customWidth="1"/>
-    <col min="6146" max="6146" width="39.28515625" style="27" customWidth="1"/>
-    <col min="6147" max="6147" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="4.42578125" style="27" customWidth="1"/>
-    <col min="6152" max="6152" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6155" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="15.28515625" style="27" customWidth="1"/>
-    <col min="6157" max="6157" width="9.140625" style="27"/>
-    <col min="6158" max="6158" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5905" max="5905" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5906" max="5906" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5907" max="5907" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5908" max="6144" width="9.109375" style="27"/>
+    <col min="6145" max="6145" width="26.109375" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="39.33203125" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="4.44140625" style="27" customWidth="1"/>
+    <col min="6152" max="6152" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6155" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="15.33203125" style="27" customWidth="1"/>
+    <col min="6157" max="6157" width="9.109375" style="27"/>
+    <col min="6158" max="6158" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="6160" max="6160" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6161" max="6161" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6162" max="6162" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6163" max="6163" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6164" max="6400" width="9.140625" style="27"/>
-    <col min="6401" max="6401" width="26.140625" style="27" customWidth="1"/>
-    <col min="6402" max="6402" width="39.28515625" style="27" customWidth="1"/>
-    <col min="6403" max="6403" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="4.42578125" style="27" customWidth="1"/>
-    <col min="6408" max="6408" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6411" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="15.28515625" style="27" customWidth="1"/>
-    <col min="6413" max="6413" width="9.140625" style="27"/>
-    <col min="6414" max="6414" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6161" max="6161" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6162" max="6162" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6163" max="6163" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6164" max="6400" width="9.109375" style="27"/>
+    <col min="6401" max="6401" width="26.109375" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="39.33203125" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="4.44140625" style="27" customWidth="1"/>
+    <col min="6408" max="6408" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6411" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="15.33203125" style="27" customWidth="1"/>
+    <col min="6413" max="6413" width="9.109375" style="27"/>
+    <col min="6414" max="6414" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="6416" max="6416" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6417" max="6417" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6418" max="6418" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6419" max="6419" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6420" max="6656" width="9.140625" style="27"/>
-    <col min="6657" max="6657" width="26.140625" style="27" customWidth="1"/>
-    <col min="6658" max="6658" width="39.28515625" style="27" customWidth="1"/>
-    <col min="6659" max="6659" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="4.42578125" style="27" customWidth="1"/>
-    <col min="6664" max="6664" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6667" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="15.28515625" style="27" customWidth="1"/>
-    <col min="6669" max="6669" width="9.140625" style="27"/>
-    <col min="6670" max="6670" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6417" max="6417" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6418" max="6418" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6419" max="6419" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6420" max="6656" width="9.109375" style="27"/>
+    <col min="6657" max="6657" width="26.109375" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="39.33203125" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="4.44140625" style="27" customWidth="1"/>
+    <col min="6664" max="6664" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6667" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="15.33203125" style="27" customWidth="1"/>
+    <col min="6669" max="6669" width="9.109375" style="27"/>
+    <col min="6670" max="6670" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="6672" max="6672" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6673" max="6673" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6674" max="6674" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6675" max="6675" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6676" max="6912" width="9.140625" style="27"/>
-    <col min="6913" max="6913" width="26.140625" style="27" customWidth="1"/>
-    <col min="6914" max="6914" width="39.28515625" style="27" customWidth="1"/>
-    <col min="6915" max="6915" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="4.42578125" style="27" customWidth="1"/>
-    <col min="6920" max="6920" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6923" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="15.28515625" style="27" customWidth="1"/>
-    <col min="6925" max="6925" width="9.140625" style="27"/>
-    <col min="6926" max="6926" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6673" max="6673" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6674" max="6674" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6675" max="6675" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6676" max="6912" width="9.109375" style="27"/>
+    <col min="6913" max="6913" width="26.109375" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="39.33203125" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="4.44140625" style="27" customWidth="1"/>
+    <col min="6920" max="6920" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6923" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="15.33203125" style="27" customWidth="1"/>
+    <col min="6925" max="6925" width="9.109375" style="27"/>
+    <col min="6926" max="6926" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="6928" max="6928" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6929" max="6929" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6930" max="6930" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6931" max="6931" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6932" max="7168" width="9.140625" style="27"/>
-    <col min="7169" max="7169" width="26.140625" style="27" customWidth="1"/>
-    <col min="7170" max="7170" width="39.28515625" style="27" customWidth="1"/>
-    <col min="7171" max="7171" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="4.42578125" style="27" customWidth="1"/>
-    <col min="7176" max="7176" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7179" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="15.28515625" style="27" customWidth="1"/>
-    <col min="7181" max="7181" width="9.140625" style="27"/>
-    <col min="7182" max="7182" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6929" max="6929" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6930" max="6930" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6931" max="6931" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6932" max="7168" width="9.109375" style="27"/>
+    <col min="7169" max="7169" width="26.109375" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="39.33203125" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="4.44140625" style="27" customWidth="1"/>
+    <col min="7176" max="7176" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7179" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="15.33203125" style="27" customWidth="1"/>
+    <col min="7181" max="7181" width="9.109375" style="27"/>
+    <col min="7182" max="7182" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="7184" max="7184" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7185" max="7185" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7186" max="7186" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7187" max="7187" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7188" max="7424" width="9.140625" style="27"/>
-    <col min="7425" max="7425" width="26.140625" style="27" customWidth="1"/>
-    <col min="7426" max="7426" width="39.28515625" style="27" customWidth="1"/>
-    <col min="7427" max="7427" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="4.42578125" style="27" customWidth="1"/>
-    <col min="7432" max="7432" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7435" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="15.28515625" style="27" customWidth="1"/>
-    <col min="7437" max="7437" width="9.140625" style="27"/>
-    <col min="7438" max="7438" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7185" max="7185" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7186" max="7186" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7187" max="7187" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7188" max="7424" width="9.109375" style="27"/>
+    <col min="7425" max="7425" width="26.109375" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="39.33203125" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="4.44140625" style="27" customWidth="1"/>
+    <col min="7432" max="7432" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7435" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="15.33203125" style="27" customWidth="1"/>
+    <col min="7437" max="7437" width="9.109375" style="27"/>
+    <col min="7438" max="7438" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="7440" max="7440" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7441" max="7441" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7442" max="7442" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7443" max="7443" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7444" max="7680" width="9.140625" style="27"/>
-    <col min="7681" max="7681" width="26.140625" style="27" customWidth="1"/>
-    <col min="7682" max="7682" width="39.28515625" style="27" customWidth="1"/>
-    <col min="7683" max="7683" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="4.42578125" style="27" customWidth="1"/>
-    <col min="7688" max="7688" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7691" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="15.28515625" style="27" customWidth="1"/>
-    <col min="7693" max="7693" width="9.140625" style="27"/>
-    <col min="7694" max="7694" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7441" max="7441" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7442" max="7442" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7443" max="7443" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7444" max="7680" width="9.109375" style="27"/>
+    <col min="7681" max="7681" width="26.109375" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="39.33203125" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="4.44140625" style="27" customWidth="1"/>
+    <col min="7688" max="7688" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7691" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="15.33203125" style="27" customWidth="1"/>
+    <col min="7693" max="7693" width="9.109375" style="27"/>
+    <col min="7694" max="7694" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="7696" max="7696" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7697" max="7697" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7698" max="7698" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7699" max="7699" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7700" max="7936" width="9.140625" style="27"/>
-    <col min="7937" max="7937" width="26.140625" style="27" customWidth="1"/>
-    <col min="7938" max="7938" width="39.28515625" style="27" customWidth="1"/>
-    <col min="7939" max="7939" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="4.42578125" style="27" customWidth="1"/>
-    <col min="7944" max="7944" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7947" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="15.28515625" style="27" customWidth="1"/>
-    <col min="7949" max="7949" width="9.140625" style="27"/>
-    <col min="7950" max="7950" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7697" max="7697" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7698" max="7698" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7699" max="7699" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7700" max="7936" width="9.109375" style="27"/>
+    <col min="7937" max="7937" width="26.109375" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="39.33203125" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="4.44140625" style="27" customWidth="1"/>
+    <col min="7944" max="7944" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7947" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="15.33203125" style="27" customWidth="1"/>
+    <col min="7949" max="7949" width="9.109375" style="27"/>
+    <col min="7950" max="7950" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="7952" max="7952" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7953" max="7953" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7954" max="7954" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7955" max="7955" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7956" max="8192" width="9.140625" style="27"/>
-    <col min="8193" max="8193" width="26.140625" style="27" customWidth="1"/>
-    <col min="8194" max="8194" width="39.28515625" style="27" customWidth="1"/>
-    <col min="8195" max="8195" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="4.42578125" style="27" customWidth="1"/>
-    <col min="8200" max="8200" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8203" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="15.28515625" style="27" customWidth="1"/>
-    <col min="8205" max="8205" width="9.140625" style="27"/>
-    <col min="8206" max="8206" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7953" max="7953" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7954" max="7954" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7955" max="7955" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7956" max="8192" width="9.109375" style="27"/>
+    <col min="8193" max="8193" width="26.109375" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="39.33203125" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="4.44140625" style="27" customWidth="1"/>
+    <col min="8200" max="8200" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8203" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="15.33203125" style="27" customWidth="1"/>
+    <col min="8205" max="8205" width="9.109375" style="27"/>
+    <col min="8206" max="8206" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="8208" max="8208" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8209" max="8209" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8210" max="8210" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8211" max="8211" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8212" max="8448" width="9.140625" style="27"/>
-    <col min="8449" max="8449" width="26.140625" style="27" customWidth="1"/>
-    <col min="8450" max="8450" width="39.28515625" style="27" customWidth="1"/>
-    <col min="8451" max="8451" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="4.42578125" style="27" customWidth="1"/>
-    <col min="8456" max="8456" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8459" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="15.28515625" style="27" customWidth="1"/>
-    <col min="8461" max="8461" width="9.140625" style="27"/>
-    <col min="8462" max="8462" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8209" max="8209" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8210" max="8210" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8211" max="8211" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8212" max="8448" width="9.109375" style="27"/>
+    <col min="8449" max="8449" width="26.109375" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="39.33203125" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="4.44140625" style="27" customWidth="1"/>
+    <col min="8456" max="8456" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8459" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="15.33203125" style="27" customWidth="1"/>
+    <col min="8461" max="8461" width="9.109375" style="27"/>
+    <col min="8462" max="8462" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="8464" max="8464" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8465" max="8465" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8466" max="8466" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8467" max="8467" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8468" max="8704" width="9.140625" style="27"/>
-    <col min="8705" max="8705" width="26.140625" style="27" customWidth="1"/>
-    <col min="8706" max="8706" width="39.28515625" style="27" customWidth="1"/>
-    <col min="8707" max="8707" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="4.42578125" style="27" customWidth="1"/>
-    <col min="8712" max="8712" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8715" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="15.28515625" style="27" customWidth="1"/>
-    <col min="8717" max="8717" width="9.140625" style="27"/>
-    <col min="8718" max="8718" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8465" max="8465" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8466" max="8466" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8467" max="8467" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8468" max="8704" width="9.109375" style="27"/>
+    <col min="8705" max="8705" width="26.109375" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="39.33203125" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="4.44140625" style="27" customWidth="1"/>
+    <col min="8712" max="8712" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8715" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="15.33203125" style="27" customWidth="1"/>
+    <col min="8717" max="8717" width="9.109375" style="27"/>
+    <col min="8718" max="8718" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="8720" max="8720" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8721" max="8721" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8722" max="8722" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8723" max="8723" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8724" max="8960" width="9.140625" style="27"/>
-    <col min="8961" max="8961" width="26.140625" style="27" customWidth="1"/>
-    <col min="8962" max="8962" width="39.28515625" style="27" customWidth="1"/>
-    <col min="8963" max="8963" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="4.42578125" style="27" customWidth="1"/>
-    <col min="8968" max="8968" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8971" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="15.28515625" style="27" customWidth="1"/>
-    <col min="8973" max="8973" width="9.140625" style="27"/>
-    <col min="8974" max="8974" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8721" max="8721" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8722" max="8722" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8723" max="8723" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8724" max="8960" width="9.109375" style="27"/>
+    <col min="8961" max="8961" width="26.109375" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="39.33203125" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="4.44140625" style="27" customWidth="1"/>
+    <col min="8968" max="8968" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8971" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="15.33203125" style="27" customWidth="1"/>
+    <col min="8973" max="8973" width="9.109375" style="27"/>
+    <col min="8974" max="8974" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="8976" max="8976" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8977" max="8977" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8978" max="8978" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8979" max="8979" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8980" max="9216" width="9.140625" style="27"/>
-    <col min="9217" max="9217" width="26.140625" style="27" customWidth="1"/>
-    <col min="9218" max="9218" width="39.28515625" style="27" customWidth="1"/>
-    <col min="9219" max="9219" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="4.42578125" style="27" customWidth="1"/>
-    <col min="9224" max="9224" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9227" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="15.28515625" style="27" customWidth="1"/>
-    <col min="9229" max="9229" width="9.140625" style="27"/>
-    <col min="9230" max="9230" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8977" max="8977" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8978" max="8978" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8979" max="8979" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8980" max="9216" width="9.109375" style="27"/>
+    <col min="9217" max="9217" width="26.109375" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="39.33203125" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="4.44140625" style="27" customWidth="1"/>
+    <col min="9224" max="9224" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9227" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="15.33203125" style="27" customWidth="1"/>
+    <col min="9229" max="9229" width="9.109375" style="27"/>
+    <col min="9230" max="9230" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="9232" max="9232" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="9233" max="9233" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9234" max="9234" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9235" max="9235" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9236" max="9472" width="9.140625" style="27"/>
-    <col min="9473" max="9473" width="26.140625" style="27" customWidth="1"/>
-    <col min="9474" max="9474" width="39.28515625" style="27" customWidth="1"/>
-    <col min="9475" max="9475" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="4.42578125" style="27" customWidth="1"/>
-    <col min="9480" max="9480" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9483" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="15.28515625" style="27" customWidth="1"/>
-    <col min="9485" max="9485" width="9.140625" style="27"/>
-    <col min="9486" max="9486" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9233" max="9233" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9234" max="9234" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9235" max="9235" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9236" max="9472" width="9.109375" style="27"/>
+    <col min="9473" max="9473" width="26.109375" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="39.33203125" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="4.44140625" style="27" customWidth="1"/>
+    <col min="9480" max="9480" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9483" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="15.33203125" style="27" customWidth="1"/>
+    <col min="9485" max="9485" width="9.109375" style="27"/>
+    <col min="9486" max="9486" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="9488" max="9488" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="9489" max="9489" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9490" max="9490" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9491" max="9491" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9492" max="9728" width="9.140625" style="27"/>
-    <col min="9729" max="9729" width="26.140625" style="27" customWidth="1"/>
-    <col min="9730" max="9730" width="39.28515625" style="27" customWidth="1"/>
-    <col min="9731" max="9731" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="4.42578125" style="27" customWidth="1"/>
-    <col min="9736" max="9736" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9739" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="15.28515625" style="27" customWidth="1"/>
-    <col min="9741" max="9741" width="9.140625" style="27"/>
-    <col min="9742" max="9742" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9489" max="9489" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9490" max="9490" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9491" max="9491" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9492" max="9728" width="9.109375" style="27"/>
+    <col min="9729" max="9729" width="26.109375" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="39.33203125" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="4.44140625" style="27" customWidth="1"/>
+    <col min="9736" max="9736" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9739" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="15.33203125" style="27" customWidth="1"/>
+    <col min="9741" max="9741" width="9.109375" style="27"/>
+    <col min="9742" max="9742" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="9744" max="9744" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="9745" max="9745" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9746" max="9746" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9747" max="9747" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9748" max="9984" width="9.140625" style="27"/>
-    <col min="9985" max="9985" width="26.140625" style="27" customWidth="1"/>
-    <col min="9986" max="9986" width="39.28515625" style="27" customWidth="1"/>
-    <col min="9987" max="9987" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="4.42578125" style="27" customWidth="1"/>
-    <col min="9992" max="9992" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9995" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="15.28515625" style="27" customWidth="1"/>
-    <col min="9997" max="9997" width="9.140625" style="27"/>
-    <col min="9998" max="9998" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9745" max="9745" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9746" max="9746" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9747" max="9747" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9748" max="9984" width="9.109375" style="27"/>
+    <col min="9985" max="9985" width="26.109375" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="39.33203125" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="4.44140625" style="27" customWidth="1"/>
+    <col min="9992" max="9992" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9995" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="15.33203125" style="27" customWidth="1"/>
+    <col min="9997" max="9997" width="9.109375" style="27"/>
+    <col min="9998" max="9998" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="10000" max="10000" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10001" max="10001" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10002" max="10002" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10003" max="10003" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10004" max="10240" width="9.140625" style="27"/>
-    <col min="10241" max="10241" width="26.140625" style="27" customWidth="1"/>
-    <col min="10242" max="10242" width="39.28515625" style="27" customWidth="1"/>
-    <col min="10243" max="10243" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="4.42578125" style="27" customWidth="1"/>
-    <col min="10248" max="10248" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10251" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="15.28515625" style="27" customWidth="1"/>
-    <col min="10253" max="10253" width="9.140625" style="27"/>
-    <col min="10254" max="10254" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10001" max="10001" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10002" max="10002" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10003" max="10003" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10004" max="10240" width="9.109375" style="27"/>
+    <col min="10241" max="10241" width="26.109375" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="39.33203125" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="4.44140625" style="27" customWidth="1"/>
+    <col min="10248" max="10248" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10251" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="15.33203125" style="27" customWidth="1"/>
+    <col min="10253" max="10253" width="9.109375" style="27"/>
+    <col min="10254" max="10254" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="10256" max="10256" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10257" max="10257" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10258" max="10258" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10259" max="10259" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10260" max="10496" width="9.140625" style="27"/>
-    <col min="10497" max="10497" width="26.140625" style="27" customWidth="1"/>
-    <col min="10498" max="10498" width="39.28515625" style="27" customWidth="1"/>
-    <col min="10499" max="10499" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="4.42578125" style="27" customWidth="1"/>
-    <col min="10504" max="10504" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10507" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="15.28515625" style="27" customWidth="1"/>
-    <col min="10509" max="10509" width="9.140625" style="27"/>
-    <col min="10510" max="10510" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10257" max="10257" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10258" max="10258" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10259" max="10259" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10260" max="10496" width="9.109375" style="27"/>
+    <col min="10497" max="10497" width="26.109375" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="39.33203125" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="4.44140625" style="27" customWidth="1"/>
+    <col min="10504" max="10504" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10507" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="15.33203125" style="27" customWidth="1"/>
+    <col min="10509" max="10509" width="9.109375" style="27"/>
+    <col min="10510" max="10510" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="10512" max="10512" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10513" max="10513" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10514" max="10514" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10515" max="10515" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10516" max="10752" width="9.140625" style="27"/>
-    <col min="10753" max="10753" width="26.140625" style="27" customWidth="1"/>
-    <col min="10754" max="10754" width="39.28515625" style="27" customWidth="1"/>
-    <col min="10755" max="10755" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="4.42578125" style="27" customWidth="1"/>
-    <col min="10760" max="10760" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10763" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="15.28515625" style="27" customWidth="1"/>
-    <col min="10765" max="10765" width="9.140625" style="27"/>
-    <col min="10766" max="10766" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10513" max="10513" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10514" max="10514" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10515" max="10515" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10516" max="10752" width="9.109375" style="27"/>
+    <col min="10753" max="10753" width="26.109375" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="39.33203125" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="4.44140625" style="27" customWidth="1"/>
+    <col min="10760" max="10760" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10763" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="15.33203125" style="27" customWidth="1"/>
+    <col min="10765" max="10765" width="9.109375" style="27"/>
+    <col min="10766" max="10766" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="10768" max="10768" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10769" max="10769" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10770" max="10770" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10771" max="10771" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10772" max="11008" width="9.140625" style="27"/>
-    <col min="11009" max="11009" width="26.140625" style="27" customWidth="1"/>
-    <col min="11010" max="11010" width="39.28515625" style="27" customWidth="1"/>
-    <col min="11011" max="11011" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="4.42578125" style="27" customWidth="1"/>
-    <col min="11016" max="11016" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11019" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="15.28515625" style="27" customWidth="1"/>
-    <col min="11021" max="11021" width="9.140625" style="27"/>
-    <col min="11022" max="11022" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10769" max="10769" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10770" max="10770" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10771" max="10771" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10772" max="11008" width="9.109375" style="27"/>
+    <col min="11009" max="11009" width="26.109375" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="39.33203125" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="4.44140625" style="27" customWidth="1"/>
+    <col min="11016" max="11016" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11019" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="15.33203125" style="27" customWidth="1"/>
+    <col min="11021" max="11021" width="9.109375" style="27"/>
+    <col min="11022" max="11022" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="11024" max="11024" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11025" max="11025" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11026" max="11026" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11027" max="11027" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11028" max="11264" width="9.140625" style="27"/>
-    <col min="11265" max="11265" width="26.140625" style="27" customWidth="1"/>
-    <col min="11266" max="11266" width="39.28515625" style="27" customWidth="1"/>
-    <col min="11267" max="11267" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="4.42578125" style="27" customWidth="1"/>
-    <col min="11272" max="11272" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11275" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="15.28515625" style="27" customWidth="1"/>
-    <col min="11277" max="11277" width="9.140625" style="27"/>
-    <col min="11278" max="11278" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11025" max="11025" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11026" max="11026" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11027" max="11027" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11028" max="11264" width="9.109375" style="27"/>
+    <col min="11265" max="11265" width="26.109375" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="39.33203125" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="4.44140625" style="27" customWidth="1"/>
+    <col min="11272" max="11272" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11275" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="15.33203125" style="27" customWidth="1"/>
+    <col min="11277" max="11277" width="9.109375" style="27"/>
+    <col min="11278" max="11278" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="11280" max="11280" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11281" max="11281" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11282" max="11282" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11283" max="11283" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11284" max="11520" width="9.140625" style="27"/>
-    <col min="11521" max="11521" width="26.140625" style="27" customWidth="1"/>
-    <col min="11522" max="11522" width="39.28515625" style="27" customWidth="1"/>
-    <col min="11523" max="11523" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="4.42578125" style="27" customWidth="1"/>
-    <col min="11528" max="11528" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11531" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="15.28515625" style="27" customWidth="1"/>
-    <col min="11533" max="11533" width="9.140625" style="27"/>
-    <col min="11534" max="11534" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11281" max="11281" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11282" max="11282" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11283" max="11283" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11284" max="11520" width="9.109375" style="27"/>
+    <col min="11521" max="11521" width="26.109375" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="39.33203125" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="4.44140625" style="27" customWidth="1"/>
+    <col min="11528" max="11528" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11531" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="15.33203125" style="27" customWidth="1"/>
+    <col min="11533" max="11533" width="9.109375" style="27"/>
+    <col min="11534" max="11534" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="11536" max="11536" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11537" max="11537" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11538" max="11538" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11539" max="11539" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11540" max="11776" width="9.140625" style="27"/>
-    <col min="11777" max="11777" width="26.140625" style="27" customWidth="1"/>
-    <col min="11778" max="11778" width="39.28515625" style="27" customWidth="1"/>
-    <col min="11779" max="11779" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="4.42578125" style="27" customWidth="1"/>
-    <col min="11784" max="11784" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11787" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="15.28515625" style="27" customWidth="1"/>
-    <col min="11789" max="11789" width="9.140625" style="27"/>
-    <col min="11790" max="11790" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11537" max="11537" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11538" max="11538" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11539" max="11539" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11540" max="11776" width="9.109375" style="27"/>
+    <col min="11777" max="11777" width="26.109375" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="39.33203125" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="4.44140625" style="27" customWidth="1"/>
+    <col min="11784" max="11784" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11787" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="15.33203125" style="27" customWidth="1"/>
+    <col min="11789" max="11789" width="9.109375" style="27"/>
+    <col min="11790" max="11790" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="11792" max="11792" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11793" max="11793" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11794" max="11794" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11795" max="11795" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11796" max="12032" width="9.140625" style="27"/>
-    <col min="12033" max="12033" width="26.140625" style="27" customWidth="1"/>
-    <col min="12034" max="12034" width="39.28515625" style="27" customWidth="1"/>
-    <col min="12035" max="12035" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="4.42578125" style="27" customWidth="1"/>
-    <col min="12040" max="12040" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12043" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="15.28515625" style="27" customWidth="1"/>
-    <col min="12045" max="12045" width="9.140625" style="27"/>
-    <col min="12046" max="12046" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11793" max="11793" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11794" max="11794" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11795" max="11795" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11796" max="12032" width="9.109375" style="27"/>
+    <col min="12033" max="12033" width="26.109375" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="39.33203125" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="4.44140625" style="27" customWidth="1"/>
+    <col min="12040" max="12040" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12043" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="15.33203125" style="27" customWidth="1"/>
+    <col min="12045" max="12045" width="9.109375" style="27"/>
+    <col min="12046" max="12046" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="12048" max="12048" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12049" max="12049" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12050" max="12050" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12051" max="12051" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12052" max="12288" width="9.140625" style="27"/>
-    <col min="12289" max="12289" width="26.140625" style="27" customWidth="1"/>
-    <col min="12290" max="12290" width="39.28515625" style="27" customWidth="1"/>
-    <col min="12291" max="12291" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="4.42578125" style="27" customWidth="1"/>
-    <col min="12296" max="12296" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12299" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="15.28515625" style="27" customWidth="1"/>
-    <col min="12301" max="12301" width="9.140625" style="27"/>
-    <col min="12302" max="12302" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12049" max="12049" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12050" max="12050" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12051" max="12051" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12052" max="12288" width="9.109375" style="27"/>
+    <col min="12289" max="12289" width="26.109375" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="39.33203125" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="4.44140625" style="27" customWidth="1"/>
+    <col min="12296" max="12296" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12299" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="15.33203125" style="27" customWidth="1"/>
+    <col min="12301" max="12301" width="9.109375" style="27"/>
+    <col min="12302" max="12302" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="12304" max="12304" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12305" max="12305" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12306" max="12306" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12307" max="12307" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12308" max="12544" width="9.140625" style="27"/>
-    <col min="12545" max="12545" width="26.140625" style="27" customWidth="1"/>
-    <col min="12546" max="12546" width="39.28515625" style="27" customWidth="1"/>
-    <col min="12547" max="12547" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="4.42578125" style="27" customWidth="1"/>
-    <col min="12552" max="12552" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12555" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="15.28515625" style="27" customWidth="1"/>
-    <col min="12557" max="12557" width="9.140625" style="27"/>
-    <col min="12558" max="12558" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12305" max="12305" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12306" max="12306" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12307" max="12307" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12308" max="12544" width="9.109375" style="27"/>
+    <col min="12545" max="12545" width="26.109375" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="39.33203125" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="4.44140625" style="27" customWidth="1"/>
+    <col min="12552" max="12552" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12555" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="15.33203125" style="27" customWidth="1"/>
+    <col min="12557" max="12557" width="9.109375" style="27"/>
+    <col min="12558" max="12558" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="12560" max="12560" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12561" max="12561" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12562" max="12562" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12563" max="12563" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12564" max="12800" width="9.140625" style="27"/>
-    <col min="12801" max="12801" width="26.140625" style="27" customWidth="1"/>
-    <col min="12802" max="12802" width="39.28515625" style="27" customWidth="1"/>
-    <col min="12803" max="12803" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="4.42578125" style="27" customWidth="1"/>
-    <col min="12808" max="12808" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12811" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="15.28515625" style="27" customWidth="1"/>
-    <col min="12813" max="12813" width="9.140625" style="27"/>
-    <col min="12814" max="12814" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12561" max="12561" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12562" max="12562" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12563" max="12563" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12564" max="12800" width="9.109375" style="27"/>
+    <col min="12801" max="12801" width="26.109375" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="39.33203125" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="4.44140625" style="27" customWidth="1"/>
+    <col min="12808" max="12808" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12811" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="15.33203125" style="27" customWidth="1"/>
+    <col min="12813" max="12813" width="9.109375" style="27"/>
+    <col min="12814" max="12814" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="12816" max="12816" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12817" max="12817" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12818" max="12818" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12819" max="12819" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12820" max="13056" width="9.140625" style="27"/>
-    <col min="13057" max="13057" width="26.140625" style="27" customWidth="1"/>
-    <col min="13058" max="13058" width="39.28515625" style="27" customWidth="1"/>
-    <col min="13059" max="13059" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="4.42578125" style="27" customWidth="1"/>
-    <col min="13064" max="13064" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13067" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13069" max="13069" width="9.140625" style="27"/>
-    <col min="13070" max="13070" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12817" max="12817" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12818" max="12818" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12819" max="12819" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12820" max="13056" width="9.109375" style="27"/>
+    <col min="13057" max="13057" width="26.109375" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="39.33203125" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="4.44140625" style="27" customWidth="1"/>
+    <col min="13064" max="13064" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13067" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13069" max="13069" width="9.109375" style="27"/>
+    <col min="13070" max="13070" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="13072" max="13072" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13073" max="13073" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13074" max="13074" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13075" max="13075" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="13076" max="13312" width="9.140625" style="27"/>
-    <col min="13313" max="13313" width="26.140625" style="27" customWidth="1"/>
-    <col min="13314" max="13314" width="39.28515625" style="27" customWidth="1"/>
-    <col min="13315" max="13315" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="4.42578125" style="27" customWidth="1"/>
-    <col min="13320" max="13320" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13323" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13325" max="13325" width="9.140625" style="27"/>
-    <col min="13326" max="13326" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13073" max="13073" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13074" max="13074" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13075" max="13075" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13076" max="13312" width="9.109375" style="27"/>
+    <col min="13313" max="13313" width="26.109375" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="39.33203125" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="4.44140625" style="27" customWidth="1"/>
+    <col min="13320" max="13320" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13323" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13325" max="13325" width="9.109375" style="27"/>
+    <col min="13326" max="13326" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="13328" max="13328" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13329" max="13329" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13330" max="13330" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13331" max="13331" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="13332" max="13568" width="9.140625" style="27"/>
-    <col min="13569" max="13569" width="26.140625" style="27" customWidth="1"/>
-    <col min="13570" max="13570" width="39.28515625" style="27" customWidth="1"/>
-    <col min="13571" max="13571" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="4.42578125" style="27" customWidth="1"/>
-    <col min="13576" max="13576" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13579" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13581" max="13581" width="9.140625" style="27"/>
-    <col min="13582" max="13582" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13329" max="13329" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13330" max="13330" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13331" max="13331" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13332" max="13568" width="9.109375" style="27"/>
+    <col min="13569" max="13569" width="26.109375" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="39.33203125" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="4.44140625" style="27" customWidth="1"/>
+    <col min="13576" max="13576" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13579" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13581" max="13581" width="9.109375" style="27"/>
+    <col min="13582" max="13582" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="13584" max="13584" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13585" max="13585" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13586" max="13586" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13587" max="13587" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="13588" max="13824" width="9.140625" style="27"/>
-    <col min="13825" max="13825" width="26.140625" style="27" customWidth="1"/>
-    <col min="13826" max="13826" width="39.28515625" style="27" customWidth="1"/>
-    <col min="13827" max="13827" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="4.42578125" style="27" customWidth="1"/>
-    <col min="13832" max="13832" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13835" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13837" max="13837" width="9.140625" style="27"/>
-    <col min="13838" max="13838" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13585" max="13585" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13586" max="13586" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13587" max="13587" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13588" max="13824" width="9.109375" style="27"/>
+    <col min="13825" max="13825" width="26.109375" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="39.33203125" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="4.44140625" style="27" customWidth="1"/>
+    <col min="13832" max="13832" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13835" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13837" max="13837" width="9.109375" style="27"/>
+    <col min="13838" max="13838" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="13840" max="13840" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13841" max="13841" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13842" max="13842" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13843" max="13843" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="13844" max="14080" width="9.140625" style="27"/>
-    <col min="14081" max="14081" width="26.140625" style="27" customWidth="1"/>
-    <col min="14082" max="14082" width="39.28515625" style="27" customWidth="1"/>
-    <col min="14083" max="14083" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="4.42578125" style="27" customWidth="1"/>
-    <col min="14088" max="14088" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14091" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="15.28515625" style="27" customWidth="1"/>
-    <col min="14093" max="14093" width="9.140625" style="27"/>
-    <col min="14094" max="14094" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13841" max="13841" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13842" max="13842" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13843" max="13843" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13844" max="14080" width="9.109375" style="27"/>
+    <col min="14081" max="14081" width="26.109375" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="39.33203125" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="4.44140625" style="27" customWidth="1"/>
+    <col min="14088" max="14088" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14091" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="15.33203125" style="27" customWidth="1"/>
+    <col min="14093" max="14093" width="9.109375" style="27"/>
+    <col min="14094" max="14094" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="14096" max="14096" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14097" max="14097" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14098" max="14098" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14099" max="14099" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14100" max="14336" width="9.140625" style="27"/>
-    <col min="14337" max="14337" width="26.140625" style="27" customWidth="1"/>
-    <col min="14338" max="14338" width="39.28515625" style="27" customWidth="1"/>
-    <col min="14339" max="14339" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="4.42578125" style="27" customWidth="1"/>
-    <col min="14344" max="14344" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14347" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="15.28515625" style="27" customWidth="1"/>
-    <col min="14349" max="14349" width="9.140625" style="27"/>
-    <col min="14350" max="14350" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14097" max="14097" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14098" max="14098" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14099" max="14099" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14100" max="14336" width="9.109375" style="27"/>
+    <col min="14337" max="14337" width="26.109375" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="39.33203125" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="4.44140625" style="27" customWidth="1"/>
+    <col min="14344" max="14344" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14347" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="15.33203125" style="27" customWidth="1"/>
+    <col min="14349" max="14349" width="9.109375" style="27"/>
+    <col min="14350" max="14350" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="14352" max="14352" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14353" max="14353" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14354" max="14354" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14355" max="14355" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14356" max="14592" width="9.140625" style="27"/>
-    <col min="14593" max="14593" width="26.140625" style="27" customWidth="1"/>
-    <col min="14594" max="14594" width="39.28515625" style="27" customWidth="1"/>
-    <col min="14595" max="14595" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="4.42578125" style="27" customWidth="1"/>
-    <col min="14600" max="14600" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14603" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="15.28515625" style="27" customWidth="1"/>
-    <col min="14605" max="14605" width="9.140625" style="27"/>
-    <col min="14606" max="14606" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14353" max="14353" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14354" max="14354" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14355" max="14355" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14356" max="14592" width="9.109375" style="27"/>
+    <col min="14593" max="14593" width="26.109375" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="39.33203125" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="4.44140625" style="27" customWidth="1"/>
+    <col min="14600" max="14600" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14603" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="15.33203125" style="27" customWidth="1"/>
+    <col min="14605" max="14605" width="9.109375" style="27"/>
+    <col min="14606" max="14606" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="14608" max="14608" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14609" max="14609" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14610" max="14610" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14611" max="14611" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14612" max="14848" width="9.140625" style="27"/>
-    <col min="14849" max="14849" width="26.140625" style="27" customWidth="1"/>
-    <col min="14850" max="14850" width="39.28515625" style="27" customWidth="1"/>
-    <col min="14851" max="14851" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="4.42578125" style="27" customWidth="1"/>
-    <col min="14856" max="14856" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14859" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="15.28515625" style="27" customWidth="1"/>
-    <col min="14861" max="14861" width="9.140625" style="27"/>
-    <col min="14862" max="14862" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14609" max="14609" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14610" max="14610" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14611" max="14611" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14612" max="14848" width="9.109375" style="27"/>
+    <col min="14849" max="14849" width="26.109375" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="39.33203125" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="4.44140625" style="27" customWidth="1"/>
+    <col min="14856" max="14856" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14859" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="15.33203125" style="27" customWidth="1"/>
+    <col min="14861" max="14861" width="9.109375" style="27"/>
+    <col min="14862" max="14862" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="14864" max="14864" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14865" max="14865" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14866" max="14866" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14867" max="14867" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14868" max="15104" width="9.140625" style="27"/>
-    <col min="15105" max="15105" width="26.140625" style="27" customWidth="1"/>
-    <col min="15106" max="15106" width="39.28515625" style="27" customWidth="1"/>
-    <col min="15107" max="15107" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="4.42578125" style="27" customWidth="1"/>
-    <col min="15112" max="15112" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15115" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="15.28515625" style="27" customWidth="1"/>
-    <col min="15117" max="15117" width="9.140625" style="27"/>
-    <col min="15118" max="15118" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14865" max="14865" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14866" max="14866" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14867" max="14867" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14868" max="15104" width="9.109375" style="27"/>
+    <col min="15105" max="15105" width="26.109375" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="39.33203125" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="4.44140625" style="27" customWidth="1"/>
+    <col min="15112" max="15112" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15115" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="15.33203125" style="27" customWidth="1"/>
+    <col min="15117" max="15117" width="9.109375" style="27"/>
+    <col min="15118" max="15118" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="15120" max="15120" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15121" max="15121" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15122" max="15122" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15123" max="15123" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="15124" max="15360" width="9.140625" style="27"/>
-    <col min="15361" max="15361" width="26.140625" style="27" customWidth="1"/>
-    <col min="15362" max="15362" width="39.28515625" style="27" customWidth="1"/>
-    <col min="15363" max="15363" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="4.42578125" style="27" customWidth="1"/>
-    <col min="15368" max="15368" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15371" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="15.28515625" style="27" customWidth="1"/>
-    <col min="15373" max="15373" width="9.140625" style="27"/>
-    <col min="15374" max="15374" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15121" max="15121" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15122" max="15122" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15123" max="15123" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15124" max="15360" width="9.109375" style="27"/>
+    <col min="15361" max="15361" width="26.109375" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="39.33203125" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="4.44140625" style="27" customWidth="1"/>
+    <col min="15368" max="15368" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15371" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="15.33203125" style="27" customWidth="1"/>
+    <col min="15373" max="15373" width="9.109375" style="27"/>
+    <col min="15374" max="15374" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="15376" max="15376" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15377" max="15377" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15378" max="15378" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15379" max="15379" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="15380" max="15616" width="9.140625" style="27"/>
-    <col min="15617" max="15617" width="26.140625" style="27" customWidth="1"/>
-    <col min="15618" max="15618" width="39.28515625" style="27" customWidth="1"/>
-    <col min="15619" max="15619" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="4.42578125" style="27" customWidth="1"/>
-    <col min="15624" max="15624" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15627" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="15.28515625" style="27" customWidth="1"/>
-    <col min="15629" max="15629" width="9.140625" style="27"/>
-    <col min="15630" max="15630" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15377" max="15377" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15378" max="15378" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15379" max="15379" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15380" max="15616" width="9.109375" style="27"/>
+    <col min="15617" max="15617" width="26.109375" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="39.33203125" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="4.44140625" style="27" customWidth="1"/>
+    <col min="15624" max="15624" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15627" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="15.33203125" style="27" customWidth="1"/>
+    <col min="15629" max="15629" width="9.109375" style="27"/>
+    <col min="15630" max="15630" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="15632" max="15632" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15633" max="15633" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15634" max="15634" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15635" max="15635" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="15636" max="15872" width="9.140625" style="27"/>
-    <col min="15873" max="15873" width="26.140625" style="27" customWidth="1"/>
-    <col min="15874" max="15874" width="39.28515625" style="27" customWidth="1"/>
-    <col min="15875" max="15875" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="4.42578125" style="27" customWidth="1"/>
-    <col min="15880" max="15880" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15883" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="15.28515625" style="27" customWidth="1"/>
-    <col min="15885" max="15885" width="9.140625" style="27"/>
-    <col min="15886" max="15886" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15633" max="15633" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15634" max="15634" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15635" max="15635" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15636" max="15872" width="9.109375" style="27"/>
+    <col min="15873" max="15873" width="26.109375" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="39.33203125" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="4.44140625" style="27" customWidth="1"/>
+    <col min="15880" max="15880" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15883" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="15.33203125" style="27" customWidth="1"/>
+    <col min="15885" max="15885" width="9.109375" style="27"/>
+    <col min="15886" max="15886" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="15888" max="15888" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15889" max="15889" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15890" max="15890" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15891" max="15891" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="15892" max="16128" width="9.140625" style="27"/>
-    <col min="16129" max="16129" width="26.140625" style="27" customWidth="1"/>
-    <col min="16130" max="16130" width="39.28515625" style="27" customWidth="1"/>
-    <col min="16131" max="16131" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="4.42578125" style="27" customWidth="1"/>
-    <col min="16136" max="16136" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16139" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="15.28515625" style="27" customWidth="1"/>
-    <col min="16141" max="16141" width="9.140625" style="27"/>
-    <col min="16142" max="16142" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15889" max="15889" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15890" max="15890" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15891" max="15891" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15892" max="16128" width="9.109375" style="27"/>
+    <col min="16129" max="16129" width="26.109375" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="39.33203125" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="4.44140625" style="27" customWidth="1"/>
+    <col min="16136" max="16136" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16139" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="15.33203125" style="27" customWidth="1"/>
+    <col min="16141" max="16141" width="9.109375" style="27"/>
+    <col min="16142" max="16142" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="16144" max="16144" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="16145" max="16145" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16146" max="16146" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16147" max="16147" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="16148" max="16384" width="9.140625" style="27"/>
+    <col min="16145" max="16145" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16146" max="16146" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="16147" max="16147" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16148" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="104" t="s">
         <v>109</v>
       </c>
       <c r="B1" s="26"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>35</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>0.43150348410568523</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C3" s="112" t="s">
         <v>37</v>
       </c>
@@ -15970,7 +15970,7 @@
       <c r="U3" s="33"/>
       <c r="V3" s="33"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>40</v>
       </c>
@@ -16006,7 +16006,7 @@
       <c r="U4" s="33"/>
       <c r="V4" s="33"/>
     </row>
-    <row r="5" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>47</v>
       </c>
@@ -16064,7 +16064,7 @@
       <c r="U5" s="33"/>
       <c r="V5" s="33"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>61</v>
       </c>
@@ -16135,7 +16135,7 @@
       <c r="U6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="48" t="s">
         <v>18</v>
       </c>
@@ -16203,7 +16203,7 @@
       <c r="U7" s="47"/>
       <c r="V7" s="47"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
         <v>62</v>
       </c>
@@ -16233,11 +16233,11 @@
         <v>710</v>
       </c>
       <c r="L8" s="41">
-        <f t="shared" ref="L7:L51" si="6">+D8/I8</f>
+        <f t="shared" ref="L8:L51" si="6">+D8/I8</f>
         <v>0.43333333333333335</v>
       </c>
       <c r="M8" s="42">
-        <f t="shared" ref="M7:M51" si="7">+(0.5-(L8))/0.07</f>
+        <f t="shared" ref="M8:M51" si="7">+(0.5-(L8))/0.07</f>
         <v>0.95238095238095211</v>
       </c>
       <c r="N8" s="27">
@@ -16271,7 +16271,7 @@
       <c r="U8" s="47"/>
       <c r="V8" s="47"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="27" t="s">
         <v>63</v>
       </c>
@@ -16339,7 +16339,7 @@
       <c r="U9" s="47"/>
       <c r="V9" s="47"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="38" t="s">
         <v>23</v>
       </c>
@@ -16407,7 +16407,7 @@
       <c r="U10" s="47"/>
       <c r="V10" s="47"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="49" t="s">
         <v>19</v>
       </c>
@@ -16475,7 +16475,7 @@
       <c r="U11" s="47"/>
       <c r="V11" s="47"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="49" t="s">
         <v>20</v>
       </c>
@@ -16543,7 +16543,7 @@
       <c r="U12" s="47"/>
       <c r="V12" s="47"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="49" t="s">
         <v>24</v>
       </c>
@@ -16611,7 +16611,7 @@
       <c r="U13" s="47"/>
       <c r="V13" s="47"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="48" t="s">
         <v>21</v>
       </c>
@@ -16679,7 +16679,7 @@
       <c r="U14" s="47"/>
       <c r="V14" s="47"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
         <v>64</v>
       </c>
@@ -16737,7 +16737,7 @@
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>65</v>
       </c>
@@ -16808,7 +16808,7 @@
       <c r="U16" s="47"/>
       <c r="V16" s="47"/>
     </row>
-    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
         <v>67</v>
       </c>
@@ -16876,7 +16876,7 @@
       <c r="U17" s="47"/>
       <c r="V17" s="47"/>
     </row>
-    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="38" t="s">
         <v>15</v>
       </c>
@@ -16944,7 +16944,7 @@
       <c r="U18" s="47"/>
       <c r="V18" s="47"/>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="49" t="s">
         <v>16</v>
       </c>
@@ -17012,7 +17012,7 @@
       <c r="U19" s="47"/>
       <c r="V19" s="47"/>
     </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="s">
         <v>12</v>
       </c>
@@ -17080,7 +17080,7 @@
       <c r="U20" s="47"/>
       <c r="V20" s="47"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
         <v>68</v>
       </c>
@@ -17148,7 +17148,7 @@
       <c r="U21" s="47"/>
       <c r="V21" s="47"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="28" t="s">
         <v>13</v>
       </c>
@@ -17216,7 +17216,7 @@
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="27" t="s">
         <v>69</v>
       </c>
@@ -17284,7 +17284,7 @@
       <c r="U23" s="47"/>
       <c r="V23" s="47"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="28" t="s">
         <v>17</v>
       </c>
@@ -17352,7 +17352,7 @@
       <c r="U24" s="47"/>
       <c r="V24" s="47"/>
     </row>
-    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
         <v>70</v>
       </c>
@@ -17376,7 +17376,7 @@
       <c r="U25" s="47"/>
       <c r="V25" s="47"/>
     </row>
-    <row r="26" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="52" t="s">
         <v>64</v>
       </c>
@@ -17433,7 +17433,7 @@
       <c r="U26" s="47"/>
       <c r="V26" s="47"/>
     </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>71</v>
       </c>
@@ -17504,7 +17504,7 @@
       <c r="U27" s="47"/>
       <c r="V27" s="47"/>
     </row>
-    <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
         <v>72</v>
       </c>
@@ -17575,7 +17575,7 @@
       <c r="U28" s="47"/>
       <c r="V28" s="47"/>
     </row>
-    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
         <v>74</v>
       </c>
@@ -17643,7 +17643,7 @@
       <c r="U29" s="47"/>
       <c r="V29" s="47"/>
     </row>
-    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
         <v>75</v>
       </c>
@@ -17711,7 +17711,7 @@
       <c r="U30" s="47"/>
       <c r="V30" s="47"/>
     </row>
-    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
         <v>76</v>
       </c>
@@ -17779,7 +17779,7 @@
       <c r="U31" s="47"/>
       <c r="V31" s="47"/>
     </row>
-    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
         <v>77</v>
       </c>
@@ -17847,7 +17847,7 @@
       <c r="U32" s="47"/>
       <c r="V32" s="47"/>
     </row>
-    <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="27" t="s">
         <v>78</v>
       </c>
@@ -17915,7 +17915,7 @@
       <c r="U33" s="47"/>
       <c r="V33" s="47"/>
     </row>
-    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="28" t="s">
         <v>26</v>
       </c>
@@ -17983,7 +17983,7 @@
       <c r="U34" s="47"/>
       <c r="V34" s="47"/>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="27" t="s">
         <v>79</v>
       </c>
@@ -18051,7 +18051,7 @@
       <c r="U35" s="47"/>
       <c r="V35" s="47"/>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>64</v>
       </c>
@@ -18109,7 +18109,7 @@
       <c r="U36" s="47"/>
       <c r="V36" s="47"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B37" s="61" t="s">
         <v>80</v>
       </c>
@@ -18167,7 +18167,7 @@
       <c r="U37" s="47"/>
       <c r="V37" s="47"/>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="52"/>
       <c r="C38" s="39"/>
       <c r="D38" s="53"/>
@@ -18190,7 +18190,7 @@
       <c r="U38" s="47"/>
       <c r="V38" s="47"/>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="52"/>
       <c r="C39" s="39"/>
       <c r="D39" s="53"/>
@@ -18213,7 +18213,7 @@
       <c r="U39" s="47"/>
       <c r="V39" s="47"/>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="52"/>
       <c r="C40" s="39"/>
       <c r="D40" s="53"/>
@@ -18236,7 +18236,7 @@
       <c r="U40" s="47"/>
       <c r="V40" s="47"/>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="52"/>
       <c r="C41" s="39"/>
       <c r="D41" s="53"/>
@@ -18259,7 +18259,7 @@
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>81</v>
       </c>
@@ -18330,7 +18330,7 @@
       <c r="U42" s="47"/>
       <c r="V42" s="47"/>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="27" t="s">
         <v>83</v>
       </c>
@@ -18398,7 +18398,7 @@
       <c r="U43" s="47"/>
       <c r="V43" s="47"/>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="27" t="s">
         <v>84</v>
       </c>
@@ -18466,7 +18466,7 @@
       <c r="U44" s="47"/>
       <c r="V44" s="47"/>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="27" t="s">
         <v>85</v>
       </c>
@@ -18534,7 +18534,7 @@
       <c r="U45" s="47"/>
       <c r="V45" s="47"/>
     </row>
-    <row r="46" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="27" t="s">
         <v>86</v>
       </c>
@@ -18602,7 +18602,7 @@
       <c r="U46" s="47"/>
       <c r="V46" s="47"/>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="71" t="s">
         <v>87</v>
       </c>
@@ -18673,7 +18673,7 @@
       <c r="U47" s="47"/>
       <c r="V47" s="47"/>
     </row>
-    <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="82" t="s">
         <v>89</v>
       </c>
@@ -18744,7 +18744,7 @@
       <c r="U48" s="47"/>
       <c r="V48" s="47"/>
     </row>
-    <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="82" t="s">
         <v>91</v>
       </c>
@@ -18815,7 +18815,7 @@
       <c r="U49" s="47"/>
       <c r="V49" s="47"/>
     </row>
-    <row r="50" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="88"/>
       <c r="B50" s="89" t="s">
         <v>93</v>
@@ -18884,7 +18884,7 @@
       <c r="U50" s="47"/>
       <c r="V50" s="47"/>
     </row>
-    <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="27" t="s">
         <v>94</v>
       </c>
@@ -18952,17 +18952,17 @@
       <c r="U51" s="47"/>
       <c r="V51" s="47"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B52" s="52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B55" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
@@ -18974,7 +18974,7 @@
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C57" s="113" t="s">
         <v>37</v>
       </c>
@@ -18988,7 +18988,7 @@
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C58" s="34" t="s">
         <v>41</v>
       </c>
@@ -19006,7 +19006,7 @@
       </c>
       <c r="K58" s="112"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B59" s="29" t="s">
         <v>48</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B60" s="27" t="s">
         <v>96</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>26510.846860263933</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B61" s="99" t="s">
         <v>97</v>
       </c>
@@ -19091,7 +19091,7 @@
       <c r="O61" s="99"/>
       <c r="P61" s="99"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B62" s="99" t="s">
         <v>99</v>
       </c>
@@ -19124,7 +19124,7 @@
       <c r="O62" s="99"/>
       <c r="P62" s="99"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B63" s="99" t="s">
         <v>100</v>
       </c>
@@ -19157,7 +19157,7 @@
       <c r="O63" s="99"/>
       <c r="P63" s="99"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B64" s="99" t="s">
         <v>101</v>
       </c>
@@ -19190,7 +19190,7 @@
       <c r="O64" s="99"/>
       <c r="P64" s="99"/>
     </row>
-    <row r="65" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="27" t="s">
         <v>102</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>4913.6306755600644</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="27" t="s">
         <v>103</v>
       </c>
@@ -19242,7 +19242,7 @@
         <v>10910.389067927425</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="27" t="s">
         <v>104</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>11168.923800181281</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="27" t="s">
         <v>105</v>
       </c>
@@ -19297,7 +19297,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="29" t="s">
         <v>107</v>
       </c>
@@ -19355,140 +19355,140 @@
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="105"/>
-    <col min="5" max="5" width="18.5703125" style="105" customWidth="1"/>
-    <col min="6" max="260" width="9.140625" style="105"/>
-    <col min="261" max="261" width="18.5703125" style="105" customWidth="1"/>
-    <col min="262" max="516" width="9.140625" style="105"/>
-    <col min="517" max="517" width="18.5703125" style="105" customWidth="1"/>
-    <col min="518" max="772" width="9.140625" style="105"/>
-    <col min="773" max="773" width="18.5703125" style="105" customWidth="1"/>
-    <col min="774" max="1028" width="9.140625" style="105"/>
-    <col min="1029" max="1029" width="18.5703125" style="105" customWidth="1"/>
-    <col min="1030" max="1284" width="9.140625" style="105"/>
-    <col min="1285" max="1285" width="18.5703125" style="105" customWidth="1"/>
-    <col min="1286" max="1540" width="9.140625" style="105"/>
-    <col min="1541" max="1541" width="18.5703125" style="105" customWidth="1"/>
-    <col min="1542" max="1796" width="9.140625" style="105"/>
-    <col min="1797" max="1797" width="18.5703125" style="105" customWidth="1"/>
-    <col min="1798" max="2052" width="9.140625" style="105"/>
-    <col min="2053" max="2053" width="18.5703125" style="105" customWidth="1"/>
-    <col min="2054" max="2308" width="9.140625" style="105"/>
-    <col min="2309" max="2309" width="18.5703125" style="105" customWidth="1"/>
-    <col min="2310" max="2564" width="9.140625" style="105"/>
-    <col min="2565" max="2565" width="18.5703125" style="105" customWidth="1"/>
-    <col min="2566" max="2820" width="9.140625" style="105"/>
-    <col min="2821" max="2821" width="18.5703125" style="105" customWidth="1"/>
-    <col min="2822" max="3076" width="9.140625" style="105"/>
-    <col min="3077" max="3077" width="18.5703125" style="105" customWidth="1"/>
-    <col min="3078" max="3332" width="9.140625" style="105"/>
-    <col min="3333" max="3333" width="18.5703125" style="105" customWidth="1"/>
-    <col min="3334" max="3588" width="9.140625" style="105"/>
-    <col min="3589" max="3589" width="18.5703125" style="105" customWidth="1"/>
-    <col min="3590" max="3844" width="9.140625" style="105"/>
-    <col min="3845" max="3845" width="18.5703125" style="105" customWidth="1"/>
-    <col min="3846" max="4100" width="9.140625" style="105"/>
-    <col min="4101" max="4101" width="18.5703125" style="105" customWidth="1"/>
-    <col min="4102" max="4356" width="9.140625" style="105"/>
-    <col min="4357" max="4357" width="18.5703125" style="105" customWidth="1"/>
-    <col min="4358" max="4612" width="9.140625" style="105"/>
-    <col min="4613" max="4613" width="18.5703125" style="105" customWidth="1"/>
-    <col min="4614" max="4868" width="9.140625" style="105"/>
-    <col min="4869" max="4869" width="18.5703125" style="105" customWidth="1"/>
-    <col min="4870" max="5124" width="9.140625" style="105"/>
-    <col min="5125" max="5125" width="18.5703125" style="105" customWidth="1"/>
-    <col min="5126" max="5380" width="9.140625" style="105"/>
-    <col min="5381" max="5381" width="18.5703125" style="105" customWidth="1"/>
-    <col min="5382" max="5636" width="9.140625" style="105"/>
-    <col min="5637" max="5637" width="18.5703125" style="105" customWidth="1"/>
-    <col min="5638" max="5892" width="9.140625" style="105"/>
-    <col min="5893" max="5893" width="18.5703125" style="105" customWidth="1"/>
-    <col min="5894" max="6148" width="9.140625" style="105"/>
-    <col min="6149" max="6149" width="18.5703125" style="105" customWidth="1"/>
-    <col min="6150" max="6404" width="9.140625" style="105"/>
-    <col min="6405" max="6405" width="18.5703125" style="105" customWidth="1"/>
-    <col min="6406" max="6660" width="9.140625" style="105"/>
-    <col min="6661" max="6661" width="18.5703125" style="105" customWidth="1"/>
-    <col min="6662" max="6916" width="9.140625" style="105"/>
-    <col min="6917" max="6917" width="18.5703125" style="105" customWidth="1"/>
-    <col min="6918" max="7172" width="9.140625" style="105"/>
-    <col min="7173" max="7173" width="18.5703125" style="105" customWidth="1"/>
-    <col min="7174" max="7428" width="9.140625" style="105"/>
-    <col min="7429" max="7429" width="18.5703125" style="105" customWidth="1"/>
-    <col min="7430" max="7684" width="9.140625" style="105"/>
-    <col min="7685" max="7685" width="18.5703125" style="105" customWidth="1"/>
-    <col min="7686" max="7940" width="9.140625" style="105"/>
-    <col min="7941" max="7941" width="18.5703125" style="105" customWidth="1"/>
-    <col min="7942" max="8196" width="9.140625" style="105"/>
-    <col min="8197" max="8197" width="18.5703125" style="105" customWidth="1"/>
-    <col min="8198" max="8452" width="9.140625" style="105"/>
-    <col min="8453" max="8453" width="18.5703125" style="105" customWidth="1"/>
-    <col min="8454" max="8708" width="9.140625" style="105"/>
-    <col min="8709" max="8709" width="18.5703125" style="105" customWidth="1"/>
-    <col min="8710" max="8964" width="9.140625" style="105"/>
-    <col min="8965" max="8965" width="18.5703125" style="105" customWidth="1"/>
-    <col min="8966" max="9220" width="9.140625" style="105"/>
-    <col min="9221" max="9221" width="18.5703125" style="105" customWidth="1"/>
-    <col min="9222" max="9476" width="9.140625" style="105"/>
-    <col min="9477" max="9477" width="18.5703125" style="105" customWidth="1"/>
-    <col min="9478" max="9732" width="9.140625" style="105"/>
-    <col min="9733" max="9733" width="18.5703125" style="105" customWidth="1"/>
-    <col min="9734" max="9988" width="9.140625" style="105"/>
-    <col min="9989" max="9989" width="18.5703125" style="105" customWidth="1"/>
-    <col min="9990" max="10244" width="9.140625" style="105"/>
-    <col min="10245" max="10245" width="18.5703125" style="105" customWidth="1"/>
-    <col min="10246" max="10500" width="9.140625" style="105"/>
-    <col min="10501" max="10501" width="18.5703125" style="105" customWidth="1"/>
-    <col min="10502" max="10756" width="9.140625" style="105"/>
-    <col min="10757" max="10757" width="18.5703125" style="105" customWidth="1"/>
-    <col min="10758" max="11012" width="9.140625" style="105"/>
-    <col min="11013" max="11013" width="18.5703125" style="105" customWidth="1"/>
-    <col min="11014" max="11268" width="9.140625" style="105"/>
-    <col min="11269" max="11269" width="18.5703125" style="105" customWidth="1"/>
-    <col min="11270" max="11524" width="9.140625" style="105"/>
-    <col min="11525" max="11525" width="18.5703125" style="105" customWidth="1"/>
-    <col min="11526" max="11780" width="9.140625" style="105"/>
-    <col min="11781" max="11781" width="18.5703125" style="105" customWidth="1"/>
-    <col min="11782" max="12036" width="9.140625" style="105"/>
-    <col min="12037" max="12037" width="18.5703125" style="105" customWidth="1"/>
-    <col min="12038" max="12292" width="9.140625" style="105"/>
-    <col min="12293" max="12293" width="18.5703125" style="105" customWidth="1"/>
-    <col min="12294" max="12548" width="9.140625" style="105"/>
-    <col min="12549" max="12549" width="18.5703125" style="105" customWidth="1"/>
-    <col min="12550" max="12804" width="9.140625" style="105"/>
-    <col min="12805" max="12805" width="18.5703125" style="105" customWidth="1"/>
-    <col min="12806" max="13060" width="9.140625" style="105"/>
-    <col min="13061" max="13061" width="18.5703125" style="105" customWidth="1"/>
-    <col min="13062" max="13316" width="9.140625" style="105"/>
-    <col min="13317" max="13317" width="18.5703125" style="105" customWidth="1"/>
-    <col min="13318" max="13572" width="9.140625" style="105"/>
-    <col min="13573" max="13573" width="18.5703125" style="105" customWidth="1"/>
-    <col min="13574" max="13828" width="9.140625" style="105"/>
-    <col min="13829" max="13829" width="18.5703125" style="105" customWidth="1"/>
-    <col min="13830" max="14084" width="9.140625" style="105"/>
-    <col min="14085" max="14085" width="18.5703125" style="105" customWidth="1"/>
-    <col min="14086" max="14340" width="9.140625" style="105"/>
-    <col min="14341" max="14341" width="18.5703125" style="105" customWidth="1"/>
-    <col min="14342" max="14596" width="9.140625" style="105"/>
-    <col min="14597" max="14597" width="18.5703125" style="105" customWidth="1"/>
-    <col min="14598" max="14852" width="9.140625" style="105"/>
-    <col min="14853" max="14853" width="18.5703125" style="105" customWidth="1"/>
-    <col min="14854" max="15108" width="9.140625" style="105"/>
-    <col min="15109" max="15109" width="18.5703125" style="105" customWidth="1"/>
-    <col min="15110" max="15364" width="9.140625" style="105"/>
-    <col min="15365" max="15365" width="18.5703125" style="105" customWidth="1"/>
-    <col min="15366" max="15620" width="9.140625" style="105"/>
-    <col min="15621" max="15621" width="18.5703125" style="105" customWidth="1"/>
-    <col min="15622" max="15876" width="9.140625" style="105"/>
-    <col min="15877" max="15877" width="18.5703125" style="105" customWidth="1"/>
-    <col min="15878" max="16132" width="9.140625" style="105"/>
-    <col min="16133" max="16133" width="18.5703125" style="105" customWidth="1"/>
-    <col min="16134" max="16384" width="9.140625" style="105"/>
+    <col min="1" max="4" width="9.109375" style="105"/>
+    <col min="5" max="5" width="18.5546875" style="105" customWidth="1"/>
+    <col min="6" max="260" width="9.109375" style="105"/>
+    <col min="261" max="261" width="18.5546875" style="105" customWidth="1"/>
+    <col min="262" max="516" width="9.109375" style="105"/>
+    <col min="517" max="517" width="18.5546875" style="105" customWidth="1"/>
+    <col min="518" max="772" width="9.109375" style="105"/>
+    <col min="773" max="773" width="18.5546875" style="105" customWidth="1"/>
+    <col min="774" max="1028" width="9.109375" style="105"/>
+    <col min="1029" max="1029" width="18.5546875" style="105" customWidth="1"/>
+    <col min="1030" max="1284" width="9.109375" style="105"/>
+    <col min="1285" max="1285" width="18.5546875" style="105" customWidth="1"/>
+    <col min="1286" max="1540" width="9.109375" style="105"/>
+    <col min="1541" max="1541" width="18.5546875" style="105" customWidth="1"/>
+    <col min="1542" max="1796" width="9.109375" style="105"/>
+    <col min="1797" max="1797" width="18.5546875" style="105" customWidth="1"/>
+    <col min="1798" max="2052" width="9.109375" style="105"/>
+    <col min="2053" max="2053" width="18.5546875" style="105" customWidth="1"/>
+    <col min="2054" max="2308" width="9.109375" style="105"/>
+    <col min="2309" max="2309" width="18.5546875" style="105" customWidth="1"/>
+    <col min="2310" max="2564" width="9.109375" style="105"/>
+    <col min="2565" max="2565" width="18.5546875" style="105" customWidth="1"/>
+    <col min="2566" max="2820" width="9.109375" style="105"/>
+    <col min="2821" max="2821" width="18.5546875" style="105" customWidth="1"/>
+    <col min="2822" max="3076" width="9.109375" style="105"/>
+    <col min="3077" max="3077" width="18.5546875" style="105" customWidth="1"/>
+    <col min="3078" max="3332" width="9.109375" style="105"/>
+    <col min="3333" max="3333" width="18.5546875" style="105" customWidth="1"/>
+    <col min="3334" max="3588" width="9.109375" style="105"/>
+    <col min="3589" max="3589" width="18.5546875" style="105" customWidth="1"/>
+    <col min="3590" max="3844" width="9.109375" style="105"/>
+    <col min="3845" max="3845" width="18.5546875" style="105" customWidth="1"/>
+    <col min="3846" max="4100" width="9.109375" style="105"/>
+    <col min="4101" max="4101" width="18.5546875" style="105" customWidth="1"/>
+    <col min="4102" max="4356" width="9.109375" style="105"/>
+    <col min="4357" max="4357" width="18.5546875" style="105" customWidth="1"/>
+    <col min="4358" max="4612" width="9.109375" style="105"/>
+    <col min="4613" max="4613" width="18.5546875" style="105" customWidth="1"/>
+    <col min="4614" max="4868" width="9.109375" style="105"/>
+    <col min="4869" max="4869" width="18.5546875" style="105" customWidth="1"/>
+    <col min="4870" max="5124" width="9.109375" style="105"/>
+    <col min="5125" max="5125" width="18.5546875" style="105" customWidth="1"/>
+    <col min="5126" max="5380" width="9.109375" style="105"/>
+    <col min="5381" max="5381" width="18.5546875" style="105" customWidth="1"/>
+    <col min="5382" max="5636" width="9.109375" style="105"/>
+    <col min="5637" max="5637" width="18.5546875" style="105" customWidth="1"/>
+    <col min="5638" max="5892" width="9.109375" style="105"/>
+    <col min="5893" max="5893" width="18.5546875" style="105" customWidth="1"/>
+    <col min="5894" max="6148" width="9.109375" style="105"/>
+    <col min="6149" max="6149" width="18.5546875" style="105" customWidth="1"/>
+    <col min="6150" max="6404" width="9.109375" style="105"/>
+    <col min="6405" max="6405" width="18.5546875" style="105" customWidth="1"/>
+    <col min="6406" max="6660" width="9.109375" style="105"/>
+    <col min="6661" max="6661" width="18.5546875" style="105" customWidth="1"/>
+    <col min="6662" max="6916" width="9.109375" style="105"/>
+    <col min="6917" max="6917" width="18.5546875" style="105" customWidth="1"/>
+    <col min="6918" max="7172" width="9.109375" style="105"/>
+    <col min="7173" max="7173" width="18.5546875" style="105" customWidth="1"/>
+    <col min="7174" max="7428" width="9.109375" style="105"/>
+    <col min="7429" max="7429" width="18.5546875" style="105" customWidth="1"/>
+    <col min="7430" max="7684" width="9.109375" style="105"/>
+    <col min="7685" max="7685" width="18.5546875" style="105" customWidth="1"/>
+    <col min="7686" max="7940" width="9.109375" style="105"/>
+    <col min="7941" max="7941" width="18.5546875" style="105" customWidth="1"/>
+    <col min="7942" max="8196" width="9.109375" style="105"/>
+    <col min="8197" max="8197" width="18.5546875" style="105" customWidth="1"/>
+    <col min="8198" max="8452" width="9.109375" style="105"/>
+    <col min="8453" max="8453" width="18.5546875" style="105" customWidth="1"/>
+    <col min="8454" max="8708" width="9.109375" style="105"/>
+    <col min="8709" max="8709" width="18.5546875" style="105" customWidth="1"/>
+    <col min="8710" max="8964" width="9.109375" style="105"/>
+    <col min="8965" max="8965" width="18.5546875" style="105" customWidth="1"/>
+    <col min="8966" max="9220" width="9.109375" style="105"/>
+    <col min="9221" max="9221" width="18.5546875" style="105" customWidth="1"/>
+    <col min="9222" max="9476" width="9.109375" style="105"/>
+    <col min="9477" max="9477" width="18.5546875" style="105" customWidth="1"/>
+    <col min="9478" max="9732" width="9.109375" style="105"/>
+    <col min="9733" max="9733" width="18.5546875" style="105" customWidth="1"/>
+    <col min="9734" max="9988" width="9.109375" style="105"/>
+    <col min="9989" max="9989" width="18.5546875" style="105" customWidth="1"/>
+    <col min="9990" max="10244" width="9.109375" style="105"/>
+    <col min="10245" max="10245" width="18.5546875" style="105" customWidth="1"/>
+    <col min="10246" max="10500" width="9.109375" style="105"/>
+    <col min="10501" max="10501" width="18.5546875" style="105" customWidth="1"/>
+    <col min="10502" max="10756" width="9.109375" style="105"/>
+    <col min="10757" max="10757" width="18.5546875" style="105" customWidth="1"/>
+    <col min="10758" max="11012" width="9.109375" style="105"/>
+    <col min="11013" max="11013" width="18.5546875" style="105" customWidth="1"/>
+    <col min="11014" max="11268" width="9.109375" style="105"/>
+    <col min="11269" max="11269" width="18.5546875" style="105" customWidth="1"/>
+    <col min="11270" max="11524" width="9.109375" style="105"/>
+    <col min="11525" max="11525" width="18.5546875" style="105" customWidth="1"/>
+    <col min="11526" max="11780" width="9.109375" style="105"/>
+    <col min="11781" max="11781" width="18.5546875" style="105" customWidth="1"/>
+    <col min="11782" max="12036" width="9.109375" style="105"/>
+    <col min="12037" max="12037" width="18.5546875" style="105" customWidth="1"/>
+    <col min="12038" max="12292" width="9.109375" style="105"/>
+    <col min="12293" max="12293" width="18.5546875" style="105" customWidth="1"/>
+    <col min="12294" max="12548" width="9.109375" style="105"/>
+    <col min="12549" max="12549" width="18.5546875" style="105" customWidth="1"/>
+    <col min="12550" max="12804" width="9.109375" style="105"/>
+    <col min="12805" max="12805" width="18.5546875" style="105" customWidth="1"/>
+    <col min="12806" max="13060" width="9.109375" style="105"/>
+    <col min="13061" max="13061" width="18.5546875" style="105" customWidth="1"/>
+    <col min="13062" max="13316" width="9.109375" style="105"/>
+    <col min="13317" max="13317" width="18.5546875" style="105" customWidth="1"/>
+    <col min="13318" max="13572" width="9.109375" style="105"/>
+    <col min="13573" max="13573" width="18.5546875" style="105" customWidth="1"/>
+    <col min="13574" max="13828" width="9.109375" style="105"/>
+    <col min="13829" max="13829" width="18.5546875" style="105" customWidth="1"/>
+    <col min="13830" max="14084" width="9.109375" style="105"/>
+    <col min="14085" max="14085" width="18.5546875" style="105" customWidth="1"/>
+    <col min="14086" max="14340" width="9.109375" style="105"/>
+    <col min="14341" max="14341" width="18.5546875" style="105" customWidth="1"/>
+    <col min="14342" max="14596" width="9.109375" style="105"/>
+    <col min="14597" max="14597" width="18.5546875" style="105" customWidth="1"/>
+    <col min="14598" max="14852" width="9.109375" style="105"/>
+    <col min="14853" max="14853" width="18.5546875" style="105" customWidth="1"/>
+    <col min="14854" max="15108" width="9.109375" style="105"/>
+    <col min="15109" max="15109" width="18.5546875" style="105" customWidth="1"/>
+    <col min="15110" max="15364" width="9.109375" style="105"/>
+    <col min="15365" max="15365" width="18.5546875" style="105" customWidth="1"/>
+    <col min="15366" max="15620" width="9.109375" style="105"/>
+    <col min="15621" max="15621" width="18.5546875" style="105" customWidth="1"/>
+    <col min="15622" max="15876" width="9.109375" style="105"/>
+    <col min="15877" max="15877" width="18.5546875" style="105" customWidth="1"/>
+    <col min="15878" max="16132" width="9.109375" style="105"/>
+    <col min="16133" max="16133" width="18.5546875" style="105" customWidth="1"/>
+    <col min="16134" max="16384" width="9.109375" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="105" t="s">
         <v>49</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="106">
         <v>1</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="106">
         <v>2</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="106">
         <v>3</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="106">
         <v>4</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="106">
         <v>5</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="106">
         <v>6</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="106">
         <v>7</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="106">
         <v>8</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="106">
         <v>9</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="106">
         <v>10</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="106">
         <v>11</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="106">
         <v>12</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="106">
         <v>13</v>
       </c>
@@ -19765,7 +19765,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="106">
         <v>14</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="106">
         <v>15</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="106">
         <v>16</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="106">
         <v>17</v>
       </c>
@@ -19845,7 +19845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="106">
         <v>18</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="106">
         <v>19</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="106">
         <v>20</v>
       </c>
@@ -19905,7 +19905,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="106">
         <v>21</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="106">
         <v>22</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="106">
         <v>23</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="106">
         <v>24</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="106">
         <v>25</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="106">
         <v>26</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="106">
         <v>27</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="106">
         <v>28</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="106">
         <v>29</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="106">
         <v>30</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="106">
         <v>31</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="106">
         <v>32</v>
       </c>
@@ -20145,7 +20145,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="106">
         <v>33</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="106">
         <v>34</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="106">
         <v>35</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="106">
         <v>36</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="106">
         <v>37</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="106">
         <v>38</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="106">
         <v>39</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="106">
         <v>40</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="106">
         <v>41</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="106">
         <v>42</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="106">
         <v>43</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="106">
         <v>44</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="106">
         <v>45</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="106">
         <v>46</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="106">
         <v>47</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="106">
         <v>48</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="106">
         <v>49</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="106">
         <v>50</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="106">
         <v>51</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="106">
         <v>52</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="106">
         <v>53</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="106">
         <v>54</v>
       </c>
@@ -20585,7 +20585,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="106">
         <v>55</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="106">
         <v>56</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="106">
         <v>57</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="106">
         <v>58</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="106">
         <v>59</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="106">
         <v>60</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="106">
         <v>61</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="106">
         <v>62</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="106">
         <v>63</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="106">
         <v>64</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="106">
         <v>65</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="106">
         <v>66</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="106">
         <v>67</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="106">
         <v>68</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="106">
         <v>69</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="106">
         <v>70</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="106">
         <v>71</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="106">
         <v>72</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="106">
         <v>73</v>
       </c>
@@ -20965,7 +20965,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="106">
         <v>74</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="106">
         <v>75</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="106">
         <v>76</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="106">
         <v>77</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="106">
         <v>78</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="106">
         <v>79</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="106">
         <v>80</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="106">
         <v>81</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="106">
         <v>82</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="106">
         <v>83</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="106">
         <v>84</v>
       </c>
@@ -21199,19 +21199,19 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="105"/>
-    <col min="2" max="2" width="9.140625" style="107"/>
-    <col min="3" max="16384" width="9.140625" style="105"/>
+    <col min="1" max="1" width="9.109375" style="105"/>
+    <col min="2" max="2" width="9.109375" style="107"/>
+    <col min="3" max="16384" width="9.109375" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="105" t="s">
         <v>128</v>
       </c>
@@ -21219,7 +21219,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="105" t="s">
         <v>130</v>
       </c>
@@ -21227,23 +21227,23 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="108"/>
       <c r="B4" s="107" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="110" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="111">
         <v>1979</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>0.65523565010086182</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="111">
         <v>1980</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>0.66310583580613258</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="111">
         <v>1981</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>0.71285529715762264</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="111">
         <v>1982</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>0.69820971867007675</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="111">
         <v>1983</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>0.72600391772771788</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="111">
         <v>1984</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>0.63248638838475502</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="111">
         <v>1985</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>0.58500590318772139</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="111">
         <v>1986</v>
       </c>
@@ -21307,7 +21307,7 @@
         <v>0.47697368421052633</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="111">
         <v>1987</v>
       </c>
@@ -21315,7 +21315,7 @@
         <v>0.32962962962962961</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="111">
         <v>1988</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>0.40537974683544303</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="111">
         <v>1989</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>0.37232264924806324</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="111">
         <v>1990</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>0.45970926058865758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="111">
         <v>1991</v>
       </c>
@@ -21347,7 +21347,7 @@
         <v>0.46826832621752656</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="111">
         <v>1992</v>
       </c>
@@ -21355,7 +21355,7 @@
         <v>0.63887909763835038</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="111">
         <v>1993</v>
       </c>
@@ -21363,7 +21363,7 @@
         <v>0.50544045312267105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="111">
         <v>1994</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>0.49828450778569544</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="111">
         <v>1995</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>0.31547220361687878</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="111">
         <v>1996</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>0.21957040572792366</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="111">
         <v>1997</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>0.36310329273793412</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="111">
         <v>1998</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>0.39156436890147939</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="111">
         <v>1999</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>0.38380566801619431</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="111">
         <v>2000</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>0.19634703196347034</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="111">
         <v>2001</v>
       </c>
@@ -21427,7 +21427,7 @@
         <v>0.11752136752136749</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="111">
         <v>2002</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>0.27015355086372367</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="111">
         <v>2003</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>0.27449664429530202</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="111">
         <v>2004</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>0.35162396610853336</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="111">
         <v>2005</v>
       </c>
@@ -21459,7 +21459,7 @@
         <v>0.39802736239261849</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="111">
         <v>2006</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>0.31541725601131532</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="111">
         <v>2007</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>0.43442265795206969</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="111">
         <v>2008</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>0.24534161490683232</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="111">
         <v>2009</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>0.44186046511627908</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="111">
         <v>2010</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>0.3023082650781832</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="111">
         <v>2011</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>0.36902242911553118</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="111">
         <v>2012</v>
       </c>
@@ -21515,7 +21515,7 @@
         <v>0.33998005982053842</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="111">
         <v>2013</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>0.33356741573033716</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="111">
         <v>2014</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>0.37658495350803045</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="111">
         <v>2015</v>
       </c>
@@ -21539,7 +21539,7 @@
         <v>0.29655956781347742</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="111">
         <v>2016</v>
       </c>
@@ -21547,7 +21547,7 @@
         <v>0.42065443540760356</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="111">
         <v>2017</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>0.36891891891891887</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="111">
         <v>2018</v>
       </c>
@@ -21563,7 +21563,7 @@
         <v>0.34070551808028299</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="111">
         <v>2019</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>0.33320973005043014</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="111">
         <v>2020</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>0.24370423289873203</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="111">
         <v>2021</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>0.29566059325763577</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="111">
         <v>2022</v>
       </c>
@@ -21610,1232 +21610,1232 @@
       <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="27"/>
-    <col min="14" max="14" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="27"/>
+    <col min="14" max="14" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="256" width="9.140625" style="27"/>
-    <col min="257" max="257" width="26.140625" style="27" customWidth="1"/>
-    <col min="258" max="258" width="39.28515625" style="27" customWidth="1"/>
-    <col min="259" max="259" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="4.42578125" style="27" customWidth="1"/>
-    <col min="264" max="264" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="266" max="267" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="15.28515625" style="27" customWidth="1"/>
-    <col min="269" max="269" width="9.140625" style="27"/>
-    <col min="270" max="270" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="256" width="9.109375" style="27"/>
+    <col min="257" max="257" width="26.109375" style="27" customWidth="1"/>
+    <col min="258" max="258" width="39.33203125" style="27" customWidth="1"/>
+    <col min="259" max="259" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="4.44140625" style="27" customWidth="1"/>
+    <col min="264" max="264" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="266" max="267" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="15.33203125" style="27" customWidth="1"/>
+    <col min="269" max="269" width="9.109375" style="27"/>
+    <col min="270" max="270" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="272" max="272" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="276" max="512" width="9.140625" style="27"/>
-    <col min="513" max="513" width="26.140625" style="27" customWidth="1"/>
-    <col min="514" max="514" width="39.28515625" style="27" customWidth="1"/>
-    <col min="515" max="515" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="4.42578125" style="27" customWidth="1"/>
-    <col min="520" max="520" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="522" max="523" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="15.28515625" style="27" customWidth="1"/>
-    <col min="525" max="525" width="9.140625" style="27"/>
-    <col min="526" max="526" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="276" max="512" width="9.109375" style="27"/>
+    <col min="513" max="513" width="26.109375" style="27" customWidth="1"/>
+    <col min="514" max="514" width="39.33203125" style="27" customWidth="1"/>
+    <col min="515" max="515" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="4.44140625" style="27" customWidth="1"/>
+    <col min="520" max="520" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="522" max="523" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="15.33203125" style="27" customWidth="1"/>
+    <col min="525" max="525" width="9.109375" style="27"/>
+    <col min="526" max="526" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="528" max="528" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="532" max="768" width="9.140625" style="27"/>
-    <col min="769" max="769" width="26.140625" style="27" customWidth="1"/>
-    <col min="770" max="770" width="39.28515625" style="27" customWidth="1"/>
-    <col min="771" max="771" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="4.42578125" style="27" customWidth="1"/>
-    <col min="776" max="776" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="778" max="779" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="15.28515625" style="27" customWidth="1"/>
-    <col min="781" max="781" width="9.140625" style="27"/>
-    <col min="782" max="782" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="532" max="768" width="9.109375" style="27"/>
+    <col min="769" max="769" width="26.109375" style="27" customWidth="1"/>
+    <col min="770" max="770" width="39.33203125" style="27" customWidth="1"/>
+    <col min="771" max="771" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="4.44140625" style="27" customWidth="1"/>
+    <col min="776" max="776" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="778" max="779" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="15.33203125" style="27" customWidth="1"/>
+    <col min="781" max="781" width="9.109375" style="27"/>
+    <col min="782" max="782" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="784" max="784" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="785" max="785" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="787" max="787" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="788" max="1024" width="9.140625" style="27"/>
-    <col min="1025" max="1025" width="26.140625" style="27" customWidth="1"/>
-    <col min="1026" max="1026" width="39.28515625" style="27" customWidth="1"/>
-    <col min="1027" max="1027" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="4.42578125" style="27" customWidth="1"/>
-    <col min="1032" max="1032" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1035" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="15.28515625" style="27" customWidth="1"/>
-    <col min="1037" max="1037" width="9.140625" style="27"/>
-    <col min="1038" max="1038" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1039" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="785" max="785" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="787" max="787" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="788" max="1024" width="9.109375" style="27"/>
+    <col min="1025" max="1025" width="26.109375" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="39.33203125" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="4.44140625" style="27" customWidth="1"/>
+    <col min="1032" max="1032" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1035" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="15.33203125" style="27" customWidth="1"/>
+    <col min="1037" max="1037" width="9.109375" style="27"/>
+    <col min="1038" max="1038" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="1040" max="1040" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="1041" max="1041" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1042" max="1042" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1043" max="1043" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="1044" max="1280" width="9.140625" style="27"/>
-    <col min="1281" max="1281" width="26.140625" style="27" customWidth="1"/>
-    <col min="1282" max="1282" width="39.28515625" style="27" customWidth="1"/>
-    <col min="1283" max="1283" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="4.42578125" style="27" customWidth="1"/>
-    <col min="1288" max="1288" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1291" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="15.28515625" style="27" customWidth="1"/>
-    <col min="1293" max="1293" width="9.140625" style="27"/>
-    <col min="1294" max="1294" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1295" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1041" max="1041" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1042" max="1042" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1043" max="1043" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1044" max="1280" width="9.109375" style="27"/>
+    <col min="1281" max="1281" width="26.109375" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="39.33203125" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="4.44140625" style="27" customWidth="1"/>
+    <col min="1288" max="1288" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1291" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="15.33203125" style="27" customWidth="1"/>
+    <col min="1293" max="1293" width="9.109375" style="27"/>
+    <col min="1294" max="1294" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="1296" max="1296" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="1297" max="1297" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1298" max="1298" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1299" max="1299" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="1300" max="1536" width="9.140625" style="27"/>
-    <col min="1537" max="1537" width="26.140625" style="27" customWidth="1"/>
-    <col min="1538" max="1538" width="39.28515625" style="27" customWidth="1"/>
-    <col min="1539" max="1539" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="4.42578125" style="27" customWidth="1"/>
-    <col min="1544" max="1544" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1547" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="15.28515625" style="27" customWidth="1"/>
-    <col min="1549" max="1549" width="9.140625" style="27"/>
-    <col min="1550" max="1550" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1551" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1297" max="1297" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1298" max="1298" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1299" max="1299" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1300" max="1536" width="9.109375" style="27"/>
+    <col min="1537" max="1537" width="26.109375" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="39.33203125" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="4.44140625" style="27" customWidth="1"/>
+    <col min="1544" max="1544" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1547" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="15.33203125" style="27" customWidth="1"/>
+    <col min="1549" max="1549" width="9.109375" style="27"/>
+    <col min="1550" max="1550" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="1552" max="1552" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="1553" max="1553" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1554" max="1554" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1555" max="1555" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="1556" max="1792" width="9.140625" style="27"/>
-    <col min="1793" max="1793" width="26.140625" style="27" customWidth="1"/>
-    <col min="1794" max="1794" width="39.28515625" style="27" customWidth="1"/>
-    <col min="1795" max="1795" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="4.42578125" style="27" customWidth="1"/>
-    <col min="1800" max="1800" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1803" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="15.28515625" style="27" customWidth="1"/>
-    <col min="1805" max="1805" width="9.140625" style="27"/>
-    <col min="1806" max="1806" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1807" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1553" max="1553" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1554" max="1554" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1555" max="1555" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1556" max="1792" width="9.109375" style="27"/>
+    <col min="1793" max="1793" width="26.109375" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="39.33203125" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="4.44140625" style="27" customWidth="1"/>
+    <col min="1800" max="1800" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1803" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="15.33203125" style="27" customWidth="1"/>
+    <col min="1805" max="1805" width="9.109375" style="27"/>
+    <col min="1806" max="1806" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="1808" max="1808" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="1809" max="1809" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="1810" max="1810" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="1811" max="1811" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="1812" max="2048" width="9.140625" style="27"/>
-    <col min="2049" max="2049" width="26.140625" style="27" customWidth="1"/>
-    <col min="2050" max="2050" width="39.28515625" style="27" customWidth="1"/>
-    <col min="2051" max="2051" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="4.42578125" style="27" customWidth="1"/>
-    <col min="2056" max="2056" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2059" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="15.28515625" style="27" customWidth="1"/>
-    <col min="2061" max="2061" width="9.140625" style="27"/>
-    <col min="2062" max="2062" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2063" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1809" max="1809" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1810" max="1810" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1811" max="1811" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1812" max="2048" width="9.109375" style="27"/>
+    <col min="2049" max="2049" width="26.109375" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="39.33203125" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="4.44140625" style="27" customWidth="1"/>
+    <col min="2056" max="2056" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2059" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2061" max="2061" width="9.109375" style="27"/>
+    <col min="2062" max="2062" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="2064" max="2064" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="2065" max="2065" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2066" max="2066" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2067" max="2067" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2068" max="2304" width="9.140625" style="27"/>
-    <col min="2305" max="2305" width="26.140625" style="27" customWidth="1"/>
-    <col min="2306" max="2306" width="39.28515625" style="27" customWidth="1"/>
-    <col min="2307" max="2307" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="4.42578125" style="27" customWidth="1"/>
-    <col min="2312" max="2312" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2315" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="15.28515625" style="27" customWidth="1"/>
-    <col min="2317" max="2317" width="9.140625" style="27"/>
-    <col min="2318" max="2318" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2319" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2065" max="2065" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2066" max="2066" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2067" max="2067" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2068" max="2304" width="9.109375" style="27"/>
+    <col min="2305" max="2305" width="26.109375" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="39.33203125" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="4.44140625" style="27" customWidth="1"/>
+    <col min="2312" max="2312" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2315" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2317" max="2317" width="9.109375" style="27"/>
+    <col min="2318" max="2318" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="2320" max="2320" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="2321" max="2321" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2322" max="2322" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2323" max="2323" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2324" max="2560" width="9.140625" style="27"/>
-    <col min="2561" max="2561" width="26.140625" style="27" customWidth="1"/>
-    <col min="2562" max="2562" width="39.28515625" style="27" customWidth="1"/>
-    <col min="2563" max="2563" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="4.42578125" style="27" customWidth="1"/>
-    <col min="2568" max="2568" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2571" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="15.28515625" style="27" customWidth="1"/>
-    <col min="2573" max="2573" width="9.140625" style="27"/>
-    <col min="2574" max="2574" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2575" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2321" max="2321" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2322" max="2322" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2323" max="2323" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2324" max="2560" width="9.109375" style="27"/>
+    <col min="2561" max="2561" width="26.109375" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="39.33203125" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="4.44140625" style="27" customWidth="1"/>
+    <col min="2568" max="2568" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2571" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2573" max="2573" width="9.109375" style="27"/>
+    <col min="2574" max="2574" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="2576" max="2576" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="2577" max="2577" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2578" max="2578" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2579" max="2579" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2580" max="2816" width="9.140625" style="27"/>
-    <col min="2817" max="2817" width="26.140625" style="27" customWidth="1"/>
-    <col min="2818" max="2818" width="39.28515625" style="27" customWidth="1"/>
-    <col min="2819" max="2819" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="4.42578125" style="27" customWidth="1"/>
-    <col min="2824" max="2824" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2827" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="15.28515625" style="27" customWidth="1"/>
-    <col min="2829" max="2829" width="9.140625" style="27"/>
-    <col min="2830" max="2830" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2831" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2577" max="2577" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2578" max="2578" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2579" max="2579" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2580" max="2816" width="9.109375" style="27"/>
+    <col min="2817" max="2817" width="26.109375" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="39.33203125" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="4.44140625" style="27" customWidth="1"/>
+    <col min="2824" max="2824" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2827" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="15.33203125" style="27" customWidth="1"/>
+    <col min="2829" max="2829" width="9.109375" style="27"/>
+    <col min="2830" max="2830" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="2832" max="2832" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="2833" max="2833" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2834" max="2834" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2835" max="2835" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2836" max="3072" width="9.140625" style="27"/>
-    <col min="3073" max="3073" width="26.140625" style="27" customWidth="1"/>
-    <col min="3074" max="3074" width="39.28515625" style="27" customWidth="1"/>
-    <col min="3075" max="3075" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="4.42578125" style="27" customWidth="1"/>
-    <col min="3080" max="3080" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3083" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="15.28515625" style="27" customWidth="1"/>
-    <col min="3085" max="3085" width="9.140625" style="27"/>
-    <col min="3086" max="3086" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3087" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2833" max="2833" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2834" max="2834" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2835" max="2835" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2836" max="3072" width="9.109375" style="27"/>
+    <col min="3073" max="3073" width="26.109375" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="39.33203125" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="4.44140625" style="27" customWidth="1"/>
+    <col min="3080" max="3080" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3083" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="15.33203125" style="27" customWidth="1"/>
+    <col min="3085" max="3085" width="9.109375" style="27"/>
+    <col min="3086" max="3086" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="3088" max="3088" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="3089" max="3089" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3090" max="3090" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3091" max="3091" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3092" max="3328" width="9.140625" style="27"/>
-    <col min="3329" max="3329" width="26.140625" style="27" customWidth="1"/>
-    <col min="3330" max="3330" width="39.28515625" style="27" customWidth="1"/>
-    <col min="3331" max="3331" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="4.42578125" style="27" customWidth="1"/>
-    <col min="3336" max="3336" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3339" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="15.28515625" style="27" customWidth="1"/>
-    <col min="3341" max="3341" width="9.140625" style="27"/>
-    <col min="3342" max="3342" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3343" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3089" max="3089" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3090" max="3090" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3091" max="3091" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3092" max="3328" width="9.109375" style="27"/>
+    <col min="3329" max="3329" width="26.109375" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="39.33203125" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="4.44140625" style="27" customWidth="1"/>
+    <col min="3336" max="3336" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3339" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="15.33203125" style="27" customWidth="1"/>
+    <col min="3341" max="3341" width="9.109375" style="27"/>
+    <col min="3342" max="3342" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="3344" max="3344" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="3345" max="3345" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3346" max="3346" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3347" max="3347" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3348" max="3584" width="9.140625" style="27"/>
-    <col min="3585" max="3585" width="26.140625" style="27" customWidth="1"/>
-    <col min="3586" max="3586" width="39.28515625" style="27" customWidth="1"/>
-    <col min="3587" max="3587" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="4.42578125" style="27" customWidth="1"/>
-    <col min="3592" max="3592" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3595" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="15.28515625" style="27" customWidth="1"/>
-    <col min="3597" max="3597" width="9.140625" style="27"/>
-    <col min="3598" max="3598" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3599" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3345" max="3345" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3346" max="3346" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3347" max="3347" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3348" max="3584" width="9.109375" style="27"/>
+    <col min="3585" max="3585" width="26.109375" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="39.33203125" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="4.44140625" style="27" customWidth="1"/>
+    <col min="3592" max="3592" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3595" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="15.33203125" style="27" customWidth="1"/>
+    <col min="3597" max="3597" width="9.109375" style="27"/>
+    <col min="3598" max="3598" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="3600" max="3600" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="3601" max="3601" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3602" max="3602" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3603" max="3603" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3604" max="3840" width="9.140625" style="27"/>
-    <col min="3841" max="3841" width="26.140625" style="27" customWidth="1"/>
-    <col min="3842" max="3842" width="39.28515625" style="27" customWidth="1"/>
-    <col min="3843" max="3843" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="4.42578125" style="27" customWidth="1"/>
-    <col min="3848" max="3848" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3851" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="15.28515625" style="27" customWidth="1"/>
-    <col min="3853" max="3853" width="9.140625" style="27"/>
-    <col min="3854" max="3854" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3855" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3601" max="3601" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3602" max="3602" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3603" max="3603" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3604" max="3840" width="9.109375" style="27"/>
+    <col min="3841" max="3841" width="26.109375" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="39.33203125" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="4.44140625" style="27" customWidth="1"/>
+    <col min="3848" max="3848" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3851" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="15.33203125" style="27" customWidth="1"/>
+    <col min="3853" max="3853" width="9.109375" style="27"/>
+    <col min="3854" max="3854" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="3856" max="3856" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="3857" max="3857" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3858" max="3858" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3859" max="3859" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3860" max="4096" width="9.140625" style="27"/>
-    <col min="4097" max="4097" width="26.140625" style="27" customWidth="1"/>
-    <col min="4098" max="4098" width="39.28515625" style="27" customWidth="1"/>
-    <col min="4099" max="4099" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="4.42578125" style="27" customWidth="1"/>
-    <col min="4104" max="4104" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4107" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="15.28515625" style="27" customWidth="1"/>
-    <col min="4109" max="4109" width="9.140625" style="27"/>
-    <col min="4110" max="4110" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4111" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3857" max="3857" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3858" max="3858" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3859" max="3859" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3860" max="4096" width="9.109375" style="27"/>
+    <col min="4097" max="4097" width="26.109375" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="39.33203125" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="4.44140625" style="27" customWidth="1"/>
+    <col min="4104" max="4104" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4107" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="15.33203125" style="27" customWidth="1"/>
+    <col min="4109" max="4109" width="9.109375" style="27"/>
+    <col min="4110" max="4110" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="4112" max="4112" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="4113" max="4113" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4114" max="4114" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4115" max="4115" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4116" max="4352" width="9.140625" style="27"/>
-    <col min="4353" max="4353" width="26.140625" style="27" customWidth="1"/>
-    <col min="4354" max="4354" width="39.28515625" style="27" customWidth="1"/>
-    <col min="4355" max="4355" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="4.42578125" style="27" customWidth="1"/>
-    <col min="4360" max="4360" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4363" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="15.28515625" style="27" customWidth="1"/>
-    <col min="4365" max="4365" width="9.140625" style="27"/>
-    <col min="4366" max="4366" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4367" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4113" max="4113" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4114" max="4114" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4115" max="4115" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4116" max="4352" width="9.109375" style="27"/>
+    <col min="4353" max="4353" width="26.109375" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="39.33203125" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="4.44140625" style="27" customWidth="1"/>
+    <col min="4360" max="4360" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4363" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="15.33203125" style="27" customWidth="1"/>
+    <col min="4365" max="4365" width="9.109375" style="27"/>
+    <col min="4366" max="4366" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="4368" max="4368" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="4369" max="4369" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4370" max="4370" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4371" max="4371" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4372" max="4608" width="9.140625" style="27"/>
-    <col min="4609" max="4609" width="26.140625" style="27" customWidth="1"/>
-    <col min="4610" max="4610" width="39.28515625" style="27" customWidth="1"/>
-    <col min="4611" max="4611" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="4.42578125" style="27" customWidth="1"/>
-    <col min="4616" max="4616" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4619" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="15.28515625" style="27" customWidth="1"/>
-    <col min="4621" max="4621" width="9.140625" style="27"/>
-    <col min="4622" max="4622" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4623" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4369" max="4369" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4370" max="4370" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4371" max="4371" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4372" max="4608" width="9.109375" style="27"/>
+    <col min="4609" max="4609" width="26.109375" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="39.33203125" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="4.44140625" style="27" customWidth="1"/>
+    <col min="4616" max="4616" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4619" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="15.33203125" style="27" customWidth="1"/>
+    <col min="4621" max="4621" width="9.109375" style="27"/>
+    <col min="4622" max="4622" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="4624" max="4624" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="4625" max="4625" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4626" max="4626" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4627" max="4627" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4628" max="4864" width="9.140625" style="27"/>
-    <col min="4865" max="4865" width="26.140625" style="27" customWidth="1"/>
-    <col min="4866" max="4866" width="39.28515625" style="27" customWidth="1"/>
-    <col min="4867" max="4867" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="4.42578125" style="27" customWidth="1"/>
-    <col min="4872" max="4872" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4875" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="15.28515625" style="27" customWidth="1"/>
-    <col min="4877" max="4877" width="9.140625" style="27"/>
-    <col min="4878" max="4878" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4879" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4625" max="4625" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4626" max="4626" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4627" max="4627" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4628" max="4864" width="9.109375" style="27"/>
+    <col min="4865" max="4865" width="26.109375" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="39.33203125" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="4.44140625" style="27" customWidth="1"/>
+    <col min="4872" max="4872" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4875" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="15.33203125" style="27" customWidth="1"/>
+    <col min="4877" max="4877" width="9.109375" style="27"/>
+    <col min="4878" max="4878" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="4880" max="4880" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="4881" max="4881" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4882" max="4882" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4883" max="4883" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4884" max="5120" width="9.140625" style="27"/>
-    <col min="5121" max="5121" width="26.140625" style="27" customWidth="1"/>
-    <col min="5122" max="5122" width="39.28515625" style="27" customWidth="1"/>
-    <col min="5123" max="5123" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="4.42578125" style="27" customWidth="1"/>
-    <col min="5128" max="5128" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5131" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="15.28515625" style="27" customWidth="1"/>
-    <col min="5133" max="5133" width="9.140625" style="27"/>
-    <col min="5134" max="5134" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5135" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4881" max="4881" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4882" max="4882" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4883" max="4883" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4884" max="5120" width="9.109375" style="27"/>
+    <col min="5121" max="5121" width="26.109375" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="39.33203125" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="4.44140625" style="27" customWidth="1"/>
+    <col min="5128" max="5128" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5131" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5133" max="5133" width="9.109375" style="27"/>
+    <col min="5134" max="5134" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="5136" max="5136" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="5137" max="5137" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5138" max="5138" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5139" max="5139" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5140" max="5376" width="9.140625" style="27"/>
-    <col min="5377" max="5377" width="26.140625" style="27" customWidth="1"/>
-    <col min="5378" max="5378" width="39.28515625" style="27" customWidth="1"/>
-    <col min="5379" max="5379" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="4.42578125" style="27" customWidth="1"/>
-    <col min="5384" max="5384" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5387" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="15.28515625" style="27" customWidth="1"/>
-    <col min="5389" max="5389" width="9.140625" style="27"/>
-    <col min="5390" max="5390" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5391" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5137" max="5137" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5138" max="5138" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5139" max="5139" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5140" max="5376" width="9.109375" style="27"/>
+    <col min="5377" max="5377" width="26.109375" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="39.33203125" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="4.44140625" style="27" customWidth="1"/>
+    <col min="5384" max="5384" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5387" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5389" max="5389" width="9.109375" style="27"/>
+    <col min="5390" max="5390" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="5392" max="5392" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="5393" max="5393" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5394" max="5394" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5395" max="5395" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5396" max="5632" width="9.140625" style="27"/>
-    <col min="5633" max="5633" width="26.140625" style="27" customWidth="1"/>
-    <col min="5634" max="5634" width="39.28515625" style="27" customWidth="1"/>
-    <col min="5635" max="5635" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="4.42578125" style="27" customWidth="1"/>
-    <col min="5640" max="5640" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5643" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="15.28515625" style="27" customWidth="1"/>
-    <col min="5645" max="5645" width="9.140625" style="27"/>
-    <col min="5646" max="5646" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5647" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5393" max="5393" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5394" max="5394" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5395" max="5395" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5396" max="5632" width="9.109375" style="27"/>
+    <col min="5633" max="5633" width="26.109375" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="39.33203125" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="4.44140625" style="27" customWidth="1"/>
+    <col min="5640" max="5640" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5643" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5645" max="5645" width="9.109375" style="27"/>
+    <col min="5646" max="5646" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="5648" max="5648" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="5649" max="5649" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5650" max="5650" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5651" max="5651" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5652" max="5888" width="9.140625" style="27"/>
-    <col min="5889" max="5889" width="26.140625" style="27" customWidth="1"/>
-    <col min="5890" max="5890" width="39.28515625" style="27" customWidth="1"/>
-    <col min="5891" max="5891" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="4.42578125" style="27" customWidth="1"/>
-    <col min="5896" max="5896" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5899" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="15.28515625" style="27" customWidth="1"/>
-    <col min="5901" max="5901" width="9.140625" style="27"/>
-    <col min="5902" max="5902" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5903" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5649" max="5649" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5650" max="5650" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5651" max="5651" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5652" max="5888" width="9.109375" style="27"/>
+    <col min="5889" max="5889" width="26.109375" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="39.33203125" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="4.44140625" style="27" customWidth="1"/>
+    <col min="5896" max="5896" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5899" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="15.33203125" style="27" customWidth="1"/>
+    <col min="5901" max="5901" width="9.109375" style="27"/>
+    <col min="5902" max="5902" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="5904" max="5904" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="5905" max="5905" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5906" max="5906" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5907" max="5907" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5908" max="6144" width="9.140625" style="27"/>
-    <col min="6145" max="6145" width="26.140625" style="27" customWidth="1"/>
-    <col min="6146" max="6146" width="39.28515625" style="27" customWidth="1"/>
-    <col min="6147" max="6147" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="4.42578125" style="27" customWidth="1"/>
-    <col min="6152" max="6152" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6155" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="15.28515625" style="27" customWidth="1"/>
-    <col min="6157" max="6157" width="9.140625" style="27"/>
-    <col min="6158" max="6158" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6159" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5905" max="5905" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5906" max="5906" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5907" max="5907" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5908" max="6144" width="9.109375" style="27"/>
+    <col min="6145" max="6145" width="26.109375" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="39.33203125" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="4.44140625" style="27" customWidth="1"/>
+    <col min="6152" max="6152" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6155" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="15.33203125" style="27" customWidth="1"/>
+    <col min="6157" max="6157" width="9.109375" style="27"/>
+    <col min="6158" max="6158" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="6160" max="6160" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6161" max="6161" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6162" max="6162" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6163" max="6163" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6164" max="6400" width="9.140625" style="27"/>
-    <col min="6401" max="6401" width="26.140625" style="27" customWidth="1"/>
-    <col min="6402" max="6402" width="39.28515625" style="27" customWidth="1"/>
-    <col min="6403" max="6403" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="4.42578125" style="27" customWidth="1"/>
-    <col min="6408" max="6408" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6411" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="15.28515625" style="27" customWidth="1"/>
-    <col min="6413" max="6413" width="9.140625" style="27"/>
-    <col min="6414" max="6414" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6415" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6161" max="6161" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6162" max="6162" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6163" max="6163" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6164" max="6400" width="9.109375" style="27"/>
+    <col min="6401" max="6401" width="26.109375" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="39.33203125" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="4.44140625" style="27" customWidth="1"/>
+    <col min="6408" max="6408" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6411" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="15.33203125" style="27" customWidth="1"/>
+    <col min="6413" max="6413" width="9.109375" style="27"/>
+    <col min="6414" max="6414" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="6416" max="6416" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6417" max="6417" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6418" max="6418" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6419" max="6419" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6420" max="6656" width="9.140625" style="27"/>
-    <col min="6657" max="6657" width="26.140625" style="27" customWidth="1"/>
-    <col min="6658" max="6658" width="39.28515625" style="27" customWidth="1"/>
-    <col min="6659" max="6659" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="4.42578125" style="27" customWidth="1"/>
-    <col min="6664" max="6664" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6667" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="15.28515625" style="27" customWidth="1"/>
-    <col min="6669" max="6669" width="9.140625" style="27"/>
-    <col min="6670" max="6670" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6671" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6417" max="6417" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6418" max="6418" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6419" max="6419" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6420" max="6656" width="9.109375" style="27"/>
+    <col min="6657" max="6657" width="26.109375" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="39.33203125" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="4.44140625" style="27" customWidth="1"/>
+    <col min="6664" max="6664" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6667" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="15.33203125" style="27" customWidth="1"/>
+    <col min="6669" max="6669" width="9.109375" style="27"/>
+    <col min="6670" max="6670" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="6672" max="6672" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6673" max="6673" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6674" max="6674" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6675" max="6675" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6676" max="6912" width="9.140625" style="27"/>
-    <col min="6913" max="6913" width="26.140625" style="27" customWidth="1"/>
-    <col min="6914" max="6914" width="39.28515625" style="27" customWidth="1"/>
-    <col min="6915" max="6915" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="4.42578125" style="27" customWidth="1"/>
-    <col min="6920" max="6920" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6923" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="15.28515625" style="27" customWidth="1"/>
-    <col min="6925" max="6925" width="9.140625" style="27"/>
-    <col min="6926" max="6926" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6927" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6673" max="6673" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6674" max="6674" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6675" max="6675" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6676" max="6912" width="9.109375" style="27"/>
+    <col min="6913" max="6913" width="26.109375" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="39.33203125" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="4.44140625" style="27" customWidth="1"/>
+    <col min="6920" max="6920" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6923" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="15.33203125" style="27" customWidth="1"/>
+    <col min="6925" max="6925" width="9.109375" style="27"/>
+    <col min="6926" max="6926" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="6928" max="6928" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="6929" max="6929" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6930" max="6930" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6931" max="6931" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6932" max="7168" width="9.140625" style="27"/>
-    <col min="7169" max="7169" width="26.140625" style="27" customWidth="1"/>
-    <col min="7170" max="7170" width="39.28515625" style="27" customWidth="1"/>
-    <col min="7171" max="7171" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="4.42578125" style="27" customWidth="1"/>
-    <col min="7176" max="7176" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7179" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="15.28515625" style="27" customWidth="1"/>
-    <col min="7181" max="7181" width="9.140625" style="27"/>
-    <col min="7182" max="7182" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7183" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6929" max="6929" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6930" max="6930" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6931" max="6931" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6932" max="7168" width="9.109375" style="27"/>
+    <col min="7169" max="7169" width="26.109375" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="39.33203125" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="4.44140625" style="27" customWidth="1"/>
+    <col min="7176" max="7176" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7179" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="15.33203125" style="27" customWidth="1"/>
+    <col min="7181" max="7181" width="9.109375" style="27"/>
+    <col min="7182" max="7182" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="7184" max="7184" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7185" max="7185" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7186" max="7186" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7187" max="7187" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7188" max="7424" width="9.140625" style="27"/>
-    <col min="7425" max="7425" width="26.140625" style="27" customWidth="1"/>
-    <col min="7426" max="7426" width="39.28515625" style="27" customWidth="1"/>
-    <col min="7427" max="7427" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="4.42578125" style="27" customWidth="1"/>
-    <col min="7432" max="7432" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7435" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="15.28515625" style="27" customWidth="1"/>
-    <col min="7437" max="7437" width="9.140625" style="27"/>
-    <col min="7438" max="7438" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7439" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7185" max="7185" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7186" max="7186" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7187" max="7187" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7188" max="7424" width="9.109375" style="27"/>
+    <col min="7425" max="7425" width="26.109375" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="39.33203125" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="4.44140625" style="27" customWidth="1"/>
+    <col min="7432" max="7432" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7435" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="15.33203125" style="27" customWidth="1"/>
+    <col min="7437" max="7437" width="9.109375" style="27"/>
+    <col min="7438" max="7438" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="7440" max="7440" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7441" max="7441" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7442" max="7442" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7443" max="7443" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7444" max="7680" width="9.140625" style="27"/>
-    <col min="7681" max="7681" width="26.140625" style="27" customWidth="1"/>
-    <col min="7682" max="7682" width="39.28515625" style="27" customWidth="1"/>
-    <col min="7683" max="7683" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="4.42578125" style="27" customWidth="1"/>
-    <col min="7688" max="7688" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7691" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="15.28515625" style="27" customWidth="1"/>
-    <col min="7693" max="7693" width="9.140625" style="27"/>
-    <col min="7694" max="7694" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7695" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7441" max="7441" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7442" max="7442" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7443" max="7443" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7444" max="7680" width="9.109375" style="27"/>
+    <col min="7681" max="7681" width="26.109375" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="39.33203125" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="4.44140625" style="27" customWidth="1"/>
+    <col min="7688" max="7688" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7691" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="15.33203125" style="27" customWidth="1"/>
+    <col min="7693" max="7693" width="9.109375" style="27"/>
+    <col min="7694" max="7694" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="7696" max="7696" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7697" max="7697" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7698" max="7698" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7699" max="7699" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7700" max="7936" width="9.140625" style="27"/>
-    <col min="7937" max="7937" width="26.140625" style="27" customWidth="1"/>
-    <col min="7938" max="7938" width="39.28515625" style="27" customWidth="1"/>
-    <col min="7939" max="7939" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="4.42578125" style="27" customWidth="1"/>
-    <col min="7944" max="7944" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7947" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="15.28515625" style="27" customWidth="1"/>
-    <col min="7949" max="7949" width="9.140625" style="27"/>
-    <col min="7950" max="7950" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7951" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7697" max="7697" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7698" max="7698" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7699" max="7699" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7700" max="7936" width="9.109375" style="27"/>
+    <col min="7937" max="7937" width="26.109375" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="39.33203125" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="4.44140625" style="27" customWidth="1"/>
+    <col min="7944" max="7944" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7947" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="15.33203125" style="27" customWidth="1"/>
+    <col min="7949" max="7949" width="9.109375" style="27"/>
+    <col min="7950" max="7950" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="7952" max="7952" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="7953" max="7953" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7954" max="7954" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7955" max="7955" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7956" max="8192" width="9.140625" style="27"/>
-    <col min="8193" max="8193" width="26.140625" style="27" customWidth="1"/>
-    <col min="8194" max="8194" width="39.28515625" style="27" customWidth="1"/>
-    <col min="8195" max="8195" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="4.42578125" style="27" customWidth="1"/>
-    <col min="8200" max="8200" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8203" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="15.28515625" style="27" customWidth="1"/>
-    <col min="8205" max="8205" width="9.140625" style="27"/>
-    <col min="8206" max="8206" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8207" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7953" max="7953" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7954" max="7954" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7955" max="7955" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7956" max="8192" width="9.109375" style="27"/>
+    <col min="8193" max="8193" width="26.109375" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="39.33203125" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="4.44140625" style="27" customWidth="1"/>
+    <col min="8200" max="8200" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8203" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="15.33203125" style="27" customWidth="1"/>
+    <col min="8205" max="8205" width="9.109375" style="27"/>
+    <col min="8206" max="8206" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="8208" max="8208" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8209" max="8209" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8210" max="8210" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8211" max="8211" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8212" max="8448" width="9.140625" style="27"/>
-    <col min="8449" max="8449" width="26.140625" style="27" customWidth="1"/>
-    <col min="8450" max="8450" width="39.28515625" style="27" customWidth="1"/>
-    <col min="8451" max="8451" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="4.42578125" style="27" customWidth="1"/>
-    <col min="8456" max="8456" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8459" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="15.28515625" style="27" customWidth="1"/>
-    <col min="8461" max="8461" width="9.140625" style="27"/>
-    <col min="8462" max="8462" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8463" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8209" max="8209" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8210" max="8210" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8211" max="8211" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8212" max="8448" width="9.109375" style="27"/>
+    <col min="8449" max="8449" width="26.109375" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="39.33203125" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="4.44140625" style="27" customWidth="1"/>
+    <col min="8456" max="8456" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8459" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="15.33203125" style="27" customWidth="1"/>
+    <col min="8461" max="8461" width="9.109375" style="27"/>
+    <col min="8462" max="8462" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="8464" max="8464" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8465" max="8465" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8466" max="8466" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8467" max="8467" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8468" max="8704" width="9.140625" style="27"/>
-    <col min="8705" max="8705" width="26.140625" style="27" customWidth="1"/>
-    <col min="8706" max="8706" width="39.28515625" style="27" customWidth="1"/>
-    <col min="8707" max="8707" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="4.42578125" style="27" customWidth="1"/>
-    <col min="8712" max="8712" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8715" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="15.28515625" style="27" customWidth="1"/>
-    <col min="8717" max="8717" width="9.140625" style="27"/>
-    <col min="8718" max="8718" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8719" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8465" max="8465" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8466" max="8466" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8467" max="8467" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8468" max="8704" width="9.109375" style="27"/>
+    <col min="8705" max="8705" width="26.109375" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="39.33203125" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="4.44140625" style="27" customWidth="1"/>
+    <col min="8712" max="8712" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8715" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="15.33203125" style="27" customWidth="1"/>
+    <col min="8717" max="8717" width="9.109375" style="27"/>
+    <col min="8718" max="8718" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="8720" max="8720" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8721" max="8721" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8722" max="8722" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8723" max="8723" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8724" max="8960" width="9.140625" style="27"/>
-    <col min="8961" max="8961" width="26.140625" style="27" customWidth="1"/>
-    <col min="8962" max="8962" width="39.28515625" style="27" customWidth="1"/>
-    <col min="8963" max="8963" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="4.42578125" style="27" customWidth="1"/>
-    <col min="8968" max="8968" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8971" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="15.28515625" style="27" customWidth="1"/>
-    <col min="8973" max="8973" width="9.140625" style="27"/>
-    <col min="8974" max="8974" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8975" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8721" max="8721" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8722" max="8722" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8723" max="8723" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8724" max="8960" width="9.109375" style="27"/>
+    <col min="8961" max="8961" width="26.109375" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="39.33203125" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="4.44140625" style="27" customWidth="1"/>
+    <col min="8968" max="8968" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8971" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="15.33203125" style="27" customWidth="1"/>
+    <col min="8973" max="8973" width="9.109375" style="27"/>
+    <col min="8974" max="8974" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="8976" max="8976" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="8977" max="8977" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8978" max="8978" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8979" max="8979" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8980" max="9216" width="9.140625" style="27"/>
-    <col min="9217" max="9217" width="26.140625" style="27" customWidth="1"/>
-    <col min="9218" max="9218" width="39.28515625" style="27" customWidth="1"/>
-    <col min="9219" max="9219" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="4.42578125" style="27" customWidth="1"/>
-    <col min="9224" max="9224" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9227" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="15.28515625" style="27" customWidth="1"/>
-    <col min="9229" max="9229" width="9.140625" style="27"/>
-    <col min="9230" max="9230" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9231" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8977" max="8977" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8978" max="8978" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8979" max="8979" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8980" max="9216" width="9.109375" style="27"/>
+    <col min="9217" max="9217" width="26.109375" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="39.33203125" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="4.44140625" style="27" customWidth="1"/>
+    <col min="9224" max="9224" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9227" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="15.33203125" style="27" customWidth="1"/>
+    <col min="9229" max="9229" width="9.109375" style="27"/>
+    <col min="9230" max="9230" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="9232" max="9232" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="9233" max="9233" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9234" max="9234" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9235" max="9235" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9236" max="9472" width="9.140625" style="27"/>
-    <col min="9473" max="9473" width="26.140625" style="27" customWidth="1"/>
-    <col min="9474" max="9474" width="39.28515625" style="27" customWidth="1"/>
-    <col min="9475" max="9475" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="4.42578125" style="27" customWidth="1"/>
-    <col min="9480" max="9480" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9483" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="15.28515625" style="27" customWidth="1"/>
-    <col min="9485" max="9485" width="9.140625" style="27"/>
-    <col min="9486" max="9486" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9487" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9233" max="9233" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9234" max="9234" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9235" max="9235" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9236" max="9472" width="9.109375" style="27"/>
+    <col min="9473" max="9473" width="26.109375" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="39.33203125" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="4.44140625" style="27" customWidth="1"/>
+    <col min="9480" max="9480" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9483" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="15.33203125" style="27" customWidth="1"/>
+    <col min="9485" max="9485" width="9.109375" style="27"/>
+    <col min="9486" max="9486" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="9488" max="9488" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="9489" max="9489" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9490" max="9490" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9491" max="9491" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9492" max="9728" width="9.140625" style="27"/>
-    <col min="9729" max="9729" width="26.140625" style="27" customWidth="1"/>
-    <col min="9730" max="9730" width="39.28515625" style="27" customWidth="1"/>
-    <col min="9731" max="9731" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="4.42578125" style="27" customWidth="1"/>
-    <col min="9736" max="9736" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9739" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="15.28515625" style="27" customWidth="1"/>
-    <col min="9741" max="9741" width="9.140625" style="27"/>
-    <col min="9742" max="9742" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9743" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9489" max="9489" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9490" max="9490" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9491" max="9491" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9492" max="9728" width="9.109375" style="27"/>
+    <col min="9729" max="9729" width="26.109375" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="39.33203125" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="4.44140625" style="27" customWidth="1"/>
+    <col min="9736" max="9736" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9739" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="15.33203125" style="27" customWidth="1"/>
+    <col min="9741" max="9741" width="9.109375" style="27"/>
+    <col min="9742" max="9742" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="9744" max="9744" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="9745" max="9745" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9746" max="9746" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9747" max="9747" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9748" max="9984" width="9.140625" style="27"/>
-    <col min="9985" max="9985" width="26.140625" style="27" customWidth="1"/>
-    <col min="9986" max="9986" width="39.28515625" style="27" customWidth="1"/>
-    <col min="9987" max="9987" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="4.42578125" style="27" customWidth="1"/>
-    <col min="9992" max="9992" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9995" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="15.28515625" style="27" customWidth="1"/>
-    <col min="9997" max="9997" width="9.140625" style="27"/>
-    <col min="9998" max="9998" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9999" max="9999" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9745" max="9745" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9746" max="9746" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9747" max="9747" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9748" max="9984" width="9.109375" style="27"/>
+    <col min="9985" max="9985" width="26.109375" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="39.33203125" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="4.44140625" style="27" customWidth="1"/>
+    <col min="9992" max="9992" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9995" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="15.33203125" style="27" customWidth="1"/>
+    <col min="9997" max="9997" width="9.109375" style="27"/>
+    <col min="9998" max="9998" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="10000" max="10000" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10001" max="10001" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10002" max="10002" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10003" max="10003" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10004" max="10240" width="9.140625" style="27"/>
-    <col min="10241" max="10241" width="26.140625" style="27" customWidth="1"/>
-    <col min="10242" max="10242" width="39.28515625" style="27" customWidth="1"/>
-    <col min="10243" max="10243" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="4.42578125" style="27" customWidth="1"/>
-    <col min="10248" max="10248" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10251" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="15.28515625" style="27" customWidth="1"/>
-    <col min="10253" max="10253" width="9.140625" style="27"/>
-    <col min="10254" max="10254" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10255" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10001" max="10001" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10002" max="10002" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10003" max="10003" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10004" max="10240" width="9.109375" style="27"/>
+    <col min="10241" max="10241" width="26.109375" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="39.33203125" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="4.44140625" style="27" customWidth="1"/>
+    <col min="10248" max="10248" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10251" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="15.33203125" style="27" customWidth="1"/>
+    <col min="10253" max="10253" width="9.109375" style="27"/>
+    <col min="10254" max="10254" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="10256" max="10256" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10257" max="10257" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10258" max="10258" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10259" max="10259" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10260" max="10496" width="9.140625" style="27"/>
-    <col min="10497" max="10497" width="26.140625" style="27" customWidth="1"/>
-    <col min="10498" max="10498" width="39.28515625" style="27" customWidth="1"/>
-    <col min="10499" max="10499" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="4.42578125" style="27" customWidth="1"/>
-    <col min="10504" max="10504" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10507" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="15.28515625" style="27" customWidth="1"/>
-    <col min="10509" max="10509" width="9.140625" style="27"/>
-    <col min="10510" max="10510" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10511" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10257" max="10257" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10258" max="10258" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10259" max="10259" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10260" max="10496" width="9.109375" style="27"/>
+    <col min="10497" max="10497" width="26.109375" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="39.33203125" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="4.44140625" style="27" customWidth="1"/>
+    <col min="10504" max="10504" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10507" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="15.33203125" style="27" customWidth="1"/>
+    <col min="10509" max="10509" width="9.109375" style="27"/>
+    <col min="10510" max="10510" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="10512" max="10512" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10513" max="10513" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10514" max="10514" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10515" max="10515" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10516" max="10752" width="9.140625" style="27"/>
-    <col min="10753" max="10753" width="26.140625" style="27" customWidth="1"/>
-    <col min="10754" max="10754" width="39.28515625" style="27" customWidth="1"/>
-    <col min="10755" max="10755" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="4.42578125" style="27" customWidth="1"/>
-    <col min="10760" max="10760" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10763" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="15.28515625" style="27" customWidth="1"/>
-    <col min="10765" max="10765" width="9.140625" style="27"/>
-    <col min="10766" max="10766" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10767" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10513" max="10513" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10514" max="10514" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10515" max="10515" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10516" max="10752" width="9.109375" style="27"/>
+    <col min="10753" max="10753" width="26.109375" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="39.33203125" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="4.44140625" style="27" customWidth="1"/>
+    <col min="10760" max="10760" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10763" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="15.33203125" style="27" customWidth="1"/>
+    <col min="10765" max="10765" width="9.109375" style="27"/>
+    <col min="10766" max="10766" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="10768" max="10768" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="10769" max="10769" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10770" max="10770" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10771" max="10771" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10772" max="11008" width="9.140625" style="27"/>
-    <col min="11009" max="11009" width="26.140625" style="27" customWidth="1"/>
-    <col min="11010" max="11010" width="39.28515625" style="27" customWidth="1"/>
-    <col min="11011" max="11011" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="4.42578125" style="27" customWidth="1"/>
-    <col min="11016" max="11016" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11019" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="15.28515625" style="27" customWidth="1"/>
-    <col min="11021" max="11021" width="9.140625" style="27"/>
-    <col min="11022" max="11022" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11023" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10769" max="10769" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10770" max="10770" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10771" max="10771" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10772" max="11008" width="9.109375" style="27"/>
+    <col min="11009" max="11009" width="26.109375" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="39.33203125" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="4.44140625" style="27" customWidth="1"/>
+    <col min="11016" max="11016" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11019" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="15.33203125" style="27" customWidth="1"/>
+    <col min="11021" max="11021" width="9.109375" style="27"/>
+    <col min="11022" max="11022" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="11024" max="11024" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11025" max="11025" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11026" max="11026" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11027" max="11027" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11028" max="11264" width="9.140625" style="27"/>
-    <col min="11265" max="11265" width="26.140625" style="27" customWidth="1"/>
-    <col min="11266" max="11266" width="39.28515625" style="27" customWidth="1"/>
-    <col min="11267" max="11267" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="4.42578125" style="27" customWidth="1"/>
-    <col min="11272" max="11272" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11275" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="15.28515625" style="27" customWidth="1"/>
-    <col min="11277" max="11277" width="9.140625" style="27"/>
-    <col min="11278" max="11278" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11279" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11025" max="11025" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11026" max="11026" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11027" max="11027" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11028" max="11264" width="9.109375" style="27"/>
+    <col min="11265" max="11265" width="26.109375" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="39.33203125" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="4.44140625" style="27" customWidth="1"/>
+    <col min="11272" max="11272" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11275" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="15.33203125" style="27" customWidth="1"/>
+    <col min="11277" max="11277" width="9.109375" style="27"/>
+    <col min="11278" max="11278" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="11280" max="11280" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11281" max="11281" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11282" max="11282" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11283" max="11283" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11284" max="11520" width="9.140625" style="27"/>
-    <col min="11521" max="11521" width="26.140625" style="27" customWidth="1"/>
-    <col min="11522" max="11522" width="39.28515625" style="27" customWidth="1"/>
-    <col min="11523" max="11523" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="4.42578125" style="27" customWidth="1"/>
-    <col min="11528" max="11528" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11531" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="15.28515625" style="27" customWidth="1"/>
-    <col min="11533" max="11533" width="9.140625" style="27"/>
-    <col min="11534" max="11534" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11535" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11281" max="11281" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11282" max="11282" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11283" max="11283" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11284" max="11520" width="9.109375" style="27"/>
+    <col min="11521" max="11521" width="26.109375" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="39.33203125" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="4.44140625" style="27" customWidth="1"/>
+    <col min="11528" max="11528" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11531" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="15.33203125" style="27" customWidth="1"/>
+    <col min="11533" max="11533" width="9.109375" style="27"/>
+    <col min="11534" max="11534" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="11536" max="11536" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11537" max="11537" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11538" max="11538" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11539" max="11539" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11540" max="11776" width="9.140625" style="27"/>
-    <col min="11777" max="11777" width="26.140625" style="27" customWidth="1"/>
-    <col min="11778" max="11778" width="39.28515625" style="27" customWidth="1"/>
-    <col min="11779" max="11779" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="4.42578125" style="27" customWidth="1"/>
-    <col min="11784" max="11784" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11787" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="15.28515625" style="27" customWidth="1"/>
-    <col min="11789" max="11789" width="9.140625" style="27"/>
-    <col min="11790" max="11790" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11791" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11537" max="11537" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11538" max="11538" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11539" max="11539" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11540" max="11776" width="9.109375" style="27"/>
+    <col min="11777" max="11777" width="26.109375" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="39.33203125" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="4.44140625" style="27" customWidth="1"/>
+    <col min="11784" max="11784" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11787" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="15.33203125" style="27" customWidth="1"/>
+    <col min="11789" max="11789" width="9.109375" style="27"/>
+    <col min="11790" max="11790" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="11792" max="11792" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="11793" max="11793" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11794" max="11794" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11795" max="11795" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11796" max="12032" width="9.140625" style="27"/>
-    <col min="12033" max="12033" width="26.140625" style="27" customWidth="1"/>
-    <col min="12034" max="12034" width="39.28515625" style="27" customWidth="1"/>
-    <col min="12035" max="12035" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="4.42578125" style="27" customWidth="1"/>
-    <col min="12040" max="12040" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12043" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="15.28515625" style="27" customWidth="1"/>
-    <col min="12045" max="12045" width="9.140625" style="27"/>
-    <col min="12046" max="12046" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12047" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11793" max="11793" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11794" max="11794" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11795" max="11795" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11796" max="12032" width="9.109375" style="27"/>
+    <col min="12033" max="12033" width="26.109375" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="39.33203125" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="4.44140625" style="27" customWidth="1"/>
+    <col min="12040" max="12040" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12043" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="15.33203125" style="27" customWidth="1"/>
+    <col min="12045" max="12045" width="9.109375" style="27"/>
+    <col min="12046" max="12046" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="12048" max="12048" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12049" max="12049" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12050" max="12050" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12051" max="12051" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12052" max="12288" width="9.140625" style="27"/>
-    <col min="12289" max="12289" width="26.140625" style="27" customWidth="1"/>
-    <col min="12290" max="12290" width="39.28515625" style="27" customWidth="1"/>
-    <col min="12291" max="12291" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="4.42578125" style="27" customWidth="1"/>
-    <col min="12296" max="12296" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12299" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="15.28515625" style="27" customWidth="1"/>
-    <col min="12301" max="12301" width="9.140625" style="27"/>
-    <col min="12302" max="12302" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12303" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12049" max="12049" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12050" max="12050" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12051" max="12051" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12052" max="12288" width="9.109375" style="27"/>
+    <col min="12289" max="12289" width="26.109375" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="39.33203125" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="4.44140625" style="27" customWidth="1"/>
+    <col min="12296" max="12296" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12299" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="15.33203125" style="27" customWidth="1"/>
+    <col min="12301" max="12301" width="9.109375" style="27"/>
+    <col min="12302" max="12302" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="12304" max="12304" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12305" max="12305" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12306" max="12306" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12307" max="12307" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12308" max="12544" width="9.140625" style="27"/>
-    <col min="12545" max="12545" width="26.140625" style="27" customWidth="1"/>
-    <col min="12546" max="12546" width="39.28515625" style="27" customWidth="1"/>
-    <col min="12547" max="12547" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="4.42578125" style="27" customWidth="1"/>
-    <col min="12552" max="12552" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12555" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="15.28515625" style="27" customWidth="1"/>
-    <col min="12557" max="12557" width="9.140625" style="27"/>
-    <col min="12558" max="12558" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12559" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12305" max="12305" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12306" max="12306" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12307" max="12307" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12308" max="12544" width="9.109375" style="27"/>
+    <col min="12545" max="12545" width="26.109375" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="39.33203125" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="4.44140625" style="27" customWidth="1"/>
+    <col min="12552" max="12552" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12555" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="15.33203125" style="27" customWidth="1"/>
+    <col min="12557" max="12557" width="9.109375" style="27"/>
+    <col min="12558" max="12558" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="12560" max="12560" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12561" max="12561" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12562" max="12562" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12563" max="12563" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12564" max="12800" width="9.140625" style="27"/>
-    <col min="12801" max="12801" width="26.140625" style="27" customWidth="1"/>
-    <col min="12802" max="12802" width="39.28515625" style="27" customWidth="1"/>
-    <col min="12803" max="12803" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="4.42578125" style="27" customWidth="1"/>
-    <col min="12808" max="12808" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12811" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="15.28515625" style="27" customWidth="1"/>
-    <col min="12813" max="12813" width="9.140625" style="27"/>
-    <col min="12814" max="12814" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12815" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12561" max="12561" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12562" max="12562" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12563" max="12563" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12564" max="12800" width="9.109375" style="27"/>
+    <col min="12801" max="12801" width="26.109375" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="39.33203125" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="4.44140625" style="27" customWidth="1"/>
+    <col min="12808" max="12808" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12811" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="15.33203125" style="27" customWidth="1"/>
+    <col min="12813" max="12813" width="9.109375" style="27"/>
+    <col min="12814" max="12814" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="12816" max="12816" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="12817" max="12817" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12818" max="12818" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12819" max="12819" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12820" max="13056" width="9.140625" style="27"/>
-    <col min="13057" max="13057" width="26.140625" style="27" customWidth="1"/>
-    <col min="13058" max="13058" width="39.28515625" style="27" customWidth="1"/>
-    <col min="13059" max="13059" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="4.42578125" style="27" customWidth="1"/>
-    <col min="13064" max="13064" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13067" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13069" max="13069" width="9.140625" style="27"/>
-    <col min="13070" max="13070" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13071" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12817" max="12817" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12818" max="12818" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12819" max="12819" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12820" max="13056" width="9.109375" style="27"/>
+    <col min="13057" max="13057" width="26.109375" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="39.33203125" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="4.44140625" style="27" customWidth="1"/>
+    <col min="13064" max="13064" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13067" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13069" max="13069" width="9.109375" style="27"/>
+    <col min="13070" max="13070" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="13072" max="13072" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13073" max="13073" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13074" max="13074" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13075" max="13075" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="13076" max="13312" width="9.140625" style="27"/>
-    <col min="13313" max="13313" width="26.140625" style="27" customWidth="1"/>
-    <col min="13314" max="13314" width="39.28515625" style="27" customWidth="1"/>
-    <col min="13315" max="13315" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="4.42578125" style="27" customWidth="1"/>
-    <col min="13320" max="13320" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13323" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13325" max="13325" width="9.140625" style="27"/>
-    <col min="13326" max="13326" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13327" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13073" max="13073" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13074" max="13074" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13075" max="13075" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13076" max="13312" width="9.109375" style="27"/>
+    <col min="13313" max="13313" width="26.109375" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="39.33203125" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="4.44140625" style="27" customWidth="1"/>
+    <col min="13320" max="13320" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13323" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13325" max="13325" width="9.109375" style="27"/>
+    <col min="13326" max="13326" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="13328" max="13328" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13329" max="13329" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13330" max="13330" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13331" max="13331" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="13332" max="13568" width="9.140625" style="27"/>
-    <col min="13569" max="13569" width="26.140625" style="27" customWidth="1"/>
-    <col min="13570" max="13570" width="39.28515625" style="27" customWidth="1"/>
-    <col min="13571" max="13571" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="4.42578125" style="27" customWidth="1"/>
-    <col min="13576" max="13576" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13579" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13581" max="13581" width="9.140625" style="27"/>
-    <col min="13582" max="13582" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13583" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13329" max="13329" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13330" max="13330" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13331" max="13331" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13332" max="13568" width="9.109375" style="27"/>
+    <col min="13569" max="13569" width="26.109375" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="39.33203125" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="4.44140625" style="27" customWidth="1"/>
+    <col min="13576" max="13576" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13579" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13581" max="13581" width="9.109375" style="27"/>
+    <col min="13582" max="13582" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="13584" max="13584" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13585" max="13585" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13586" max="13586" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13587" max="13587" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="13588" max="13824" width="9.140625" style="27"/>
-    <col min="13825" max="13825" width="26.140625" style="27" customWidth="1"/>
-    <col min="13826" max="13826" width="39.28515625" style="27" customWidth="1"/>
-    <col min="13827" max="13827" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="4.42578125" style="27" customWidth="1"/>
-    <col min="13832" max="13832" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13835" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13837" max="13837" width="9.140625" style="27"/>
-    <col min="13838" max="13838" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13839" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13585" max="13585" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13586" max="13586" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13587" max="13587" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13588" max="13824" width="9.109375" style="27"/>
+    <col min="13825" max="13825" width="26.109375" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="39.33203125" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="4.44140625" style="27" customWidth="1"/>
+    <col min="13832" max="13832" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13835" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13837" max="13837" width="9.109375" style="27"/>
+    <col min="13838" max="13838" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="13840" max="13840" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="13841" max="13841" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13842" max="13842" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13843" max="13843" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="13844" max="14080" width="9.140625" style="27"/>
-    <col min="14081" max="14081" width="26.140625" style="27" customWidth="1"/>
-    <col min="14082" max="14082" width="39.28515625" style="27" customWidth="1"/>
-    <col min="14083" max="14083" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="4.42578125" style="27" customWidth="1"/>
-    <col min="14088" max="14088" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14091" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="15.28515625" style="27" customWidth="1"/>
-    <col min="14093" max="14093" width="9.140625" style="27"/>
-    <col min="14094" max="14094" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14095" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13841" max="13841" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13842" max="13842" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13843" max="13843" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13844" max="14080" width="9.109375" style="27"/>
+    <col min="14081" max="14081" width="26.109375" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="39.33203125" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="4.44140625" style="27" customWidth="1"/>
+    <col min="14088" max="14088" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14091" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="15.33203125" style="27" customWidth="1"/>
+    <col min="14093" max="14093" width="9.109375" style="27"/>
+    <col min="14094" max="14094" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="14096" max="14096" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14097" max="14097" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14098" max="14098" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14099" max="14099" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14100" max="14336" width="9.140625" style="27"/>
-    <col min="14337" max="14337" width="26.140625" style="27" customWidth="1"/>
-    <col min="14338" max="14338" width="39.28515625" style="27" customWidth="1"/>
-    <col min="14339" max="14339" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="4.42578125" style="27" customWidth="1"/>
-    <col min="14344" max="14344" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14347" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="15.28515625" style="27" customWidth="1"/>
-    <col min="14349" max="14349" width="9.140625" style="27"/>
-    <col min="14350" max="14350" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14351" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14097" max="14097" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14098" max="14098" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14099" max="14099" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14100" max="14336" width="9.109375" style="27"/>
+    <col min="14337" max="14337" width="26.109375" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="39.33203125" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="4.44140625" style="27" customWidth="1"/>
+    <col min="14344" max="14344" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14347" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="15.33203125" style="27" customWidth="1"/>
+    <col min="14349" max="14349" width="9.109375" style="27"/>
+    <col min="14350" max="14350" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="14352" max="14352" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14353" max="14353" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14354" max="14354" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14355" max="14355" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14356" max="14592" width="9.140625" style="27"/>
-    <col min="14593" max="14593" width="26.140625" style="27" customWidth="1"/>
-    <col min="14594" max="14594" width="39.28515625" style="27" customWidth="1"/>
-    <col min="14595" max="14595" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="4.42578125" style="27" customWidth="1"/>
-    <col min="14600" max="14600" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14603" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="15.28515625" style="27" customWidth="1"/>
-    <col min="14605" max="14605" width="9.140625" style="27"/>
-    <col min="14606" max="14606" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14607" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14353" max="14353" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14354" max="14354" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14355" max="14355" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14356" max="14592" width="9.109375" style="27"/>
+    <col min="14593" max="14593" width="26.109375" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="39.33203125" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="4.44140625" style="27" customWidth="1"/>
+    <col min="14600" max="14600" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14603" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="15.33203125" style="27" customWidth="1"/>
+    <col min="14605" max="14605" width="9.109375" style="27"/>
+    <col min="14606" max="14606" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="14608" max="14608" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14609" max="14609" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14610" max="14610" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14611" max="14611" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14612" max="14848" width="9.140625" style="27"/>
-    <col min="14849" max="14849" width="26.140625" style="27" customWidth="1"/>
-    <col min="14850" max="14850" width="39.28515625" style="27" customWidth="1"/>
-    <col min="14851" max="14851" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="4.42578125" style="27" customWidth="1"/>
-    <col min="14856" max="14856" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14859" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="15.28515625" style="27" customWidth="1"/>
-    <col min="14861" max="14861" width="9.140625" style="27"/>
-    <col min="14862" max="14862" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14863" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14609" max="14609" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14610" max="14610" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14611" max="14611" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14612" max="14848" width="9.109375" style="27"/>
+    <col min="14849" max="14849" width="26.109375" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="39.33203125" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="4.44140625" style="27" customWidth="1"/>
+    <col min="14856" max="14856" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14859" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="15.33203125" style="27" customWidth="1"/>
+    <col min="14861" max="14861" width="9.109375" style="27"/>
+    <col min="14862" max="14862" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="14864" max="14864" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="14865" max="14865" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14866" max="14866" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14867" max="14867" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14868" max="15104" width="9.140625" style="27"/>
-    <col min="15105" max="15105" width="26.140625" style="27" customWidth="1"/>
-    <col min="15106" max="15106" width="39.28515625" style="27" customWidth="1"/>
-    <col min="15107" max="15107" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="4.42578125" style="27" customWidth="1"/>
-    <col min="15112" max="15112" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15115" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="15.28515625" style="27" customWidth="1"/>
-    <col min="15117" max="15117" width="9.140625" style="27"/>
-    <col min="15118" max="15118" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15119" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14865" max="14865" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14866" max="14866" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14867" max="14867" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14868" max="15104" width="9.109375" style="27"/>
+    <col min="15105" max="15105" width="26.109375" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="39.33203125" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="4.44140625" style="27" customWidth="1"/>
+    <col min="15112" max="15112" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15115" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="15.33203125" style="27" customWidth="1"/>
+    <col min="15117" max="15117" width="9.109375" style="27"/>
+    <col min="15118" max="15118" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="15120" max="15120" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15121" max="15121" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15122" max="15122" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15123" max="15123" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="15124" max="15360" width="9.140625" style="27"/>
-    <col min="15361" max="15361" width="26.140625" style="27" customWidth="1"/>
-    <col min="15362" max="15362" width="39.28515625" style="27" customWidth="1"/>
-    <col min="15363" max="15363" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="4.42578125" style="27" customWidth="1"/>
-    <col min="15368" max="15368" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15371" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="15.28515625" style="27" customWidth="1"/>
-    <col min="15373" max="15373" width="9.140625" style="27"/>
-    <col min="15374" max="15374" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15375" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15121" max="15121" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15122" max="15122" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15123" max="15123" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15124" max="15360" width="9.109375" style="27"/>
+    <col min="15361" max="15361" width="26.109375" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="39.33203125" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="4.44140625" style="27" customWidth="1"/>
+    <col min="15368" max="15368" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15371" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="15.33203125" style="27" customWidth="1"/>
+    <col min="15373" max="15373" width="9.109375" style="27"/>
+    <col min="15374" max="15374" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="15376" max="15376" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15377" max="15377" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15378" max="15378" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15379" max="15379" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="15380" max="15616" width="9.140625" style="27"/>
-    <col min="15617" max="15617" width="26.140625" style="27" customWidth="1"/>
-    <col min="15618" max="15618" width="39.28515625" style="27" customWidth="1"/>
-    <col min="15619" max="15619" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="4.42578125" style="27" customWidth="1"/>
-    <col min="15624" max="15624" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15627" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="15.28515625" style="27" customWidth="1"/>
-    <col min="15629" max="15629" width="9.140625" style="27"/>
-    <col min="15630" max="15630" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15631" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15377" max="15377" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15378" max="15378" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15379" max="15379" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15380" max="15616" width="9.109375" style="27"/>
+    <col min="15617" max="15617" width="26.109375" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="39.33203125" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="4.44140625" style="27" customWidth="1"/>
+    <col min="15624" max="15624" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15627" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="15.33203125" style="27" customWidth="1"/>
+    <col min="15629" max="15629" width="9.109375" style="27"/>
+    <col min="15630" max="15630" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="15632" max="15632" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15633" max="15633" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15634" max="15634" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15635" max="15635" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="15636" max="15872" width="9.140625" style="27"/>
-    <col min="15873" max="15873" width="26.140625" style="27" customWidth="1"/>
-    <col min="15874" max="15874" width="39.28515625" style="27" customWidth="1"/>
-    <col min="15875" max="15875" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="4.42578125" style="27" customWidth="1"/>
-    <col min="15880" max="15880" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15883" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="15.28515625" style="27" customWidth="1"/>
-    <col min="15885" max="15885" width="9.140625" style="27"/>
-    <col min="15886" max="15886" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15887" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15633" max="15633" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15634" max="15634" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15635" max="15635" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15636" max="15872" width="9.109375" style="27"/>
+    <col min="15873" max="15873" width="26.109375" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="39.33203125" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="4.44140625" style="27" customWidth="1"/>
+    <col min="15880" max="15880" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15883" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="15.33203125" style="27" customWidth="1"/>
+    <col min="15885" max="15885" width="9.109375" style="27"/>
+    <col min="15886" max="15886" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="15888" max="15888" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="15889" max="15889" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15890" max="15890" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15891" max="15891" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="15892" max="16128" width="9.140625" style="27"/>
-    <col min="16129" max="16129" width="26.140625" style="27" customWidth="1"/>
-    <col min="16130" max="16130" width="39.28515625" style="27" customWidth="1"/>
-    <col min="16131" max="16131" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="4.42578125" style="27" customWidth="1"/>
-    <col min="16136" max="16136" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16139" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="15.28515625" style="27" customWidth="1"/>
-    <col min="16141" max="16141" width="9.140625" style="27"/>
-    <col min="16142" max="16142" width="5.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16143" width="5.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15889" max="15889" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15890" max="15890" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15891" max="15891" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15892" max="16128" width="9.109375" style="27"/>
+    <col min="16129" max="16129" width="26.109375" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="39.33203125" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="4.44140625" style="27" customWidth="1"/>
+    <col min="16136" max="16136" width="15.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16139" width="10.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="15.33203125" style="27" customWidth="1"/>
+    <col min="16141" max="16141" width="9.109375" style="27"/>
+    <col min="16142" max="16142" width="5.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="5.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="16144" max="16144" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="16145" max="16145" width="8.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="16146" max="16146" width="18.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="16147" max="16147" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="16148" max="16384" width="9.140625" style="27"/>
+    <col min="16145" max="16145" width="8.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16146" max="16146" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="16147" max="16147" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16148" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>35</v>
       </c>
@@ -22862,7 +22862,7 @@
         <v>0.82328243922940547</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C3" s="112" t="s">
         <v>37</v>
       </c>
@@ -22881,7 +22881,7 @@
       <c r="U3" s="33"/>
       <c r="V3" s="33"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>40</v>
       </c>
@@ -22917,7 +22917,7 @@
       <c r="U4" s="33"/>
       <c r="V4" s="33"/>
     </row>
-    <row r="5" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>47</v>
       </c>
@@ -22975,7 +22975,7 @@
       <c r="U5" s="33"/>
       <c r="V5" s="33"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>61</v>
       </c>
@@ -23046,7 +23046,7 @@
       <c r="U6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>61</v>
       </c>
@@ -23117,7 +23117,7 @@
       <c r="U7" s="47"/>
       <c r="V7" s="47"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>61</v>
       </c>
@@ -23188,7 +23188,7 @@
       <c r="U8" s="47"/>
       <c r="V8" s="47"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>61</v>
       </c>
@@ -23259,7 +23259,7 @@
       <c r="U9" s="47"/>
       <c r="V9" s="47"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>61</v>
       </c>
@@ -23330,7 +23330,7 @@
       <c r="U10" s="47"/>
       <c r="V10" s="47"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>61</v>
       </c>
@@ -23401,7 +23401,7 @@
       <c r="U11" s="47"/>
       <c r="V11" s="47"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>61</v>
       </c>
@@ -23472,7 +23472,7 @@
       <c r="U12" s="47"/>
       <c r="V12" s="47"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>61</v>
       </c>
@@ -23543,7 +23543,7 @@
       <c r="U13" s="47"/>
       <c r="V13" s="47"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>61</v>
       </c>
@@ -23614,7 +23614,7 @@
       <c r="U14" s="47"/>
       <c r="V14" s="47"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>65</v>
       </c>
@@ -23685,7 +23685,7 @@
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>65</v>
       </c>
@@ -23756,7 +23756,7 @@
       <c r="U16" s="47"/>
       <c r="V16" s="47"/>
     </row>
-    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>65</v>
       </c>
@@ -23827,7 +23827,7 @@
       <c r="U17" s="47"/>
       <c r="V17" s="47"/>
     </row>
-    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>65</v>
       </c>
@@ -23898,7 +23898,7 @@
       <c r="U18" s="47"/>
       <c r="V18" s="47"/>
     </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>65</v>
       </c>
@@ -23969,7 +23969,7 @@
       <c r="U19" s="47"/>
       <c r="V19" s="47"/>
     </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>65</v>
       </c>
@@ -24040,7 +24040,7 @@
       <c r="U20" s="47"/>
       <c r="V20" s="47"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>65</v>
       </c>
@@ -24111,7 +24111,7 @@
       <c r="U21" s="47"/>
       <c r="V21" s="47"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
         <v>65</v>
       </c>
@@ -24182,7 +24182,7 @@
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
         <v>65</v>
       </c>
@@ -24253,7 +24253,7 @@
       <c r="U23" s="47"/>
       <c r="V23" s="47"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
@@ -24280,7 +24280,7 @@
       <c r="U24" s="47"/>
       <c r="V24" s="47"/>
     </row>
-    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>71</v>
       </c>
@@ -24351,7 +24351,7 @@
       <c r="U25" s="47"/>
       <c r="V25" s="47"/>
     </row>
-    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
         <v>72</v>
       </c>
@@ -24422,7 +24422,7 @@
       <c r="U26" s="47"/>
       <c r="V26" s="47"/>
     </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>72</v>
       </c>
@@ -24493,7 +24493,7 @@
       <c r="U27" s="47"/>
       <c r="V27" s="47"/>
     </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>72</v>
       </c>
@@ -24564,7 +24564,7 @@
       <c r="U28" s="47"/>
       <c r="V28" s="47"/>
     </row>
-    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>72</v>
       </c>
@@ -24635,7 +24635,7 @@
       <c r="U29" s="47"/>
       <c r="V29" s="47"/>
     </row>
-    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>72</v>
       </c>
@@ -24706,7 +24706,7 @@
       <c r="U30" s="47"/>
       <c r="V30" s="47"/>
     </row>
-    <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
         <v>72</v>
       </c>
@@ -24777,7 +24777,7 @@
       <c r="U31" s="47"/>
       <c r="V31" s="47"/>
     </row>
-    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="27" t="s">
         <v>72</v>
       </c>
@@ -24848,7 +24848,7 @@
       <c r="U32" s="47"/>
       <c r="V32" s="47"/>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>72</v>
       </c>
@@ -24919,7 +24919,7 @@
       <c r="U33" s="47"/>
       <c r="V33" s="47"/>
     </row>
-    <row r="34" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="61"/>
       <c r="C34" s="62"/>
       <c r="D34" s="63"/>
@@ -24942,7 +24942,7 @@
       <c r="U34" s="47"/>
       <c r="V34" s="47"/>
     </row>
-    <row r="35" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="61"/>
       <c r="C35" s="62"/>
       <c r="D35" s="63"/>
@@ -24965,7 +24965,7 @@
       <c r="U35" s="47"/>
       <c r="V35" s="47"/>
     </row>
-    <row r="36" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="61"/>
       <c r="C36" s="62"/>
       <c r="D36" s="63"/>
@@ -24988,7 +24988,7 @@
       <c r="U36" s="47"/>
       <c r="V36" s="47"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>65</v>
       </c>
@@ -25048,7 +25048,7 @@
       <c r="U37" s="47"/>
       <c r="V37" s="47"/>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>61</v>
       </c>
@@ -25109,7 +25109,7 @@
       <c r="U38" s="47"/>
       <c r="V38" s="47"/>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>72</v>
       </c>
@@ -25170,7 +25170,7 @@
       <c r="U39" s="47"/>
       <c r="V39" s="47"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>72</v>
       </c>
@@ -25231,7 +25231,7 @@
       <c r="U40" s="47"/>
       <c r="V40" s="47"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
       <c r="C41" s="62"/>
       <c r="D41" s="63"/>
@@ -25254,7 +25254,7 @@
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
@@ -25277,7 +25277,7 @@
       <c r="U42" s="47"/>
       <c r="V42" s="47"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B43" s="61"/>
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
@@ -25300,7 +25300,7 @@
       <c r="U43" s="47"/>
       <c r="V43" s="47"/>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>81</v>
       </c>
@@ -25371,7 +25371,7 @@
       <c r="U44" s="47"/>
       <c r="V44" s="47"/>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="27" t="s">
         <v>83</v>
       </c>
@@ -25439,7 +25439,7 @@
       <c r="U45" s="47"/>
       <c r="V45" s="47"/>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="27" t="s">
         <v>84</v>
       </c>
@@ -25507,7 +25507,7 @@
       <c r="U46" s="47"/>
       <c r="V46" s="47"/>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="27" t="s">
         <v>85</v>
       </c>
@@ -25575,7 +25575,7 @@
       <c r="U47" s="47"/>
       <c r="V47" s="47"/>
     </row>
-    <row r="48" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="27" t="s">
         <v>86</v>
       </c>
@@ -25643,7 +25643,7 @@
       <c r="U48" s="47"/>
       <c r="V48" s="47"/>
     </row>
-    <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="71" t="s">
         <v>87</v>
       </c>
@@ -25714,7 +25714,7 @@
       <c r="U49" s="47"/>
       <c r="V49" s="47"/>
     </row>
-    <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="82" t="s">
         <v>89</v>
       </c>
@@ -25785,7 +25785,7 @@
       <c r="U50" s="47"/>
       <c r="V50" s="47"/>
     </row>
-    <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="82" t="s">
         <v>91</v>
       </c>
@@ -25856,7 +25856,7 @@
       <c r="U51" s="47"/>
       <c r="V51" s="47"/>
     </row>
-    <row r="52" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="88"/>
       <c r="B52" s="89" t="s">
         <v>93</v>
@@ -25925,7 +25925,7 @@
       <c r="U52" s="47"/>
       <c r="V52" s="47"/>
     </row>
-    <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="27" t="s">
         <v>94</v>
       </c>
@@ -25993,17 +25993,17 @@
       <c r="U53" s="47"/>
       <c r="V53" s="47"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B54" s="52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -26015,7 +26015,7 @@
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C59" s="113" t="s">
         <v>37</v>
       </c>
@@ -26029,7 +26029,7 @@
       <c r="J59" s="113"/>
       <c r="K59" s="113"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C60" s="34" t="s">
         <v>41</v>
       </c>
@@ -26047,7 +26047,7 @@
       </c>
       <c r="K60" s="112"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B61" s="29" t="s">
         <v>48</v>
       </c>
@@ -26073,7 +26073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B62" s="27" t="s">
         <v>96</v>
       </c>
@@ -26099,7 +26099,7 @@
         <v>26510.846860263933</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B63" s="99" t="s">
         <v>97</v>
       </c>
@@ -26132,7 +26132,7 @@
       <c r="O63" s="99"/>
       <c r="P63" s="99"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B64" s="99" t="s">
         <v>99</v>
       </c>
@@ -26165,7 +26165,7 @@
       <c r="O64" s="99"/>
       <c r="P64" s="99"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="99" t="s">
         <v>100</v>
       </c>
@@ -26198,7 +26198,7 @@
       <c r="O65" s="99"/>
       <c r="P65" s="99"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="99" t="s">
         <v>101</v>
       </c>
@@ -26231,7 +26231,7 @@
       <c r="O66" s="99"/>
       <c r="P66" s="99"/>
     </row>
-    <row r="67" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="27" t="s">
         <v>102</v>
       </c>
@@ -26257,7 +26257,7 @@
         <v>4913.6306755600644</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="27" t="s">
         <v>103</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>10910.389067927425</v>
       </c>
     </row>
-    <row r="69" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="27" t="s">
         <v>104</v>
       </c>
@@ -26309,7 +26309,7 @@
         <v>11168.923800181281</v>
       </c>
     </row>
-    <row r="70" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="27" t="s">
         <v>105</v>
       </c>
@@ -26338,7 +26338,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="29" t="s">
         <v>107</v>
       </c>

--- a/Kobe plot/01-data_HOLT SR parameters KOBE PLOT.xlsx
+++ b/Kobe plot/01-data_HOLT SR parameters KOBE PLOT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\C-68_WCVI_Chinook_work\Kobe plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E12832-24A5-4E09-93E9-A79A7C0C6CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAADE1B-7602-4830-8A37-0A3C87D9794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{475432D4-1811-409C-8586-67C683C37B97}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{475432D4-1811-409C-8586-67C683C37B97}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw KOBE data" sheetId="6" r:id="rId1"/>
@@ -111,7 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>from CTC MDT tables not including Alberni Inlet fisheries.  Should also remove BSnd fisheries… to approximate ER on
 Clayoquot Snd Chinook</t>
@@ -137,7 +137,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>McHugh, Diana:</t>
         </r>
@@ -146,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Habitat updated based on discussions with the habitat manager on current usable habitat</t>
@@ -687,13 +687,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -737,7 +738,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2119,7 +2120,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D6A2BC7-FD41-4325-A4FC-D746DA31AB75}" type="CELLRANGE">
+                    <a:fld id="{F418ADA1-40E6-4EAF-A793-9A98E4989DA5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2152,7 +2153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DEBCABC-713C-4B6F-9EF3-130572C9C24D}" type="CELLRANGE">
+                    <a:fld id="{84D911C6-D479-4D1D-9048-4DAE4D88297A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2185,7 +2186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6570910E-5072-4292-AC71-71E55284C8B8}" type="CELLRANGE">
+                    <a:fld id="{18C0A1D1-D307-400B-B11E-9E2F1FC2011F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2218,7 +2219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B175662-24BF-4751-87C8-5239C47C3E01}" type="CELLRANGE">
+                    <a:fld id="{6E4630D2-A5E1-40BB-A01A-C5C4D4E929CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2251,7 +2252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AF70DD2-9008-4A69-8DB1-074D2B6244C3}" type="CELLRANGE">
+                    <a:fld id="{03287CD1-DCEE-4C6C-8233-37E6EFAD63EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2284,7 +2285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FC8B098-AB61-4DA9-9309-F60C3A795C4E}" type="CELLRANGE">
+                    <a:fld id="{422A0F3A-6EAD-44E8-A02C-B326C62DB391}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2317,7 +2318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B4A8237-CB31-482E-BB97-4C3200F0EE5D}" type="CELLRANGE">
+                    <a:fld id="{860D4D79-020A-46F7-976C-19E2D13064A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2350,7 +2351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEC40D70-5AA6-47F0-B31D-0020FB5DB060}" type="CELLRANGE">
+                    <a:fld id="{B8B8667A-8D3C-4731-97FC-9F21C30784E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2383,7 +2384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E86F6C2-A2C7-4652-B406-307A4A8FD5CF}" type="CELLRANGE">
+                    <a:fld id="{49E93E06-B852-41E0-A43C-16534A76412F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2416,7 +2417,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A655E81-F626-45D4-9049-FC98F0C9364C}" type="CELLRANGE">
+                    <a:fld id="{0D8D458A-CB10-4AEA-B960-7B1EC1749741}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2449,7 +2450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9E78936-196A-428D-B3E1-4A7983AE5276}" type="CELLRANGE">
+                    <a:fld id="{8624A969-AA26-47CF-B53C-66B93A4BFD5C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2482,7 +2483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{567C51E3-DEF1-442C-AECC-5C4509954C5E}" type="CELLRANGE">
+                    <a:fld id="{79F8A95C-FCA7-485D-AD83-440534767849}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2515,7 +2516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77673227-BFBC-4889-A5A4-C6268BD4B555}" type="CELLRANGE">
+                    <a:fld id="{4D2AB8D6-E5C8-4D8A-A71C-93B8A0264A82}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2548,7 +2549,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D86897D9-A999-4994-A6AA-3901819E3CB3}" type="CELLRANGE">
+                    <a:fld id="{FCF9205D-889B-4189-8B61-82C0EC0DFC33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2581,7 +2582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF5606E2-82BB-4D73-B285-AD4A02018E67}" type="CELLRANGE">
+                    <a:fld id="{CC43D5CA-EC63-4234-916F-57ED1E8B2C59}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2614,7 +2615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4413E28D-E6E8-4D8B-80AF-1A35433BE4A2}" type="CELLRANGE">
+                    <a:fld id="{0B548C09-4B80-46DA-BC8F-0EF9B67E8981}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2647,7 +2648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22264521-DF66-4A7F-90A9-7FB9B15BC4D1}" type="CELLRANGE">
+                    <a:fld id="{D5CC632D-3A36-45BB-950E-41F21BD16C8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2680,7 +2681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06F44B07-1B1F-427F-89F0-932E075C4DA8}" type="CELLRANGE">
+                    <a:fld id="{24241168-66DD-4991-B92B-BBFF75C9DF7D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2713,7 +2714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C106E12-C034-4217-9C77-4805C4DED8BC}" type="CELLRANGE">
+                    <a:fld id="{C5BC96D4-5CDE-4DC9-8FB9-383216042931}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2746,7 +2747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EEED53E-6E9B-43AE-BFF6-8E8C6F69A173}" type="CELLRANGE">
+                    <a:fld id="{118DFAF8-2090-408C-A748-74975356CAA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2779,7 +2780,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14C570CA-F71E-4E92-A96D-2D6E40025DC1}" type="CELLRANGE">
+                    <a:fld id="{1BA334FC-E0AE-4FC9-8CCC-5BC477ADF7EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2812,7 +2813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE2EB10D-1F0E-48CC-A896-1E3CFD04B44B}" type="CELLRANGE">
+                    <a:fld id="{7357AF87-EABF-451C-A849-D1AC7FEF6042}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2845,7 +2846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CF3DCFE-FBB1-4A43-93E5-6E19E1F61F39}" type="CELLRANGE">
+                    <a:fld id="{26056D3C-E94F-4AA6-AF59-BBEB7D5621DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2878,7 +2879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87B89F84-8192-40FE-981C-15F9C3ACD091}" type="CELLRANGE">
+                    <a:fld id="{0C30431D-BF78-43C4-83F4-5BBB8EA04E4F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2911,7 +2912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64FBF081-1BB7-415D-AE63-455602603A72}" type="CELLRANGE">
+                    <a:fld id="{2C64F7F7-E314-4807-A9A6-ADAD96E15C43}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2944,7 +2945,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8BB5A0D-17D7-41BD-BD47-5D455663AD1B}" type="CELLRANGE">
+                    <a:fld id="{221541BD-6E4D-4CDD-8619-D6CA09BB28EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2977,7 +2978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E261157-407E-4A7B-B16A-C9B2EF64A047}" type="CELLRANGE">
+                    <a:fld id="{C09E94C2-0359-4446-A7F5-55B919CD438A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3010,7 +3011,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22B0754E-8FC3-44F3-8EAA-40C00502722D}" type="CELLRANGE">
+                    <a:fld id="{9B423D56-374A-4785-B717-33B3B0539380}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3043,7 +3044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B860C912-3F00-4D0D-A302-F98C6BE59538}" type="CELLRANGE">
+                    <a:fld id="{15A09FFB-A766-45C5-A7E4-04276C7E8F77}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3076,7 +3077,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E753F9F3-CDC2-43B1-A4CD-6E944860F3C2}" type="CELLRANGE">
+                    <a:fld id="{E3D2F147-E056-4F97-818B-47AD5DD6DD72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3109,7 +3110,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{492FFB38-2FB2-42F1-9DDA-A96F814FB13A}" type="CELLRANGE">
+                    <a:fld id="{D90EBE51-4A58-4190-AD7B-C06F91B73E71}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3142,7 +3143,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{262B2E00-07E5-4BAD-B62F-0B47B3D76A5F}" type="CELLRANGE">
+                    <a:fld id="{4A3217A8-8658-46E1-994D-2D9E78FD5019}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3190,7 +3191,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{01D10D32-C113-4B93-AEFF-843787599855}" type="CELLRANGE">
+                    <a:fld id="{686AF87E-DBAB-459A-9DB0-0D832B17E50A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -5743,8 +5744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E44CE6-35B4-4E29-9C24-C5863B05D219}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5932,6 +5933,9 @@
       <c r="Q3" s="19">
         <v>400</v>
       </c>
+      <c r="R3">
+        <v>0.64496550341268899</v>
+      </c>
       <c r="S3">
         <v>14930.857403149887</v>
       </c>
@@ -5993,6 +5997,9 @@
       <c r="Q4" s="19">
         <v>950</v>
       </c>
+      <c r="R4">
+        <v>0.521173065796671</v>
+      </c>
       <c r="S4">
         <v>14930.857403149887</v>
       </c>
@@ -6053,6 +6060,9 @@
       <c r="Q5" s="19">
         <v>1500</v>
       </c>
+      <c r="R5">
+        <v>0.78308561732983195</v>
+      </c>
       <c r="S5">
         <v>14930.857403149887</v>
       </c>
@@ -6117,7 +6127,7 @@
         <v>750</v>
       </c>
       <c r="R6">
-        <v>0.65523565010086182</v>
+        <v>0.62798845438557904</v>
       </c>
       <c r="S6">
         <v>14930.857403149887</v>
@@ -6181,7 +6191,7 @@
         <v>5000</v>
       </c>
       <c r="R7">
-        <v>0.66310583580613258</v>
+        <v>0.76827632056615203</v>
       </c>
       <c r="S7">
         <v>14930.857403149887</v>
@@ -6247,7 +6257,7 @@
         <v>3000</v>
       </c>
       <c r="R8">
-        <v>0.71285529715762264</v>
+        <v>0.73571725646003205</v>
       </c>
       <c r="S8">
         <v>14930.857403149887</v>
@@ -6309,7 +6319,7 @@
         <v>5000</v>
       </c>
       <c r="R9">
-        <v>0.69820971867007675</v>
+        <v>0.65246015977536898</v>
       </c>
       <c r="S9">
         <v>14930.857403149887</v>
@@ -6369,7 +6379,7 @@
         <v>1000</v>
       </c>
       <c r="R10">
-        <v>0.72600391772771788</v>
+        <v>0.75774298372442095</v>
       </c>
       <c r="S10">
         <v>14930.857403149887</v>
@@ -6424,7 +6434,7 @@
         <v>600</v>
       </c>
       <c r="R11">
-        <v>0.63248638838475502</v>
+        <v>0.75547607558252305</v>
       </c>
       <c r="S11">
         <v>14930.857403149887</v>
@@ -6482,7 +6492,7 @@
         <v>1250</v>
       </c>
       <c r="R12">
-        <v>0.58500590318772139</v>
+        <v>0.67936916550402904</v>
       </c>
       <c r="S12">
         <v>14930.857403149887</v>
@@ -6547,7 +6557,7 @@
         <v>1100</v>
       </c>
       <c r="R13">
-        <v>0.47697368421052633</v>
+        <v>0.64307959152778704</v>
       </c>
       <c r="S13">
         <v>14930.857403149887</v>
@@ -6612,7 +6622,7 @@
         <v>1750</v>
       </c>
       <c r="R14">
-        <v>0.32962962962962961</v>
+        <v>0.261366662537099</v>
       </c>
       <c r="S14">
         <v>14930.857403149887</v>
@@ -6667,7 +6677,7 @@
         <v>3275</v>
       </c>
       <c r="R15">
-        <v>0.40537974683544303</v>
+        <v>0.347515887283321</v>
       </c>
       <c r="S15">
         <v>14930.857403149887</v>
@@ -6733,7 +6743,7 @@
         <v>4181</v>
       </c>
       <c r="R16">
-        <v>0.37232264924806324</v>
+        <v>0.28997511235552698</v>
       </c>
       <c r="S16">
         <v>14930.857403149887</v>
@@ -6791,7 +6801,7 @@
         <v>1973</v>
       </c>
       <c r="R17">
-        <v>0.45970926058865758</v>
+        <v>0.347183975659899</v>
       </c>
       <c r="S17">
         <v>14930.857403149887</v>
@@ -6854,7 +6864,7 @@
         <v>710</v>
       </c>
       <c r="R18">
-        <v>0.46826832621752656</v>
+        <v>0.49107055045639902</v>
       </c>
       <c r="S18">
         <v>14930.857403149887</v>
@@ -6912,7 +6922,7 @@
         <v>800</v>
       </c>
       <c r="R19">
-        <v>0.63887909763835038</v>
+        <v>0.639343821507392</v>
       </c>
       <c r="S19">
         <v>14930.857403149887</v>
@@ -6980,7 +6990,7 @@
         <v>2000</v>
       </c>
       <c r="R20">
-        <v>0.50544045312267105</v>
+        <v>0.59468886693668699</v>
       </c>
       <c r="S20">
         <v>14930.857403149887</v>
@@ -7048,7 +7058,7 @@
         <v>650</v>
       </c>
       <c r="R21">
-        <v>0.49828450778569544</v>
+        <v>0.64047020787945297</v>
       </c>
       <c r="S21">
         <v>14930.857403149887</v>
@@ -7116,7 +7126,7 @@
         <v>1626</v>
       </c>
       <c r="R22">
-        <v>0.31547220361687878</v>
+        <v>0.58532973749662698</v>
       </c>
       <c r="S22">
         <v>14930.857403149887</v>
@@ -7184,7 +7194,7 @@
         <v>3971</v>
       </c>
       <c r="R23">
-        <v>0.21957040572792366</v>
+        <v>0.21704113150056001</v>
       </c>
       <c r="S23">
         <v>14930.857403149887</v>
@@ -7252,7 +7262,7 @@
         <v>2638</v>
       </c>
       <c r="R24">
-        <v>0.36310329273793412</v>
+        <v>0.24654701468285001</v>
       </c>
       <c r="S24">
         <v>14930.857403149887</v>
@@ -7320,7 +7330,7 @@
         <v>5297</v>
       </c>
       <c r="R25">
-        <v>0.39156436890147939</v>
+        <v>0.379031507555739</v>
       </c>
       <c r="S25">
         <v>14930.857403149887</v>
@@ -7388,7 +7398,7 @@
         <v>4185</v>
       </c>
       <c r="R26">
-        <v>0.38380566801619431</v>
+        <v>0.56271942199265201</v>
       </c>
       <c r="S26">
         <v>14930.857403149887</v>
@@ -7456,7 +7466,7 @@
         <v>2572</v>
       </c>
       <c r="R27">
-        <v>0.19634703196347034</v>
+        <v>0.38369238069985601</v>
       </c>
       <c r="S27">
         <v>14930.857403149887</v>
@@ -7521,7 +7531,7 @@
         <v>1450</v>
       </c>
       <c r="R28">
-        <v>0.11752136752136749</v>
+        <v>7.0462373071855003E-2</v>
       </c>
       <c r="S28">
         <v>14930.857403149887</v>
@@ -7589,7 +7599,7 @@
         <v>2485</v>
       </c>
       <c r="R29">
-        <v>0.27015355086372367</v>
+        <v>0.213603834338668</v>
       </c>
       <c r="S29">
         <v>14930.857403149887</v>
@@ -7657,7 +7667,7 @@
         <v>1749</v>
       </c>
       <c r="R30">
-        <v>0.27449664429530202</v>
+        <v>0.21326298092446999</v>
       </c>
       <c r="S30">
         <v>14930.857403149887</v>
@@ -7725,7 +7735,7 @@
         <v>3658</v>
       </c>
       <c r="R31">
-        <v>0.35162396610853336</v>
+        <v>0.34807432262711602</v>
       </c>
       <c r="S31">
         <v>14930.857403149887</v>
@@ -7791,7 +7801,7 @@
         <v>2354</v>
       </c>
       <c r="R32">
-        <v>0.39802736239261849</v>
+        <v>0.40435695405473998</v>
       </c>
       <c r="S32">
         <v>14930.857403149887</v>
@@ -7859,7 +7869,7 @@
         <v>3071</v>
       </c>
       <c r="R33">
-        <v>0.31541725601131532</v>
+        <v>0.343410884440147</v>
       </c>
       <c r="S33">
         <v>14930.857403149887</v>
@@ -7927,7 +7937,7 @@
         <v>2764</v>
       </c>
       <c r="R34">
-        <v>0.43442265795206969</v>
+        <v>0.44505786559251798</v>
       </c>
       <c r="S34">
         <v>14930.857403149887</v>
@@ -7995,7 +8005,7 @@
         <v>2683</v>
       </c>
       <c r="R35">
-        <v>0.24534161490683232</v>
+        <v>0.35398935900355799</v>
       </c>
       <c r="S35">
         <v>14930.857403149887</v>
@@ -8063,7 +8073,7 @@
         <v>3440</v>
       </c>
       <c r="R36">
-        <v>0.44186046511627908</v>
+        <v>0.45778773833580799</v>
       </c>
       <c r="S36">
         <v>14930.857403149887</v>
@@ -8131,7 +8141,7 @@
         <v>3560</v>
       </c>
       <c r="R37">
-        <v>0.3023082650781832</v>
+        <v>0.27450641880222199</v>
       </c>
       <c r="S37">
         <v>14930.857403149887</v>
@@ -8199,7 +8209,7 @@
         <v>3905</v>
       </c>
       <c r="R38">
-        <v>0.36902242911553118</v>
+        <v>0.33107899358495602</v>
       </c>
       <c r="S38">
         <v>14930.857403149887</v>
@@ -8264,7 +8274,7 @@
         <v>2364</v>
       </c>
       <c r="R39">
-        <v>0.33998005982053842</v>
+        <v>0.416534695106834</v>
       </c>
       <c r="S39">
         <v>14930.857403149887</v>
@@ -8332,7 +8342,7 @@
         <v>2081</v>
       </c>
       <c r="R40">
-        <v>0.33356741573033716</v>
+        <v>0.311091388336658</v>
       </c>
       <c r="S40">
         <v>14930.857403149887</v>
@@ -8400,7 +8410,7 @@
         <v>1185</v>
       </c>
       <c r="R41">
-        <v>0.37658495350803045</v>
+        <v>0.421621652796206</v>
       </c>
       <c r="S41">
         <v>14930.857403149887</v>
@@ -8465,7 +8475,7 @@
         <v>6516</v>
       </c>
       <c r="R42">
-        <v>0.29655956781347742</v>
+        <v>0.24462887657530799</v>
       </c>
       <c r="S42">
         <v>14930.857403149887</v>
@@ -8533,7 +8543,7 @@
         <v>2101</v>
       </c>
       <c r="R43">
-        <v>0.42065443540760356</v>
+        <v>0.36726173947249702</v>
       </c>
       <c r="S43">
         <v>14930.857403149887</v>
@@ -8601,7 +8611,7 @@
         <v>5638</v>
       </c>
       <c r="R44">
-        <v>0.36891891891891887</v>
+        <v>0.41874010103738002</v>
       </c>
       <c r="S44">
         <v>14930.857403149887</v>
@@ -8669,7 +8679,7 @@
         <v>723</v>
       </c>
       <c r="R45">
-        <v>0.34070551808028299</v>
+        <v>0.29217804565823002</v>
       </c>
       <c r="S45">
         <v>14930.857403149887</v>
@@ -8737,7 +8747,7 @@
         <v>4965</v>
       </c>
       <c r="R46">
-        <v>0.33320973005043014</v>
+        <v>0.354469259534331</v>
       </c>
       <c r="S46">
         <v>14930.857403149887</v>
@@ -8805,7 +8815,7 @@
         <v>2165</v>
       </c>
       <c r="R47">
-        <v>0.24370423289873203</v>
+        <v>0.26419466208762898</v>
       </c>
       <c r="S47">
         <v>14930.857403149887</v>
@@ -8873,7 +8883,7 @@
         <v>1857</v>
       </c>
       <c r="R48">
-        <v>0.29566059325763577</v>
+        <v>0.30771330319484402</v>
       </c>
       <c r="S48">
         <v>14930.857403149887</v>
@@ -8941,7 +8951,7 @@
         <v>1272</v>
       </c>
       <c r="R49">
-        <v>0.29499999999999998</v>
+        <v>0.392241675879546</v>
       </c>
       <c r="S49">
         <v>14930.857403149899</v>
@@ -8965,7 +8975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BC0DD-B9D0-46A6-B3F6-C52E4A9D44FD}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
